--- a/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
+++ b/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="983">
   <si>
     <t>UserName</t>
   </si>
@@ -2964,6 +2964,42 @@
   </si>
   <si>
     <t>APP DATA ENTRY income Details</t>
+  </si>
+  <si>
+    <t>AT_IJCS_05</t>
+  </si>
+  <si>
+    <t>AT_IJCS_06</t>
+  </si>
+  <si>
+    <t>AT_IJCS_07</t>
+  </si>
+  <si>
+    <t>AT_IJCS_08</t>
+  </si>
+  <si>
+    <t>AT_IJCS_09</t>
+  </si>
+  <si>
+    <t>AT_IJCS_10</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_05</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_06</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_07</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_08</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_09</t>
+  </si>
+  <si>
+    <t>DS_AT_IJCS_10</t>
   </si>
 </sst>
 </file>
@@ -3544,7 +3580,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3713,13 +3749,20 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="18" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3731,16 +3774,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="18" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3760,6 +3793,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3812,127 +3854,7 @@
     <cellStyle name="Result2 8" xfId="42"/>
     <cellStyle name="Result2_20_1" xfId="9"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
@@ -26381,7 +26303,7 @@
       <c r="A2" s="77" t="s">
         <v>843</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="114" t="s">
         <v>844</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -26400,7 +26322,7 @@
       <c r="A3" s="77" t="s">
         <v>845</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="114" t="s">
         <v>846</v>
       </c>
       <c r="C3" s="90" t="s">
@@ -26419,7 +26341,7 @@
       <c r="A4" s="77" t="s">
         <v>847</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="114" t="s">
         <v>848</v>
       </c>
       <c r="C4" s="90" t="s">
@@ -26442,7 +26364,7 @@
       <c r="A5" s="77" t="s">
         <v>851</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="114" t="s">
         <v>852</v>
       </c>
       <c r="C5" s="90" t="s">
@@ -26461,7 +26383,7 @@
       <c r="A6" s="77" t="s">
         <v>853</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="114" t="s">
         <v>854</v>
       </c>
       <c r="C6" s="90" t="s">
@@ -26472,15 +26394,15 @@
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
       <c r="H6" s="90"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" s="77" t="s">
         <v>800</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="114" t="s">
         <v>855</v>
       </c>
       <c r="C7" s="90" t="s">
@@ -26494,7 +26416,7 @@
       <c r="G7" s="90" t="s">
         <v>802</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="115" t="s">
         <v>803</v>
       </c>
       <c r="I7" s="90" t="s">
@@ -27921,11 +27843,11 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C61"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27977,10 +27899,10 @@
       <c r="B2" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="132" t="s">
         <v>890</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="117" t="s">
         <v>127</v>
       </c>
     </row>
@@ -27991,8 +27913,8 @@
       <c r="B3" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="125" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="117" t="s">
         <v>127</v>
       </c>
     </row>
@@ -28003,8 +27925,8 @@
       <c r="B4" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="125" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="117" t="s">
         <v>127</v>
       </c>
     </row>
@@ -28015,1841 +27937,1913 @@
       <c r="B5" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="125" t="s">
+      <c r="C5" s="133"/>
+      <c r="D5" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>131</v>
+      <c r="A6" s="22" t="s">
+        <v>971</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="126" t="s">
-        <v>962</v>
-      </c>
-      <c r="D6" s="125" t="s">
+        <v>977</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>177</v>
+      <c r="A7" s="22" t="s">
+        <v>972</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="125" t="s">
+        <v>978</v>
+      </c>
+      <c r="C7" s="133"/>
+      <c r="D7" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>182</v>
+      <c r="A8" s="22" t="s">
+        <v>973</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="125" t="s">
+        <v>979</v>
+      </c>
+      <c r="C8" s="133"/>
+      <c r="D8" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>185</v>
+      <c r="A9" s="22" t="s">
+        <v>974</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="127" t="s">
-        <v>963</v>
-      </c>
-      <c r="D9" s="125" t="s">
+        <v>980</v>
+      </c>
+      <c r="C9" s="133"/>
+      <c r="D9" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>220</v>
+      <c r="A10" s="22" t="s">
+        <v>975</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="125" t="s">
+        <v>981</v>
+      </c>
+      <c r="C10" s="133"/>
+      <c r="D10" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>224</v>
+      <c r="A11" s="22" t="s">
+        <v>976</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="125" t="s">
+        <v>982</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>962</v>
+      </c>
+      <c r="D12" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="117" t="s">
         <v>127</v>
-      </c>
-      <c r="F13" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="127" t="s">
-        <v>964</v>
-      </c>
-      <c r="D14" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>963</v>
+      </c>
+      <c r="D15" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="127"/>
+      <c r="D16" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="127"/>
+      <c r="D17" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="127"/>
+      <c r="D18" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="128"/>
+      <c r="D19" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>964</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="127"/>
+      <c r="D21" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="125" t="s">
+      <c r="C22" s="127"/>
+      <c r="D22" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B23" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="125" t="s">
+      <c r="C23" s="127"/>
+      <c r="D23" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B24" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="125" t="s">
+      <c r="C24" s="127"/>
+      <c r="D24" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B25" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="125" t="s">
+      <c r="C25" s="128"/>
+      <c r="D25" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C26" s="126" t="s">
         <v>965</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D26" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B27" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="125" t="s">
+      <c r="C27" s="127"/>
+      <c r="D27" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="125" t="s">
+      <c r="C28" s="127"/>
+      <c r="D28" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B29" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="125" t="s">
+      <c r="C29" s="127"/>
+      <c r="D29" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="125" t="s">
+      <c r="C30" s="127"/>
+      <c r="D30" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B31" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="125" t="s">
+      <c r="C31" s="128"/>
+      <c r="D31" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="20" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B32" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C32" s="126" t="s">
         <v>966</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D32" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="20" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="125" t="s">
+      <c r="C33" s="127"/>
+      <c r="D33" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="20" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B34" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="125" t="s">
+      <c r="C34" s="127"/>
+      <c r="D34" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="20" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="125" t="s">
+      <c r="C35" s="127"/>
+      <c r="D35" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="20" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B36" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="C30" s="129"/>
-      <c r="D30" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C31" s="117" t="s">
-        <v>967</v>
-      </c>
-      <c r="D31" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="125" t="s">
+      <c r="C36" s="128"/>
+      <c r="D36" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="22" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="125" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="122" t="s">
+        <v>967</v>
+      </c>
+      <c r="D37" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="22" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="125" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" s="123"/>
+      <c r="D38" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="22" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="125" t="s">
+        <v>394</v>
+      </c>
+      <c r="C39" s="123"/>
+      <c r="D39" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="22" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="125" t="s">
+        <v>399</v>
+      </c>
+      <c r="C40" s="123"/>
+      <c r="D40" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="22" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="125" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" s="123"/>
+      <c r="D41" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="22" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="125" t="s">
+        <v>404</v>
+      </c>
+      <c r="C42" s="123"/>
+      <c r="D42" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="22" t="s">
-        <v>626</v>
+        <v>407</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>968</v>
-      </c>
-      <c r="D43" s="125" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" s="123"/>
+      <c r="D43" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="22" t="s">
-        <v>628</v>
+        <v>411</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="125" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" s="123"/>
+      <c r="D44" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" s="123"/>
+      <c r="D45" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="123"/>
+      <c r="D46" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" s="123"/>
+      <c r="D47" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" s="124"/>
+      <c r="D48" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="C49" s="122" t="s">
+        <v>968</v>
+      </c>
+      <c r="D49" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="C50" s="123"/>
+      <c r="D50" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B51" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="125" t="s">
+      <c r="C51" s="124"/>
+      <c r="D51" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="127" t="s">
+      <c r="C52" s="126" t="s">
         <v>969</v>
       </c>
-      <c r="D46" s="125" t="s">
+      <c r="D52" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="128"/>
-      <c r="D47" s="125" t="s">
+      <c r="C53" s="127"/>
+      <c r="D53" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B54" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="128"/>
-      <c r="D48" s="125" t="s">
+      <c r="C54" s="127"/>
+      <c r="D54" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B55" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="C49" s="128"/>
-      <c r="D49" s="125" t="s">
+      <c r="C55" s="127"/>
+      <c r="D55" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B56" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="128"/>
-      <c r="D50" s="125" t="s">
+      <c r="C56" s="127"/>
+      <c r="D56" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B57" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="113" t="s">
-        <v>437</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C52" s="130" t="s">
-        <v>970</v>
-      </c>
-      <c r="D52" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="113" t="s">
-        <v>439</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="113" t="s">
-        <v>447</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="113" t="s">
-        <v>455</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="C55" s="131"/>
-      <c r="D55" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="113" t="s">
-        <v>458</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="C56" s="131"/>
-      <c r="D56" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="113" t="s">
-        <v>461</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="125" t="s">
+      <c r="C57" s="128"/>
+      <c r="D57" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="113" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="125" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="129" t="s">
+        <v>970</v>
+      </c>
+      <c r="D58" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="113" t="s">
+        <v>439</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C59" s="130"/>
+      <c r="D59" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="113" t="s">
+        <v>447</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C60" s="130"/>
+      <c r="D60" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="113" t="s">
+        <v>455</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C61" s="130"/>
+      <c r="D61" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="113" t="s">
+        <v>458</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="C62" s="130"/>
+      <c r="D62" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="113" t="s">
+        <v>461</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C63" s="130"/>
+      <c r="D63" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C64" s="130"/>
+      <c r="D64" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="113" t="s">
         <v>467</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B65" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="125" t="s">
+      <c r="C65" s="131"/>
+      <c r="D65" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B66" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="C60" s="124" t="s">
+      <c r="C66" s="121" t="s">
         <v>894</v>
       </c>
-      <c r="D60" s="125" t="s">
+      <c r="D66" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B67" s="25" t="s">
         <v>906</v>
       </c>
-      <c r="C61" s="124"/>
-      <c r="D61" s="125" t="s">
+      <c r="C67" s="121"/>
+      <c r="D67" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="22" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B68" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C62" s="116" t="s">
+      <c r="C68" s="120" t="s">
         <v>893</v>
       </c>
-      <c r="D62" s="125" t="s">
+      <c r="D68" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="22" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B69" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="C63" s="116"/>
-      <c r="D63" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="60" t="s">
-        <v>559</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C65" s="116" t="s">
-        <v>892</v>
-      </c>
-      <c r="D65" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="60" t="s">
-        <v>562</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="60" t="s">
-        <v>569</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="C67" s="116"/>
-      <c r="D67" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="60" t="s">
-        <v>573</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="C68" s="116"/>
-      <c r="D68" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="60" t="s">
-        <v>579</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="C69" s="116"/>
-      <c r="D69" s="125" t="s">
+      <c r="C69" s="120"/>
+      <c r="D69" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" s="120"/>
+      <c r="D70" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C71" s="120" t="s">
+        <v>892</v>
+      </c>
+      <c r="D71" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="60" t="s">
+        <v>562</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C72" s="120"/>
+      <c r="D72" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="C73" s="120"/>
+      <c r="D73" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="60" t="s">
+        <v>573</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C74" s="120"/>
+      <c r="D74" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="C75" s="120"/>
+      <c r="D75" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B76" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="C70" s="120" t="s">
+      <c r="C76" s="119" t="s">
         <v>895</v>
       </c>
-      <c r="D70" s="125" t="s">
+      <c r="D76" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B77" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="124" t="s">
+      <c r="C77" s="121" t="s">
         <v>896</v>
       </c>
-      <c r="D71" s="125" t="s">
+      <c r="D77" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B78" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="124"/>
-      <c r="D72" s="125" t="s">
+      <c r="C78" s="121"/>
+      <c r="D78" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="22" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B79" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="C73" s="120" t="s">
+      <c r="C79" s="119" t="s">
         <v>897</v>
       </c>
-      <c r="D73" s="125" t="s">
+      <c r="D79" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="52" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="52" t="s">
         <v>541</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B80" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="C74" s="124" t="s">
+      <c r="C80" s="121" t="s">
         <v>898</v>
       </c>
-      <c r="D74" s="125" t="s">
+      <c r="D80" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="52" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="52" t="s">
         <v>543</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B81" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="C75" s="124"/>
-      <c r="D75" s="125" t="s">
+      <c r="C81" s="121"/>
+      <c r="D81" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="52" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B82" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="C76" s="124"/>
-      <c r="D76" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="95" t="s">
-        <v>749</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="C77" s="124" t="s">
-        <v>899</v>
-      </c>
-      <c r="D77" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="95" t="s">
-        <v>756</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>757</v>
-      </c>
-      <c r="C78" s="124"/>
-      <c r="D78" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="95" t="s">
-        <v>758</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="C79" s="124"/>
-      <c r="D79" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="95" t="s">
-        <v>760</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>761</v>
-      </c>
-      <c r="C80" s="124"/>
-      <c r="D80" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="95" t="s">
-        <v>762</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>763</v>
-      </c>
-      <c r="C81" s="124"/>
-      <c r="D81" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="88" t="s">
-        <v>732</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>733</v>
-      </c>
-      <c r="C82" s="124" t="s">
-        <v>900</v>
-      </c>
-      <c r="D82" s="125" t="s">
+      <c r="C82" s="121"/>
+      <c r="D82" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="C83" s="121" t="s">
+        <v>899</v>
+      </c>
+      <c r="D83" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="95" t="s">
+        <v>756</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="C84" s="121"/>
+      <c r="D84" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="95" t="s">
+        <v>758</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="C85" s="121"/>
+      <c r="D85" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="95" t="s">
+        <v>760</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="C86" s="121"/>
+      <c r="D86" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="95" t="s">
+        <v>762</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="C87" s="121"/>
+      <c r="D87" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="88" t="s">
+        <v>732</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="C88" s="121" t="s">
+        <v>900</v>
+      </c>
+      <c r="D88" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="95" t="s">
         <v>734</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B89" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="C83" s="124"/>
-      <c r="D83" s="125" t="s">
+      <c r="C89" s="121"/>
+      <c r="D89" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="22" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B90" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="C84" s="116" t="s">
+      <c r="C90" s="120" t="s">
         <v>901</v>
       </c>
-      <c r="D84" s="125" t="s">
+      <c r="D90" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="22" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B91" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="C85" s="116"/>
-      <c r="D85" s="125" t="s">
+      <c r="C91" s="120"/>
+      <c r="D91" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="22" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B92" s="25" t="s">
         <v>688</v>
       </c>
-      <c r="C86" s="116"/>
-      <c r="D86" s="125" t="s">
+      <c r="C92" s="120"/>
+      <c r="D92" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="22" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B93" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="C87" s="116"/>
-      <c r="D87" s="125" t="s">
+      <c r="C93" s="120"/>
+      <c r="D93" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="22" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B94" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="C88" s="115" t="s">
+      <c r="C94" s="118" t="s">
         <v>902</v>
       </c>
-      <c r="D88" s="125" t="s">
+      <c r="D94" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="46" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B95" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="C89" s="116" t="s">
+      <c r="C95" s="120" t="s">
         <v>917</v>
       </c>
-      <c r="D89" s="125" t="s">
+      <c r="D95" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="46" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B96" s="25" t="s">
         <v>912</v>
       </c>
-      <c r="C90" s="116"/>
-      <c r="D90" s="125" t="s">
+      <c r="C96" s="120"/>
+      <c r="D96" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="46" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B97" s="25" t="s">
         <v>913</v>
       </c>
-      <c r="C91" s="116"/>
-      <c r="D91" s="125" t="s">
+      <c r="C97" s="120"/>
+      <c r="D97" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="46" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B98" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="C92" s="116"/>
-      <c r="D92" s="125" t="s">
+      <c r="C98" s="120"/>
+      <c r="D98" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="46" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B99" s="25" t="s">
         <v>915</v>
       </c>
-      <c r="C93" s="116"/>
-      <c r="D93" s="125" t="s">
+      <c r="C99" s="120"/>
+      <c r="D99" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="46" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="46" t="s">
         <v>911</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B100" s="25" t="s">
         <v>916</v>
       </c>
-      <c r="C94" s="116"/>
-      <c r="D94" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="95" t="s">
-        <v>765</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>766</v>
-      </c>
-      <c r="C95" s="116" t="s">
-        <v>918</v>
-      </c>
-      <c r="D95" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="95" t="s">
-        <v>767</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>768</v>
-      </c>
-      <c r="C96" s="116"/>
-      <c r="D96" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="95" t="s">
-        <v>769</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>770</v>
-      </c>
-      <c r="C97" s="116"/>
-      <c r="D97" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="95" t="s">
-        <v>771</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>772</v>
-      </c>
-      <c r="C98" s="116"/>
-      <c r="D98" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="95" t="s">
-        <v>773</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="95" t="s">
-        <v>775</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>776</v>
-      </c>
-      <c r="C100" s="116"/>
-      <c r="D100" s="125" t="s">
+      <c r="C100" s="120"/>
+      <c r="D100" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="95" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>727</v>
-      </c>
-      <c r="C101" s="116" t="s">
-        <v>919</v>
-      </c>
-      <c r="D101" s="125" t="s">
+        <v>766</v>
+      </c>
+      <c r="C101" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="D101" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="95" t="s">
-        <v>728</v>
+        <v>767</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>729</v>
-      </c>
-      <c r="C102" s="116"/>
-      <c r="D102" s="125" t="s">
+        <v>768</v>
+      </c>
+      <c r="C102" s="120"/>
+      <c r="D102" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="95" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>731</v>
-      </c>
-      <c r="C103" s="116"/>
-      <c r="D103" s="125" t="s">
+        <v>770</v>
+      </c>
+      <c r="C103" s="120"/>
+      <c r="D103" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="95" t="s">
-        <v>696</v>
+        <v>771</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>697</v>
-      </c>
-      <c r="C104" s="116" t="s">
-        <v>920</v>
-      </c>
-      <c r="D104" s="125" t="s">
+        <v>772</v>
+      </c>
+      <c r="C104" s="120"/>
+      <c r="D104" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="95" t="s">
-        <v>698</v>
+        <v>773</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="C105" s="116"/>
-      <c r="D105" s="125" t="s">
+        <v>774</v>
+      </c>
+      <c r="C105" s="120"/>
+      <c r="D105" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="95" t="s">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>701</v>
-      </c>
-      <c r="C106" s="116"/>
-      <c r="D106" s="125" t="s">
+        <v>776</v>
+      </c>
+      <c r="C106" s="120"/>
+      <c r="D106" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="95" t="s">
-        <v>921</v>
+        <v>726</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="C107" s="116" t="s">
-        <v>933</v>
-      </c>
-      <c r="D107" s="125" t="s">
+        <v>727</v>
+      </c>
+      <c r="C107" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="D107" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="95" t="s">
-        <v>922</v>
+        <v>728</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>928</v>
-      </c>
-      <c r="C108" s="116"/>
-      <c r="D108" s="125" t="s">
+        <v>729</v>
+      </c>
+      <c r="C108" s="120"/>
+      <c r="D108" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="95" t="s">
-        <v>923</v>
+        <v>730</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>929</v>
-      </c>
-      <c r="C109" s="116"/>
-      <c r="D109" s="125" t="s">
+        <v>731</v>
+      </c>
+      <c r="C109" s="120"/>
+      <c r="D109" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="95" t="s">
-        <v>924</v>
+        <v>696</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="C110" s="116"/>
-      <c r="D110" s="125" t="s">
+        <v>697</v>
+      </c>
+      <c r="C110" s="120" t="s">
+        <v>920</v>
+      </c>
+      <c r="D110" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="95" t="s">
-        <v>925</v>
+        <v>698</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>931</v>
-      </c>
-      <c r="C111" s="116"/>
-      <c r="D111" s="125" t="s">
+        <v>699</v>
+      </c>
+      <c r="C111" s="120"/>
+      <c r="D111" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="95" t="s">
-        <v>926</v>
+        <v>700</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>932</v>
-      </c>
-      <c r="C112" s="116"/>
-      <c r="D112" s="125" t="s">
+        <v>701</v>
+      </c>
+      <c r="C112" s="120"/>
+      <c r="D112" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="95" t="s">
-        <v>500</v>
+        <v>921</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C113" s="116" t="s">
-        <v>934</v>
-      </c>
-      <c r="D113" s="125" t="s">
+        <v>927</v>
+      </c>
+      <c r="C113" s="120" t="s">
+        <v>933</v>
+      </c>
+      <c r="D113" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="95" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="C114" s="116"/>
-      <c r="D114" s="125" t="s">
+        <v>928</v>
+      </c>
+      <c r="C114" s="120"/>
+      <c r="D114" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="95" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="C115" s="116"/>
-      <c r="D115" s="125" t="s">
+        <v>929</v>
+      </c>
+      <c r="C115" s="120"/>
+      <c r="D115" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="95" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>940</v>
-      </c>
-      <c r="C116" s="116"/>
-      <c r="D116" s="125" t="s">
+        <v>930</v>
+      </c>
+      <c r="C116" s="120"/>
+      <c r="D116" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="95" t="s">
-        <v>718</v>
+        <v>925</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>719</v>
-      </c>
-      <c r="C117" s="116" t="s">
-        <v>941</v>
-      </c>
-      <c r="D117" s="125" t="s">
+        <v>931</v>
+      </c>
+      <c r="C117" s="120"/>
+      <c r="D117" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="95" t="s">
-        <v>720</v>
+        <v>926</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>721</v>
-      </c>
-      <c r="C118" s="116"/>
-      <c r="D118" s="125" t="s">
+        <v>932</v>
+      </c>
+      <c r="C118" s="120"/>
+      <c r="D118" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="95" t="s">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>723</v>
-      </c>
-      <c r="C119" s="116"/>
-      <c r="D119" s="125" t="s">
+        <v>501</v>
+      </c>
+      <c r="C119" s="120" t="s">
+        <v>934</v>
+      </c>
+      <c r="D119" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="95" t="s">
-        <v>724</v>
+        <v>935</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>725</v>
-      </c>
-      <c r="C120" s="116"/>
-      <c r="D120" s="125" t="s">
+        <v>938</v>
+      </c>
+      <c r="C120" s="120"/>
+      <c r="D120" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="95" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>812</v>
-      </c>
-      <c r="C121" s="116" t="s">
-        <v>942</v>
-      </c>
-      <c r="D121" s="125" t="s">
+        <v>939</v>
+      </c>
+      <c r="C121" s="120"/>
+      <c r="D121" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="95" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>814</v>
-      </c>
-      <c r="C122" s="116"/>
-      <c r="D122" s="125" t="s">
+        <v>940</v>
+      </c>
+      <c r="C122" s="120"/>
+      <c r="D122" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="95" t="s">
-        <v>816</v>
+        <v>718</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="C123" s="116"/>
-      <c r="D123" s="125" t="s">
+        <v>719</v>
+      </c>
+      <c r="C123" s="120" t="s">
+        <v>941</v>
+      </c>
+      <c r="D123" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="95" t="s">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>819</v>
-      </c>
-      <c r="C124" s="116"/>
-      <c r="D124" s="125" t="s">
+        <v>721</v>
+      </c>
+      <c r="C124" s="120"/>
+      <c r="D124" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="95" t="s">
-        <v>821</v>
+        <v>722</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>822</v>
-      </c>
-      <c r="C125" s="116"/>
-      <c r="D125" s="125" t="s">
+        <v>723</v>
+      </c>
+      <c r="C125" s="120"/>
+      <c r="D125" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="95" t="s">
-        <v>823</v>
+        <v>724</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>824</v>
-      </c>
-      <c r="C126" s="116"/>
-      <c r="D126" s="125" t="s">
+        <v>725</v>
+      </c>
+      <c r="C126" s="120"/>
+      <c r="D126" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="95" t="s">
-        <v>826</v>
+        <v>943</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>827</v>
-      </c>
-      <c r="C127" s="116" t="s">
-        <v>945</v>
-      </c>
-      <c r="D127" s="125" t="s">
+        <v>812</v>
+      </c>
+      <c r="C127" s="120" t="s">
+        <v>942</v>
+      </c>
+      <c r="D127" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="95" t="s">
-        <v>828</v>
+        <v>944</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>829</v>
-      </c>
-      <c r="C128" s="116"/>
-      <c r="D128" s="125" t="s">
+        <v>814</v>
+      </c>
+      <c r="C128" s="120"/>
+      <c r="D128" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="95" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>831</v>
-      </c>
-      <c r="C129" s="116"/>
-      <c r="D129" s="125" t="s">
+        <v>817</v>
+      </c>
+      <c r="C129" s="120"/>
+      <c r="D129" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="95" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C130" s="116"/>
-      <c r="D130" s="125" t="s">
+        <v>819</v>
+      </c>
+      <c r="C130" s="120"/>
+      <c r="D130" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="95" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="C131" s="116"/>
-      <c r="D131" s="125" t="s">
+        <v>822</v>
+      </c>
+      <c r="C131" s="120"/>
+      <c r="D131" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="95" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="C132" s="116"/>
-      <c r="D132" s="125" t="s">
+        <v>824</v>
+      </c>
+      <c r="C132" s="120"/>
+      <c r="D132" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="95" t="s">
-        <v>946</v>
+        <v>826</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>953</v>
-      </c>
-      <c r="C133" s="116" t="s">
-        <v>960</v>
-      </c>
-      <c r="D133" s="125" t="s">
+        <v>827</v>
+      </c>
+      <c r="C133" s="120" t="s">
+        <v>945</v>
+      </c>
+      <c r="D133" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="95" t="s">
-        <v>947</v>
+        <v>828</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>954</v>
-      </c>
-      <c r="C134" s="116"/>
-      <c r="D134" s="125" t="s">
+        <v>829</v>
+      </c>
+      <c r="C134" s="120"/>
+      <c r="D134" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="95" t="s">
-        <v>948</v>
+        <v>830</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>955</v>
-      </c>
-      <c r="C135" s="116"/>
-      <c r="D135" s="125" t="s">
+        <v>831</v>
+      </c>
+      <c r="C135" s="120"/>
+      <c r="D135" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="95" t="s">
-        <v>949</v>
+        <v>832</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>956</v>
-      </c>
-      <c r="C136" s="116"/>
-      <c r="D136" s="125" t="s">
+        <v>833</v>
+      </c>
+      <c r="C136" s="120"/>
+      <c r="D136" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="95" t="s">
-        <v>950</v>
+        <v>834</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>957</v>
-      </c>
-      <c r="C137" s="116"/>
-      <c r="D137" s="125" t="s">
+        <v>835</v>
+      </c>
+      <c r="C137" s="120"/>
+      <c r="D137" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="95" t="s">
-        <v>951</v>
+        <v>836</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="C138" s="116"/>
-      <c r="D138" s="125" t="s">
+        <v>837</v>
+      </c>
+      <c r="C138" s="120"/>
+      <c r="D138" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="95" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>959</v>
-      </c>
-      <c r="C139" s="116"/>
-      <c r="D139" s="125" t="s">
+        <v>953</v>
+      </c>
+      <c r="C139" s="120" t="s">
+        <v>960</v>
+      </c>
+      <c r="D139" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="95" t="s">
-        <v>781</v>
+        <v>947</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="C140" s="116"/>
-      <c r="D140" s="125" t="s">
+        <v>954</v>
+      </c>
+      <c r="C140" s="120"/>
+      <c r="D140" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="95" t="s">
-        <v>783</v>
+        <v>948</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="C141" s="116"/>
-      <c r="D141" s="125" t="s">
+        <v>955</v>
+      </c>
+      <c r="C141" s="120"/>
+      <c r="D141" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="95" t="s">
-        <v>785</v>
+        <v>949</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="C142" s="116"/>
-      <c r="D142" s="125" t="s">
+        <v>956</v>
+      </c>
+      <c r="C142" s="120"/>
+      <c r="D142" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="95" t="s">
-        <v>787</v>
+        <v>950</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>788</v>
-      </c>
-      <c r="C143" s="116"/>
-      <c r="D143" s="125" t="s">
+        <v>957</v>
+      </c>
+      <c r="C143" s="120"/>
+      <c r="D143" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="95" t="s">
-        <v>789</v>
+        <v>951</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>790</v>
-      </c>
-      <c r="C144" s="116"/>
-      <c r="D144" s="125" t="s">
+        <v>958</v>
+      </c>
+      <c r="C144" s="120"/>
+      <c r="D144" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="95" t="s">
-        <v>791</v>
+        <v>952</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="C145" s="116"/>
-      <c r="D145" s="125" t="s">
+        <v>959</v>
+      </c>
+      <c r="C145" s="120"/>
+      <c r="D145" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="95" t="s">
+        <v>781</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="C146" s="120"/>
+      <c r="D146" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="C147" s="120"/>
+      <c r="D147" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>786</v>
+      </c>
+      <c r="C148" s="120"/>
+      <c r="D148" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="95" t="s">
+        <v>787</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="C149" s="120"/>
+      <c r="D149" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="95" t="s">
+        <v>789</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="C150" s="120"/>
+      <c r="D150" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="C151" s="120"/>
+      <c r="D151" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="95" t="s">
         <v>793</v>
       </c>
-      <c r="B146" s="25" t="s">
+      <c r="B152" s="25" t="s">
         <v>794</v>
       </c>
-      <c r="C146" s="116"/>
-      <c r="D146" s="125" t="s">
+      <c r="C152" s="120"/>
+      <c r="D152" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="77" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="77" t="s">
         <v>847</v>
       </c>
-      <c r="B147" s="25" t="s">
+      <c r="B153" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="C147" s="116" t="s">
+      <c r="C153" s="120" t="s">
         <v>961</v>
       </c>
-      <c r="D147" s="125" t="s">
+      <c r="D153" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="77" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="77" t="s">
         <v>851</v>
       </c>
-      <c r="B148" s="25" t="s">
+      <c r="B154" s="25" t="s">
         <v>852</v>
       </c>
-      <c r="C148" s="116"/>
-      <c r="D148" s="125" t="s">
+      <c r="C154" s="120"/>
+      <c r="D154" s="117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="77" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="77" t="s">
         <v>853</v>
       </c>
-      <c r="B149" s="25" t="s">
+      <c r="B155" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="C149" s="116"/>
-      <c r="D149" s="125" t="s">
+      <c r="C155" s="120"/>
+      <c r="D155" s="117" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="C121:C126"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="C123:C126"/>
     <mergeCell ref="C127:C132"/>
-    <mergeCell ref="C133:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="C139:C152"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C19"/>
     <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C31:C42"/>
-    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C75"/>
   </mergeCells>
-  <conditionalFormatting sqref="C73:C77 C82 C84 A1:B1048576 C62:C71 C88:C89 C95 C101 C104 C107 C113 C117:C121 C127:C1048576 C1:C31 C43:C46 C52:C60">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  <conditionalFormatting sqref="A1:B1048576 C1:C2 C12:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D155">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
+++ b/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="33" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="979">
   <si>
     <t>UserName</t>
   </si>
@@ -446,9 +446,6 @@
     <t>in02040</t>
   </si>
   <si>
-    <t>AT_APP_01</t>
-  </si>
-  <si>
     <t>DS01_AT_APP_01</t>
   </si>
   <si>
@@ -530,21 +527,12 @@
     <t>region</t>
   </si>
   <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>servicing_branch</t>
   </si>
   <si>
-    <t>Vasai (SPOKE Maharashtra)</t>
-  </si>
-  <si>
     <t>spoke_location</t>
   </si>
   <si>
-    <t>Pranav Karhade</t>
-  </si>
-  <si>
     <t>closing_staff_servicing_staff_RM</t>
   </si>
   <si>
@@ -560,9 +548,6 @@
     <t>sourcing_staff</t>
   </si>
   <si>
-    <t>Yogesh Shivaji Nimse</t>
-  </si>
-  <si>
     <t>VENDOR</t>
   </si>
   <si>
@@ -581,12 +566,6 @@
     <t>124</t>
   </si>
   <si>
-    <t>Ijara Auto Retail Loan-Ijara Auto Retails Loan Sub</t>
-  </si>
-  <si>
-    <t>AT_APP_02</t>
-  </si>
-  <si>
     <t>DS01_AT_APP_02</t>
   </si>
   <si>
@@ -599,9 +578,6 @@
     <t>abcd</t>
   </si>
   <si>
-    <t>AT_APP_03</t>
-  </si>
-  <si>
     <t>DS01_AT_APP_03</t>
   </si>
   <si>
@@ -950,12 +926,6 @@
     <t>DS01_AT_IJ_CD_NewApp_05</t>
   </si>
   <si>
-    <t>Cent Bank Finance LTD.</t>
-  </si>
-  <si>
-    <t>SAUDI BANK</t>
-  </si>
-  <si>
     <t>Vikram</t>
   </si>
   <si>
@@ -3000,6 +2970,24 @@
   </si>
   <si>
     <t>DS_AT_IJCS_10</t>
+  </si>
+  <si>
+    <t>Ijarah Auto Loan-Retail</t>
+  </si>
+  <si>
+    <t>Saudi National Bank</t>
+  </si>
+  <si>
+    <t>East Zone</t>
+  </si>
+  <si>
+    <t>Akrudi</t>
+  </si>
+  <si>
+    <t>anant</t>
+  </si>
+  <si>
+    <t>Monic</t>
   </si>
 </sst>
 </file>
@@ -3762,16 +3750,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3786,6 +3774,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3793,15 +3790,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3854,43 +3842,7 @@
     <cellStyle name="Result2 8" xfId="42"/>
     <cellStyle name="Result2_20_1" xfId="9"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4243,10 +4195,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -4254,10 +4206,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -4265,10 +4217,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="28" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -4276,7 +4228,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="28" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B7" s="1">
         <v>3082</v>
@@ -4287,10 +4239,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="28" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -4298,10 +4250,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="28" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -4309,10 +4261,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="28" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -4320,7 +4272,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="83" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B11" s="1">
         <v>3129</v>
@@ -4331,10 +4283,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="28" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>6</v>
@@ -4342,10 +4294,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C13" s="83" t="s">
         <v>6</v>
@@ -4353,10 +4305,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>6</v>
@@ -4364,21 +4316,21 @@
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>6</v>
@@ -4542,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -4623,7 +4575,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4664,7 +4616,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4700,10 +4652,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4744,7 +4696,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4785,7 +4737,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4854,66 +4806,66 @@
         <v>119</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>426</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
       <c r="A2" s="41" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C2" s="42">
         <v>2193</v>
@@ -4926,7 +4878,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
@@ -4939,10 +4891,10 @@
     </row>
     <row r="3" spans="1:19" ht="39.75" thickBot="1">
       <c r="A3" s="41" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C3" s="42">
         <v>2193</v>
@@ -4954,10 +4906,10 @@
         <v>13000</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H3" s="42">
         <v>85000</v>
@@ -4967,19 +4919,19 @@
         <v>100</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P3" s="42">
         <v>1500</v>
@@ -4988,16 +4940,16 @@
         <v>100</v>
       </c>
       <c r="R3" s="42" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1">
       <c r="A4" s="41" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C4" s="42">
         <v>2193</v>
@@ -5005,10 +4957,10 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
       <c r="F4" s="42" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H4" s="42">
         <v>58000</v>
@@ -5019,16 +4971,16 @@
       </c>
       <c r="K4" s="42"/>
       <c r="L4" s="42" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="O4" s="42" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P4" s="42">
         <v>750</v>
@@ -5041,10 +4993,10 @@
     </row>
     <row r="5" spans="1:19" ht="39.75" thickBot="1">
       <c r="A5" s="41" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C5" s="42">
         <v>2193</v>
@@ -5056,10 +5008,10 @@
         <v>18500</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -5076,10 +5028,10 @@
     </row>
     <row r="6" spans="1:19" ht="39.75" thickBot="1">
       <c r="A6" s="41" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C6" s="42">
         <v>2193</v>
@@ -5091,16 +5043,16 @@
         <v>8950</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H6" s="42">
         <v>22000</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
@@ -5115,10 +5067,10 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="41" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C7" s="42">
         <v>2193</v>
@@ -5142,10 +5094,10 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="41" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C8" s="42">
         <v>2193</v>
@@ -5165,18 +5117,18 @@
       <c r="P8" s="42"/>
       <c r="Q8" s="42"/>
       <c r="R8" s="42" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="S8" s="42" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="41" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C9" s="42">
         <v>2193</v>
@@ -5223,22 +5175,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="44" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
@@ -5249,20 +5201,20 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="46" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="47" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -5287,7 +5239,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="50" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="48"/>
@@ -5317,13 +5269,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="46" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
@@ -5351,7 +5303,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="50" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="48"/>
@@ -5381,13 +5333,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
@@ -5415,7 +5367,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="50" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="48"/>
@@ -5445,13 +5397,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="46" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
@@ -5479,7 +5431,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="50" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="48"/>
@@ -5495,7 +5447,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="50" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="48"/>
@@ -5525,13 +5477,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="46" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
@@ -5559,7 +5511,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="50" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="48"/>
@@ -5589,13 +5541,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="46" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
@@ -5623,7 +5575,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="50" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="48"/>
@@ -5639,7 +5591,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="50" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="48"/>
@@ -5669,13 +5621,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="46" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
@@ -5703,7 +5655,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="50" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="48"/>
@@ -5719,7 +5671,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="50" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="48"/>
@@ -5749,13 +5701,13 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="46" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
@@ -5783,7 +5735,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="50" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B35" s="46"/>
       <c r="C35" s="48"/>
@@ -5813,13 +5765,13 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="46" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -5847,7 +5799,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="50" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="48"/>
@@ -5877,13 +5829,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="46" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
@@ -5911,7 +5863,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="50" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="48"/>
@@ -5941,13 +5893,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="46" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -5975,7 +5927,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="50" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B47" s="46"/>
       <c r="C47" s="48"/>
@@ -6005,13 +5957,13 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="46" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
@@ -6303,24 +6255,24 @@
         <v>119</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C2" s="25">
         <v>2193</v>
@@ -6330,10 +6282,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C3" s="25">
         <v>2193</v>
@@ -6347,10 +6299,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C4" s="25">
         <v>2193</v>
@@ -6390,54 +6342,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="57" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="I1" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="K1" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="J1" s="59" t="s">
-        <v>556</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>436</v>
-      </c>
       <c r="L1" s="59" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="60" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -6452,28 +6404,28 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="60" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -6483,25 +6435,25 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="60" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -6510,13 +6462,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="60" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -6525,30 +6477,30 @@
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="60" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E6" s="47">
         <v>100000</v>
@@ -6631,35 +6583,35 @@
         <v>119</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="62" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -6668,38 +6620,38 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C2" s="25">
         <v>2968</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E2" s="25">
         <v>100</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="64" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="M2" s="64"/>
       <c r="N2" s="3"/>
@@ -6978,7 +6930,7 @@
         <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>71</v>
@@ -7076,7 +7028,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7154,37 +7106,37 @@
         <v>119</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -7202,10 +7154,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="22" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C2" s="25">
         <v>2968</v>
@@ -7214,7 +7166,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="F2" s="25">
         <v>10</v>
@@ -7271,39 +7223,39 @@
         <v>119</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>525</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>535</v>
-      </c>
       <c r="F1" s="51" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="52" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C2" s="53">
         <v>2193</v>
@@ -7318,16 +7270,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="52" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C3" s="53">
         <v>2193</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E3" s="25">
         <v>4000</v>
@@ -7348,10 +7300,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="52" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C4" s="53">
         <v>2193</v>
@@ -7364,15 +7316,15 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="54" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="I6" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="4:4">
@@ -7415,97 +7367,97 @@
   <sheetData>
     <row r="1" spans="1:15" s="94" customFormat="1">
       <c r="A1" s="93" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>735</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>737</v>
+      </c>
+      <c r="J1" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="93" t="s">
-        <v>744</v>
-      </c>
-      <c r="E1" s="93" t="s">
+      <c r="L1" s="93" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="93" t="s">
-        <v>745</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>746</v>
-      </c>
-      <c r="H1" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="I1" s="93" t="s">
-        <v>747</v>
-      </c>
-      <c r="J1" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="K1" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="L1" s="93" t="s">
-        <v>365</v>
-      </c>
       <c r="M1" s="93" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="N1" s="93"/>
       <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="95" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="95" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7520,13 +7472,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="95" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7541,13 +7493,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="95" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7562,13 +7514,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="95" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7615,74 +7567,74 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>316</v>
       </c>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="22" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D2" s="22">
         <v>2022</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -7697,34 +7649,34 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M3" s="25">
         <v>1234</v>
@@ -7736,30 +7688,30 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="6" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M4" s="25">
         <v>1234</v>
@@ -7771,39 +7723,39 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="22" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="6" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M5" s="25">
         <v>1234</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
@@ -7950,13 +7902,13 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="88" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D2" s="90" t="s">
         <v>36</v>
@@ -8031,13 +7983,13 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="77" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
@@ -8068,13 +8020,13 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="77" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
@@ -8105,13 +8057,13 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="77" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -8142,13 +8094,13 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="77" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -8179,13 +8131,13 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="77" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
@@ -8262,82 +8214,82 @@
         <v>119</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>644</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>645</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="M1" s="80" t="s">
         <v>648</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="N1" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="O1" s="80" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="P1" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="Q1" s="80" t="s">
         <v>652</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="R1" s="80" t="s">
         <v>653</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="S1" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="T1" s="80" t="s">
         <v>655</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="U1" s="80" t="s">
         <v>656</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="V1" s="80" t="s">
         <v>657</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="W1" s="80" t="s">
         <v>658</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="X1" s="80" t="s">
         <v>659</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="Y1" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z1" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="AA1" s="26" t="s">
         <v>661</v>
-      </c>
-      <c r="Q1" s="80" t="s">
-        <v>662</v>
-      </c>
-      <c r="R1" s="80" t="s">
-        <v>663</v>
-      </c>
-      <c r="S1" s="80" t="s">
-        <v>664</v>
-      </c>
-      <c r="T1" s="80" t="s">
-        <v>665</v>
-      </c>
-      <c r="U1" s="80" t="s">
-        <v>666</v>
-      </c>
-      <c r="V1" s="80" t="s">
-        <v>667</v>
-      </c>
-      <c r="W1" s="80" t="s">
-        <v>668</v>
-      </c>
-      <c r="X1" s="80" t="s">
-        <v>669</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>671</v>
       </c>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -24699,51 +24651,51 @@
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" s="22" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="P2" s="28">
         <v>895568</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>113</v>
@@ -24762,7 +24714,7 @@
         <v>5000</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="Y2" s="28">
         <v>3061</v>
@@ -24772,10 +24724,10 @@
     </row>
     <row r="3" spans="1:16384">
       <c r="A3" s="22" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -24807,10 +24759,10 @@
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" s="22" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -24842,10 +24794,10 @@
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" s="22" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -24873,18 +24825,18 @@
         <v>3061</v>
       </c>
       <c r="Z5" s="28" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="22" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -24912,18 +24864,18 @@
         <v>3426</v>
       </c>
       <c r="Z6" s="28" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="A7" s="22" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -24951,10 +24903,10 @@
         <v>3426</v>
       </c>
       <c r="Z7" s="28" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -24990,7 +24942,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="75" t="s">
         <v>43</v>
@@ -25019,13 +24971,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="77" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>36</v>
@@ -25054,13 +25006,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="77" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -25073,13 +25025,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="77" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
@@ -25152,79 +25104,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="58" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="95" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="95" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="95" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="95" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="95" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="95" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -25256,15 +25208,15 @@
         <v>8</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="98" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -25272,10 +25224,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="98" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -25283,10 +25235,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="98" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -25319,18 +25271,18 @@
         <v>119</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -25338,10 +25290,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -25349,10 +25301,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -25380,57 +25332,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="84" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="28" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="28" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -25467,54 +25419,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="58" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="J1" s="58" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="K1" s="58" t="s">
+        <v>789</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>799</v>
       </c>
-      <c r="L1" s="58" t="s">
-        <v>809</v>
-      </c>
       <c r="M1" s="58" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -25529,16 +25481,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="95" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
@@ -25552,19 +25504,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="95" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -25577,46 +25529,46 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="95" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="95" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -25631,13 +25583,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="95" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -25648,10 +25600,10 @@
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
       <c r="L7" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -25676,79 +25628,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="93" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="95" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="95" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="95" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="95" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="95" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="95" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -25778,24 +25730,24 @@
         <v>119</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" s="96" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C2" s="25">
         <v>3214</v>
@@ -25809,10 +25761,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C3" s="25">
         <v>3214</v>
@@ -25826,10 +25778,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="C4" s="25">
         <v>3214</v>
@@ -25843,10 +25795,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C5" s="25">
         <v>3214</v>
@@ -25860,10 +25812,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="22" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C6" s="25">
         <v>3214</v>
@@ -25877,10 +25829,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="22" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C7" s="25">
         <v>3214</v>
@@ -25894,10 +25846,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="22" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C8" s="25">
         <v>3214</v>
@@ -25919,8 +25871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25970,79 +25922,79 @@
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>173</v>
-      </c>
       <c r="AB1" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>67</v>
@@ -26051,93 +26003,93 @@
         <v>53</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>142</v>
+        <v>754</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>176</v>
+        <v>973</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>106</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>299</v>
+        <v>974</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>159</v>
+        <v>975</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>161</v>
+        <v>976</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>163</v>
+        <v>977</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>113</v>
+        <v>975</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>300</v>
+        <v>974</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>169</v>
+        <v>978</v>
       </c>
       <c r="Z2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -26145,28 +26097,28 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>325</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -26189,24 +26141,24 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -26216,7 +26168,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -26272,42 +26224,42 @@
         <v>8</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="77" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B2" s="114" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D2" s="90"/>
       <c r="E2" s="90"/>
@@ -26320,13 +26272,13 @@
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="77" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B3" s="114" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
@@ -26339,19 +26291,19 @@
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="77" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="F4" s="90"/>
       <c r="G4" s="90"/>
@@ -26362,13 +26314,13 @@
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="77" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -26381,13 +26333,13 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="77" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -26400,33 +26352,33 @@
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" s="77" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G7" s="90" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="H7" s="115" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="J7" s="90" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="K7" s="90" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -26464,36 +26416,36 @@
         <v>119</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" s="96" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="22" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="C2" s="25">
         <v>3209</v>
@@ -26502,19 +26454,19 @@
         <v>5679</v>
       </c>
       <c r="E2" s="104" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="G2" s="104" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="H2" s="104" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="I2" s="104" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -26542,18 +26494,18 @@
         <v>119</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C2">
         <v>3061</v>
@@ -26582,27 +26534,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="57" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D2" s="70">
         <v>2193</v>
@@ -26649,120 +26601,120 @@
   <sheetData>
     <row r="1" spans="1:22" s="94" customFormat="1" ht="30">
       <c r="A1" s="93" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>735</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>854</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>855</v>
+      </c>
+      <c r="J1" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="93" t="s">
+        <v>737</v>
+      </c>
+      <c r="L1" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="93" t="s">
-        <v>744</v>
-      </c>
-      <c r="E1" s="93" t="s">
+      <c r="N1" s="93" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="93" t="s">
-        <v>745</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>746</v>
-      </c>
-      <c r="H1" s="93" t="s">
-        <v>864</v>
-      </c>
-      <c r="I1" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="J1" s="93" t="s">
+      <c r="O1" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="R1" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="T1" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="93" t="s">
-        <v>747</v>
-      </c>
-      <c r="L1" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="M1" s="93" t="s">
+      <c r="U1" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="V1" s="106" t="s">
         <v>364</v>
-      </c>
-      <c r="N1" s="93" t="s">
-        <v>365</v>
-      </c>
-      <c r="O1" s="93" t="s">
-        <v>366</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>368</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>369</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>370</v>
-      </c>
-      <c r="T1" s="93" t="s">
-        <v>371</v>
-      </c>
-      <c r="U1" s="93" t="s">
-        <v>372</v>
-      </c>
-      <c r="V1" s="106" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1">
       <c r="A2" s="95" t="s">
+        <v>856</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>857</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>866</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>867</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>868</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>876</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -26773,13 +26725,13 @@
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1">
       <c r="A3" s="95" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -26803,13 +26755,13 @@
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1">
       <c r="A4" s="95" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -26833,52 +26785,52 @@
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1">
       <c r="A5" s="95" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -26889,13 +26841,13 @@
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1">
       <c r="A6" s="95" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -26911,22 +26863,22 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>113</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="V6" s="107" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -26959,15 +26911,15 @@
         <v>8</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="98" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -26975,10 +26927,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="98" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -26986,10 +26938,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="98" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -26997,10 +26949,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="98" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C5" s="25">
         <v>3061</v>
@@ -27008,10 +26960,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="98" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C6" s="25">
         <v>3061</v>
@@ -27019,10 +26971,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="98" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C7" s="25">
         <v>3061</v>
@@ -27074,96 +27026,96 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="29" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="P1" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="R1" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="T1" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="Z1" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="32" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D2" s="34">
         <v>2596</v>
@@ -27194,22 +27146,22 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="32" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D3" s="34">
         <v>2596</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="35"/>
@@ -27217,7 +27169,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
@@ -27288,10 +27240,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="110" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="111" t="s">
         <v>127</v>
@@ -27299,10 +27251,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>127</v>
@@ -27310,10 +27262,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>127</v>
@@ -27321,10 +27273,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>127</v>
@@ -27332,10 +27284,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>127</v>
@@ -27343,10 +27295,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>127</v>
@@ -27354,10 +27306,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>127</v>
@@ -27365,10 +27317,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>127</v>
@@ -27376,10 +27328,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>127</v>
@@ -27387,10 +27339,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>127</v>
@@ -27398,10 +27350,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>127</v>
@@ -27409,24 +27361,24 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>127</v>
@@ -27434,10 +27386,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>127</v>
@@ -27445,10 +27397,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>127</v>
@@ -27456,10 +27408,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>127</v>
@@ -27467,10 +27419,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>127</v>
@@ -27478,10 +27430,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>127</v>
@@ -27489,10 +27441,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>127</v>
@@ -27500,10 +27452,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>127</v>
@@ -27511,10 +27463,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>127</v>
@@ -27522,10 +27474,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>127</v>
@@ -27533,10 +27485,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>127</v>
@@ -27544,10 +27496,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>127</v>
@@ -27555,10 +27507,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>127</v>
@@ -27566,10 +27518,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>127</v>
@@ -27577,10 +27529,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>127</v>
@@ -27588,10 +27540,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>127</v>
@@ -27599,10 +27551,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>127</v>
@@ -27610,10 +27562,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>127</v>
@@ -27621,10 +27573,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>127</v>
@@ -27632,10 +27584,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>127</v>
@@ -27731,10 +27683,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="95" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B42" s="95" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>127</v>
@@ -27742,10 +27694,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="95" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B43" s="95" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>127</v>
@@ -27753,10 +27705,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="95" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B44" s="95" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>127</v>
@@ -27764,10 +27716,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="95" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>127</v>
@@ -27775,10 +27727,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="95" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B46" s="95" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>127</v>
@@ -27786,10 +27738,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="22" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>127</v>
@@ -27797,10 +27749,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>127</v>
@@ -27808,10 +27760,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>127</v>
@@ -27819,10 +27771,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="22" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>127</v>
@@ -27845,9 +27797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27871,7 +27823,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>121</v>
@@ -27894,13 +27846,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="22" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="132" t="s">
-        <v>890</v>
+        <v>308</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>880</v>
       </c>
       <c r="D2" s="117" t="s">
         <v>127</v>
@@ -27908,121 +27860,121 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="133"/>
+        <v>313</v>
+      </c>
+      <c r="C3" s="122"/>
       <c r="D3" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="133"/>
+        <v>319</v>
+      </c>
+      <c r="C4" s="122"/>
       <c r="D4" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="133"/>
+        <v>321</v>
+      </c>
+      <c r="C5" s="122"/>
       <c r="D5" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="22" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>977</v>
-      </c>
-      <c r="C6" s="133"/>
+        <v>967</v>
+      </c>
+      <c r="C6" s="122"/>
       <c r="D6" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="22" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="C7" s="133"/>
+        <v>968</v>
+      </c>
+      <c r="C7" s="122"/>
       <c r="D7" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="22" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>979</v>
-      </c>
-      <c r="C8" s="133"/>
+        <v>969</v>
+      </c>
+      <c r="C8" s="122"/>
       <c r="D8" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="22" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>980</v>
-      </c>
-      <c r="C9" s="133"/>
+        <v>970</v>
+      </c>
+      <c r="C9" s="122"/>
       <c r="D9" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="22" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>981</v>
-      </c>
-      <c r="C10" s="133"/>
+        <v>971</v>
+      </c>
+      <c r="C10" s="122"/>
       <c r="D10" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="22" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>982</v>
-      </c>
-      <c r="C11" s="134"/>
+        <v>972</v>
+      </c>
+      <c r="C11" s="123"/>
       <c r="D11" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>132</v>
-      </c>
       <c r="C12" s="125" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>127</v>
@@ -28030,10 +27982,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>178</v>
+        <v>325</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C13" s="125"/>
       <c r="D13" s="117" t="s">
@@ -28042,10 +27994,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>183</v>
+        <v>326</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="C14" s="125"/>
       <c r="D14" s="117" t="s">
@@ -28054,13 +28006,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="D15" s="117" t="s">
         <v>127</v>
@@ -28068,10 +28020,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C16" s="127"/>
       <c r="D16" s="117" t="s">
@@ -28080,10 +28032,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="117" t="s">
@@ -28092,10 +28044,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C18" s="127"/>
       <c r="D18" s="117" t="s">
@@ -28104,28 +28056,28 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C19" s="128"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="D20" s="117" t="s">
         <v>127</v>
@@ -28133,10 +28085,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C21" s="127"/>
       <c r="D21" s="117" t="s">
@@ -28145,10 +28097,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C22" s="127"/>
       <c r="D22" s="117" t="s">
@@ -28157,10 +28109,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C23" s="127"/>
       <c r="D23" s="117" t="s">
@@ -28169,10 +28121,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C24" s="127"/>
       <c r="D24" s="117" t="s">
@@ -28181,10 +28133,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C25" s="128"/>
       <c r="D25" s="117" t="s">
@@ -28193,13 +28145,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="D26" s="117" t="s">
         <v>127</v>
@@ -28207,10 +28159,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C27" s="127"/>
       <c r="D27" s="117" t="s">
@@ -28219,10 +28171,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C28" s="127"/>
       <c r="D28" s="117" t="s">
@@ -28231,10 +28183,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C29" s="127"/>
       <c r="D29" s="117" t="s">
@@ -28243,10 +28195,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C30" s="127"/>
       <c r="D30" s="117" t="s">
@@ -28255,10 +28207,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C31" s="128"/>
       <c r="D31" s="117" t="s">
@@ -28267,13 +28219,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="D32" s="117" t="s">
         <v>127</v>
@@ -28281,10 +28233,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C33" s="127"/>
       <c r="D33" s="117" t="s">
@@ -28293,10 +28245,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C34" s="127"/>
       <c r="D34" s="117" t="s">
@@ -28305,10 +28257,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C35" s="127"/>
       <c r="D35" s="117" t="s">
@@ -28317,10 +28269,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C36" s="128"/>
       <c r="D36" s="117" t="s">
@@ -28329,13 +28281,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="22" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C37" s="122" t="s">
-        <v>967</v>
+        <v>367</v>
+      </c>
+      <c r="C37" s="129" t="s">
+        <v>957</v>
       </c>
       <c r="D37" s="117" t="s">
         <v>127</v>
@@ -28343,145 +28295,145 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C38" s="123"/>
+        <v>379</v>
+      </c>
+      <c r="C38" s="130"/>
       <c r="D38" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="22" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" s="123"/>
+        <v>384</v>
+      </c>
+      <c r="C39" s="130"/>
       <c r="D39" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="22" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C40" s="123"/>
+        <v>389</v>
+      </c>
+      <c r="C40" s="130"/>
       <c r="D40" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="22" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C41" s="123"/>
+        <v>391</v>
+      </c>
+      <c r="C41" s="130"/>
       <c r="D41" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="22" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C42" s="123"/>
+        <v>394</v>
+      </c>
+      <c r="C42" s="130"/>
       <c r="D42" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="22" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="C43" s="123"/>
+        <v>398</v>
+      </c>
+      <c r="C43" s="130"/>
       <c r="D43" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="22" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="C44" s="123"/>
+        <v>402</v>
+      </c>
+      <c r="C44" s="130"/>
       <c r="D44" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="22" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C45" s="123"/>
+        <v>404</v>
+      </c>
+      <c r="C45" s="130"/>
       <c r="D45" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="22" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="C46" s="123"/>
+        <v>406</v>
+      </c>
+      <c r="C46" s="130"/>
       <c r="D46" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="22" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="C47" s="123"/>
+        <v>408</v>
+      </c>
+      <c r="C47" s="130"/>
       <c r="D47" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="22" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="C48" s="124"/>
+        <v>410</v>
+      </c>
+      <c r="C48" s="131"/>
       <c r="D48" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="22" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="C49" s="122" t="s">
-        <v>968</v>
+        <v>617</v>
+      </c>
+      <c r="C49" s="129" t="s">
+        <v>958</v>
       </c>
       <c r="D49" s="117" t="s">
         <v>127</v>
@@ -28489,24 +28441,24 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="C50" s="123"/>
+        <v>619</v>
+      </c>
+      <c r="C50" s="130"/>
       <c r="D50" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="22" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="C51" s="124"/>
+        <v>622</v>
+      </c>
+      <c r="C51" s="131"/>
       <c r="D51" s="117" t="s">
         <v>127</v>
       </c>
@@ -28519,7 +28471,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="126" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="D52" s="117" t="s">
         <v>127</v>
@@ -28554,7 +28506,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C55" s="127"/>
       <c r="D55" s="117" t="s">
@@ -28587,13 +28539,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="113" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C58" s="129" t="s">
-        <v>970</v>
+        <v>428</v>
+      </c>
+      <c r="C58" s="132" t="s">
+        <v>960</v>
       </c>
       <c r="D58" s="117" t="s">
         <v>127</v>
@@ -28601,97 +28553,97 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="113" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="C59" s="130"/>
+        <v>430</v>
+      </c>
+      <c r="C59" s="133"/>
       <c r="D59" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="113" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C60" s="130"/>
+        <v>438</v>
+      </c>
+      <c r="C60" s="133"/>
       <c r="D60" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="113" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="C61" s="130"/>
+        <v>446</v>
+      </c>
+      <c r="C61" s="133"/>
       <c r="D61" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="113" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="C62" s="130"/>
+        <v>449</v>
+      </c>
+      <c r="C62" s="133"/>
       <c r="D62" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="113" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="C63" s="130"/>
+        <v>452</v>
+      </c>
+      <c r="C63" s="133"/>
       <c r="D63" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="113" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="C64" s="130"/>
+        <v>454</v>
+      </c>
+      <c r="C64" s="133"/>
       <c r="D64" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="113" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="C65" s="131"/>
+        <v>458</v>
+      </c>
+      <c r="C65" s="134"/>
       <c r="D65" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>905</v>
-      </c>
-      <c r="C66" s="121" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="C66" s="124" t="s">
+        <v>884</v>
       </c>
       <c r="D66" s="117" t="s">
         <v>127</v>
@@ -28699,25 +28651,25 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>906</v>
-      </c>
-      <c r="C67" s="121"/>
+        <v>896</v>
+      </c>
+      <c r="C67" s="124"/>
       <c r="D67" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="22" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C68" s="120" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="D68" s="117" t="s">
         <v>127</v>
@@ -28725,10 +28677,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C69" s="120"/>
       <c r="D69" s="117" t="s">
@@ -28737,10 +28689,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="22" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C70" s="120"/>
       <c r="D70" s="117" t="s">
@@ -28749,13 +28701,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="60" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C71" s="120" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="D71" s="117" t="s">
         <v>127</v>
@@ -28763,10 +28715,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="60" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C72" s="120"/>
       <c r="D72" s="117" t="s">
@@ -28775,10 +28727,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="60" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C73" s="120"/>
       <c r="D73" s="117" t="s">
@@ -28787,10 +28739,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="60" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C74" s="120"/>
       <c r="D74" s="117" t="s">
@@ -28799,10 +28751,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="60" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C75" s="120"/>
       <c r="D75" s="117" t="s">
@@ -28811,13 +28763,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="22" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="D76" s="117" t="s">
         <v>127</v>
@@ -28830,8 +28782,8 @@
       <c r="B77" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="121" t="s">
-        <v>896</v>
+      <c r="C77" s="124" t="s">
+        <v>886</v>
       </c>
       <c r="D77" s="117" t="s">
         <v>127</v>
@@ -28844,20 +28796,20 @@
       <c r="B78" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="121"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="22" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C79" s="119" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="D79" s="117" t="s">
         <v>127</v>
@@ -28865,13 +28817,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="52" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C80" s="121" t="s">
-        <v>898</v>
+        <v>532</v>
+      </c>
+      <c r="C80" s="124" t="s">
+        <v>888</v>
       </c>
       <c r="D80" s="117" t="s">
         <v>127</v>
@@ -28879,37 +28831,37 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="52" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="C81" s="121"/>
+        <v>534</v>
+      </c>
+      <c r="C81" s="124"/>
       <c r="D81" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="52" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="C82" s="121"/>
+        <v>537</v>
+      </c>
+      <c r="C82" s="124"/>
       <c r="D82" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="95" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="C83" s="121" t="s">
-        <v>899</v>
+        <v>740</v>
+      </c>
+      <c r="C83" s="124" t="s">
+        <v>889</v>
       </c>
       <c r="D83" s="117" t="s">
         <v>127</v>
@@ -28917,61 +28869,61 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="95" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>757</v>
-      </c>
-      <c r="C84" s="121"/>
+        <v>747</v>
+      </c>
+      <c r="C84" s="124"/>
       <c r="D84" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="95" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="C85" s="121"/>
+        <v>749</v>
+      </c>
+      <c r="C85" s="124"/>
       <c r="D85" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="95" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>761</v>
-      </c>
-      <c r="C86" s="121"/>
+        <v>751</v>
+      </c>
+      <c r="C86" s="124"/>
       <c r="D86" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="95" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>763</v>
-      </c>
-      <c r="C87" s="121"/>
+        <v>753</v>
+      </c>
+      <c r="C87" s="124"/>
       <c r="D87" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="88" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>733</v>
-      </c>
-      <c r="C88" s="121" t="s">
-        <v>900</v>
+        <v>723</v>
+      </c>
+      <c r="C88" s="124" t="s">
+        <v>890</v>
       </c>
       <c r="D88" s="117" t="s">
         <v>127</v>
@@ -28979,25 +28931,25 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="95" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>735</v>
-      </c>
-      <c r="C89" s="121"/>
+        <v>725</v>
+      </c>
+      <c r="C89" s="124"/>
       <c r="D89" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="22" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C90" s="120" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="D90" s="117" t="s">
         <v>127</v>
@@ -29005,10 +28957,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="22" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="117" t="s">
@@ -29017,10 +28969,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="22" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C92" s="120"/>
       <c r="D92" s="117" t="s">
@@ -29029,10 +28981,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="22" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C93" s="120"/>
       <c r="D93" s="117" t="s">
@@ -29041,13 +28993,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="22" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C94" s="118" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="D94" s="117" t="s">
         <v>127</v>
@@ -29055,13 +29007,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="46" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C95" s="120" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D95" s="117" t="s">
         <v>127</v>
@@ -29069,10 +29021,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="46" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C96" s="120"/>
       <c r="D96" s="117" t="s">
@@ -29081,10 +29033,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="46" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C97" s="120"/>
       <c r="D97" s="117" t="s">
@@ -29093,10 +29045,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="46" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C98" s="120"/>
       <c r="D98" s="117" t="s">
@@ -29105,10 +29057,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="46" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="C99" s="120"/>
       <c r="D99" s="117" t="s">
@@ -29117,10 +29069,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="46" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="C100" s="120"/>
       <c r="D100" s="117" t="s">
@@ -29129,13 +29081,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="95" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C101" s="120" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="D101" s="117" t="s">
         <v>127</v>
@@ -29143,10 +29095,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="95" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="117" t="s">
@@ -29155,10 +29107,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="95" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C103" s="120"/>
       <c r="D103" s="117" t="s">
@@ -29167,10 +29119,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="95" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C104" s="120"/>
       <c r="D104" s="117" t="s">
@@ -29179,10 +29131,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="95" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C105" s="120"/>
       <c r="D105" s="117" t="s">
@@ -29191,10 +29143,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="95" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C106" s="120"/>
       <c r="D106" s="117" t="s">
@@ -29203,13 +29155,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="95" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C107" s="120" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="D107" s="117" t="s">
         <v>127</v>
@@ -29217,10 +29169,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="95" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C108" s="120"/>
       <c r="D108" s="117" t="s">
@@ -29229,10 +29181,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="95" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C109" s="120"/>
       <c r="D109" s="117" t="s">
@@ -29241,13 +29193,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="95" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C110" s="120" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="D110" s="117" t="s">
         <v>127</v>
@@ -29255,10 +29207,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="95" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C111" s="120"/>
       <c r="D111" s="117" t="s">
@@ -29267,10 +29219,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="95" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C112" s="120"/>
       <c r="D112" s="117" t="s">
@@ -29279,13 +29231,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="95" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="C113" s="120" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="D113" s="117" t="s">
         <v>127</v>
@@ -29293,10 +29245,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="95" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="C114" s="120"/>
       <c r="D114" s="117" t="s">
@@ -29305,10 +29257,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="95" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="C115" s="120"/>
       <c r="D115" s="117" t="s">
@@ -29317,10 +29269,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="95" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="C116" s="120"/>
       <c r="D116" s="117" t="s">
@@ -29329,10 +29281,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="95" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="C117" s="120"/>
       <c r="D117" s="117" t="s">
@@ -29341,10 +29293,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="95" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="C118" s="120"/>
       <c r="D118" s="117" t="s">
@@ -29353,13 +29305,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="95" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C119" s="120" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="D119" s="117" t="s">
         <v>127</v>
@@ -29367,10 +29319,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="95" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="C120" s="120"/>
       <c r="D120" s="117" t="s">
@@ -29379,10 +29331,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="95" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="C121" s="120"/>
       <c r="D121" s="117" t="s">
@@ -29391,10 +29343,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="95" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C122" s="120"/>
       <c r="D122" s="117" t="s">
@@ -29403,13 +29355,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="95" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C123" s="120" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="D123" s="117" t="s">
         <v>127</v>
@@ -29417,10 +29369,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="95" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C124" s="120"/>
       <c r="D124" s="117" t="s">
@@ -29429,10 +29381,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="95" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C125" s="120"/>
       <c r="D125" s="117" t="s">
@@ -29441,10 +29393,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="95" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C126" s="120"/>
       <c r="D126" s="117" t="s">
@@ -29453,13 +29405,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="95" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C127" s="120" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="D127" s="117" t="s">
         <v>127</v>
@@ -29467,10 +29419,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="95" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C128" s="120"/>
       <c r="D128" s="117" t="s">
@@ -29479,10 +29431,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="95" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C129" s="120"/>
       <c r="D129" s="117" t="s">
@@ -29491,10 +29443,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="95" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C130" s="120"/>
       <c r="D130" s="117" t="s">
@@ -29503,10 +29455,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="95" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C131" s="120"/>
       <c r="D131" s="117" t="s">
@@ -29515,10 +29467,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="95" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="C132" s="120"/>
       <c r="D132" s="117" t="s">
@@ -29527,13 +29479,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="95" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C133" s="120" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="D133" s="117" t="s">
         <v>127</v>
@@ -29541,10 +29493,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="95" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="117" t="s">
@@ -29553,10 +29505,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="95" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C135" s="120"/>
       <c r="D135" s="117" t="s">
@@ -29565,10 +29517,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="95" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C136" s="120"/>
       <c r="D136" s="117" t="s">
@@ -29577,10 +29529,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="95" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C137" s="120"/>
       <c r="D137" s="117" t="s">
@@ -29589,10 +29541,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="95" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C138" s="120"/>
       <c r="D138" s="117" t="s">
@@ -29601,13 +29553,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="95" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="C139" s="120" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="D139" s="117" t="s">
         <v>127</v>
@@ -29615,10 +29567,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="95" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="C140" s="120"/>
       <c r="D140" s="117" t="s">
@@ -29627,10 +29579,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="95" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="C141" s="120"/>
       <c r="D141" s="117" t="s">
@@ -29639,10 +29591,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="95" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="C142" s="120"/>
       <c r="D142" s="117" t="s">
@@ -29651,10 +29603,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="95" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="C143" s="120"/>
       <c r="D143" s="117" t="s">
@@ -29663,10 +29615,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="95" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="C144" s="120"/>
       <c r="D144" s="117" t="s">
@@ -29675,10 +29627,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="95" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="C145" s="120"/>
       <c r="D145" s="117" t="s">
@@ -29687,10 +29639,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="95" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C146" s="120"/>
       <c r="D146" s="117" t="s">
@@ -29699,10 +29651,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="95" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C147" s="120"/>
       <c r="D147" s="117" t="s">
@@ -29711,10 +29663,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="95" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="C148" s="120"/>
       <c r="D148" s="117" t="s">
@@ -29723,10 +29675,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="95" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C149" s="120"/>
       <c r="D149" s="117" t="s">
@@ -29735,10 +29687,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="95" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C150" s="120"/>
       <c r="D150" s="117" t="s">
@@ -29747,10 +29699,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="95" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C151" s="120"/>
       <c r="D151" s="117" t="s">
@@ -29759,10 +29711,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="95" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C152" s="120"/>
       <c r="D152" s="117" t="s">
@@ -29771,13 +29723,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="77" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="C153" s="120" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="D153" s="117" t="s">
         <v>127</v>
@@ -29785,10 +29737,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="77" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C154" s="120"/>
       <c r="D154" s="117" t="s">
@@ -29797,10 +29749,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="77" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C155" s="120"/>
       <c r="D155" s="117" t="s">
@@ -29809,6 +29761,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C75"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C119:C122"/>
@@ -29825,22 +29790,9 @@
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C87"/>
     <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C75"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1048576 C1:C2 C12:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D155">
@@ -29858,8 +29810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29906,150 +29858,150 @@
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>128</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AC1" s="17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C2" s="6">
         <v>2971</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N2" s="6">
         <v>23</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="U2" s="6">
         <v>2</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>127</v>
@@ -30057,182 +30009,182 @@
       <c r="X2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C3" s="6">
         <v>2971</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
       <c r="Y3" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C4" s="6">
         <v>2971</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C5" s="6">
         <v>2971</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
       <c r="Y5" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C6" s="6">
         <v>2971</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
       <c r="Y6" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AA6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -30281,48 +30233,48 @@
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C2" s="6">
         <v>2971</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>32</v>
@@ -30334,10 +30286,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C3" s="6">
         <v>2971</v>
@@ -30357,17 +30309,17 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C4" s="6">
         <v>2971</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -30378,10 +30330,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C5" s="6">
         <v>2971</v>
@@ -30401,13 +30353,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -30420,10 +30372,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C7" s="6">
         <v>2971</v>
@@ -30435,10 +30387,10 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -30455,7 +30407,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30578,13 +30530,13 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -30659,13 +30611,13 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -30693,27 +30645,27 @@
         <v>50</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -30736,20 +30688,20 @@
         <v>50</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -30777,20 +30729,20 @@
         <v>50</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -30821,13 +30773,13 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -30857,7 +30809,7 @@
         <v>35</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -30909,92 +30861,92 @@
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -31004,31 +30956,31 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -31042,13 +30994,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -31064,13 +31016,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -31080,16 +31032,16 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -31141,100 +31093,100 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="29" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="S1" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>375</v>
       </c>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="32" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D2" s="34">
         <v>2971</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G2" s="34">
         <v>800000</v>
@@ -31246,28 +31198,28 @@
         <v>5000</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
@@ -31280,22 +31232,22 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="32" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D3" s="34">
         <v>2984</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G3" s="34">
         <v>800000</v>
@@ -31307,43 +31259,43 @@
         <v>5000</v>
       </c>
       <c r="J3" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="S3" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="T3" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="U3" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>392</v>
-      </c>
       <c r="V3" s="38" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="W3" s="37"/>
       <c r="X3" s="37">
@@ -31355,25 +31307,25 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="32" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D4" s="34">
         <v>2984</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H4" s="35">
         <v>60000</v>
@@ -31383,37 +31335,37 @@
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O4" s="33"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="33"/>
       <c r="R4" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="V4" s="33" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="W4" s="34" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="X4" s="34">
         <v>1221</v>
@@ -31424,22 +31376,22 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="32" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D5" s="34">
         <v>2984</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G5" s="34">
         <v>800000</v>
@@ -31452,37 +31404,37 @@
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O5" s="33"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="V5" s="33" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="W5" s="34" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="X5" s="34">
         <v>1221</v>
@@ -31493,25 +31445,25 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="32" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D6" s="34">
         <v>2984</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H6" s="35">
         <v>60000</v>
@@ -31521,37 +31473,37 @@
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S6" s="37" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U6" s="38" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="V6" s="33" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="W6" s="34" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="X6" s="34">
         <v>1221</v>
@@ -31562,22 +31514,22 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="32" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D7" s="34">
         <v>2984</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G7" s="34">
         <v>800000</v>
@@ -31589,35 +31541,35 @@
         <v>5000</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S7" s="34"/>
       <c r="T7" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U7" s="33"/>
       <c r="V7" s="33"/>
@@ -31631,22 +31583,22 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="32" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D8" s="34">
         <v>2971</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G8" s="34">
         <v>800000</v>
@@ -31658,43 +31610,43 @@
         <v>5000</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K8" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="R8" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="S8" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="T8" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>392</v>
-      </c>
       <c r="V8" s="33" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="W8" s="34"/>
       <c r="X8" s="34">
@@ -31706,22 +31658,22 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="32" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D9" s="34">
         <v>2971</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G9" s="34">
         <v>800000</v>
@@ -31734,26 +31686,26 @@
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O9" s="33"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S9" s="34"/>
       <c r="T9" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U9" s="33"/>
       <c r="V9" s="33"/>
@@ -31767,22 +31719,22 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="32" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D10" s="34">
         <v>2971</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G10" s="34">
         <v>800000</v>
@@ -31795,26 +31747,26 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S10" s="34"/>
       <c r="T10" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U10" s="33"/>
       <c r="V10" s="33"/>
@@ -31828,22 +31780,22 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="32" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D11" s="34">
         <v>2971</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G11" s="34">
         <v>800000</v>
@@ -31856,26 +31808,26 @@
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O11" s="33"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S11" s="34"/>
       <c r="T11" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U11" s="33"/>
       <c r="V11" s="33"/>
@@ -31889,22 +31841,22 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="32" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D12" s="34">
         <v>2971</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G12" s="34">
         <v>800000</v>
@@ -31917,26 +31869,26 @@
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S12" s="34"/>
       <c r="T12" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U12" s="34"/>
       <c r="V12" s="34"/>
@@ -31950,22 +31902,22 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="32" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D13" s="34">
         <v>2984</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G13" s="34">
         <v>800000</v>
@@ -31978,26 +31930,26 @@
       </c>
       <c r="J13" s="34"/>
       <c r="K13" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S13" s="34"/>
       <c r="T13" s="33" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
@@ -32049,84 +32001,84 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="57" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F1" s="112" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>605</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>606</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>607</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>608</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>609</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q1" s="71" t="s">
         <v>611</v>
       </c>
-      <c r="G1" s="112" t="s">
-        <v>304</v>
-      </c>
-      <c r="H1" s="112" t="s">
+      <c r="R1" s="71" t="s">
         <v>612</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="S1" s="71" t="s">
         <v>613</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="T1" s="71" t="s">
         <v>614</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="U1" s="71" t="s">
         <v>615</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>616</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>617</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>618</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>619</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>621</v>
-      </c>
-      <c r="R1" s="71" t="s">
-        <v>622</v>
-      </c>
-      <c r="S1" s="71" t="s">
-        <v>623</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>624</v>
-      </c>
-      <c r="U1" s="71" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="22" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D2" s="25">
         <v>2971</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -32170,25 +32122,25 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D4" s="25">
         <v>2971</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="25" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
@@ -32230,25 +32182,25 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="22" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D6" s="25">
         <v>2971</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="25" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>

--- a/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
+++ b/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="33" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="980">
   <si>
     <t>UserName</t>
   </si>
@@ -2988,6 +2988,9 @@
   </si>
   <si>
     <t>Monic</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3750,18 +3753,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3790,6 +3781,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25871,7 +25874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
@@ -27797,9 +27800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27851,7 +27854,7 @@
       <c r="B2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="132" t="s">
         <v>880</v>
       </c>
       <c r="D2" s="117" t="s">
@@ -27865,7 +27868,7 @@
       <c r="B3" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="117" t="s">
         <v>127</v>
       </c>
@@ -27877,7 +27880,7 @@
       <c r="B4" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="117" t="s">
         <v>127</v>
       </c>
@@ -27889,7 +27892,7 @@
       <c r="B5" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="117" t="s">
         <v>127</v>
       </c>
@@ -27901,7 +27904,7 @@
       <c r="B6" s="25" t="s">
         <v>967</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="117" t="s">
         <v>127</v>
       </c>
@@ -27913,7 +27916,7 @@
       <c r="B7" s="25" t="s">
         <v>968</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="117" t="s">
         <v>127</v>
       </c>
@@ -27925,7 +27928,7 @@
       <c r="B8" s="25" t="s">
         <v>969</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="117" t="s">
         <v>127</v>
       </c>
@@ -27937,7 +27940,7 @@
       <c r="B9" s="25" t="s">
         <v>970</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="117" t="s">
         <v>127</v>
       </c>
@@ -27949,7 +27952,7 @@
       <c r="B10" s="25" t="s">
         <v>971</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="117" t="s">
         <v>127</v>
       </c>
@@ -27961,7 +27964,7 @@
       <c r="B11" s="25" t="s">
         <v>972</v>
       </c>
-      <c r="C11" s="123"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="117" t="s">
         <v>127</v>
       </c>
@@ -27973,7 +27976,7 @@
       <c r="B12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="121" t="s">
         <v>952</v>
       </c>
       <c r="D12" s="117" t="s">
@@ -27987,7 +27990,7 @@
       <c r="B13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="117" t="s">
         <v>127</v>
       </c>
@@ -27999,7 +28002,7 @@
       <c r="B14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="125"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="117" t="s">
         <v>127</v>
       </c>
@@ -28011,7 +28014,7 @@
       <c r="B15" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="122" t="s">
         <v>953</v>
       </c>
       <c r="D15" s="117" t="s">
@@ -28025,7 +28028,7 @@
       <c r="B16" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="127"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="117" t="s">
         <v>127</v>
       </c>
@@ -28037,7 +28040,7 @@
       <c r="B17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="127"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="117" t="s">
         <v>127</v>
       </c>
@@ -28049,7 +28052,7 @@
       <c r="B18" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="117" t="s">
         <v>127</v>
       </c>
@@ -28061,7 +28064,7 @@
       <c r="B19" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="128"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
       </c>
@@ -28076,7 +28079,7 @@
       <c r="B20" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="122" t="s">
         <v>954</v>
       </c>
       <c r="D20" s="117" t="s">
@@ -28090,7 +28093,7 @@
       <c r="B21" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="127"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="117" t="s">
         <v>127</v>
       </c>
@@ -28102,7 +28105,7 @@
       <c r="B22" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="127"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="117" t="s">
         <v>127</v>
       </c>
@@ -28114,7 +28117,7 @@
       <c r="B23" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="127"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="117" t="s">
         <v>127</v>
       </c>
@@ -28126,7 +28129,7 @@
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="127"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="117" t="s">
         <v>127</v>
       </c>
@@ -28138,7 +28141,7 @@
       <c r="B25" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="128"/>
+      <c r="C25" s="124"/>
       <c r="D25" s="117" t="s">
         <v>127</v>
       </c>
@@ -28150,7 +28153,7 @@
       <c r="B26" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="122" t="s">
         <v>955</v>
       </c>
       <c r="D26" s="117" t="s">
@@ -28164,7 +28167,7 @@
       <c r="B27" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="127"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="117" t="s">
         <v>127</v>
       </c>
@@ -28176,7 +28179,7 @@
       <c r="B28" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="127"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="117" t="s">
         <v>127</v>
       </c>
@@ -28188,7 +28191,7 @@
       <c r="B29" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="127"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="117" t="s">
         <v>127</v>
       </c>
@@ -28200,7 +28203,7 @@
       <c r="B30" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="127"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="117" t="s">
         <v>127</v>
       </c>
@@ -28212,7 +28215,7 @@
       <c r="B31" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="128"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="117" t="s">
         <v>127</v>
       </c>
@@ -28224,7 +28227,7 @@
       <c r="B32" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="122" t="s">
         <v>956</v>
       </c>
       <c r="D32" s="117" t="s">
@@ -28238,7 +28241,7 @@
       <c r="B33" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="127"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="117" t="s">
         <v>127</v>
       </c>
@@ -28250,7 +28253,7 @@
       <c r="B34" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="127"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="117" t="s">
         <v>127</v>
       </c>
@@ -28262,7 +28265,7 @@
       <c r="B35" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="117" t="s">
         <v>127</v>
       </c>
@@ -28274,7 +28277,7 @@
       <c r="B36" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="128"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="117" t="s">
         <v>127</v>
       </c>
@@ -28286,7 +28289,7 @@
       <c r="B37" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C37" s="129" t="s">
+      <c r="C37" s="125" t="s">
         <v>957</v>
       </c>
       <c r="D37" s="117" t="s">
@@ -28300,7 +28303,7 @@
       <c r="B38" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="130"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="117" t="s">
         <v>127</v>
       </c>
@@ -28312,7 +28315,7 @@
       <c r="B39" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="130"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="117" t="s">
         <v>127</v>
       </c>
@@ -28324,7 +28327,7 @@
       <c r="B40" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="130"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="117" t="s">
         <v>127</v>
       </c>
@@ -28336,7 +28339,7 @@
       <c r="B41" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="117" t="s">
         <v>127</v>
       </c>
@@ -28348,7 +28351,7 @@
       <c r="B42" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="130"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="117" t="s">
         <v>127</v>
       </c>
@@ -28360,7 +28363,7 @@
       <c r="B43" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="117" t="s">
         <v>127</v>
       </c>
@@ -28372,7 +28375,7 @@
       <c r="B44" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C44" s="130"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="117" t="s">
         <v>127</v>
       </c>
@@ -28384,7 +28387,7 @@
       <c r="B45" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="130"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="117" t="s">
         <v>127</v>
       </c>
@@ -28396,7 +28399,7 @@
       <c r="B46" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="130"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="117" t="s">
         <v>127</v>
       </c>
@@ -28408,7 +28411,7 @@
       <c r="B47" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="130"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="117" t="s">
         <v>127</v>
       </c>
@@ -28420,7 +28423,7 @@
       <c r="B48" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C48" s="131"/>
+      <c r="C48" s="127"/>
       <c r="D48" s="117" t="s">
         <v>127</v>
       </c>
@@ -28432,7 +28435,7 @@
       <c r="B49" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="C49" s="129" t="s">
+      <c r="C49" s="125" t="s">
         <v>958</v>
       </c>
       <c r="D49" s="117" t="s">
@@ -28446,7 +28449,7 @@
       <c r="B50" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="C50" s="130"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="117" t="s">
         <v>127</v>
       </c>
@@ -28458,7 +28461,7 @@
       <c r="B51" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="C51" s="131"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="117" t="s">
         <v>127</v>
       </c>
@@ -28470,7 +28473,7 @@
       <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="126" t="s">
+      <c r="C52" s="122" t="s">
         <v>959</v>
       </c>
       <c r="D52" s="117" t="s">
@@ -28484,7 +28487,7 @@
       <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="127"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="117" t="s">
         <v>127</v>
       </c>
@@ -28496,7 +28499,7 @@
       <c r="B54" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="127"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="117" t="s">
         <v>127</v>
       </c>
@@ -28508,7 +28511,7 @@
       <c r="B55" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="C55" s="127"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="117" t="s">
         <v>127</v>
       </c>
@@ -28520,7 +28523,7 @@
       <c r="B56" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="127"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="117" t="s">
         <v>127</v>
       </c>
@@ -28532,7 +28535,7 @@
       <c r="B57" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="128"/>
+      <c r="C57" s="124"/>
       <c r="D57" s="117" t="s">
         <v>127</v>
       </c>
@@ -28544,7 +28547,7 @@
       <c r="B58" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="132" t="s">
+      <c r="C58" s="128" t="s">
         <v>960</v>
       </c>
       <c r="D58" s="117" t="s">
@@ -28558,7 +28561,7 @@
       <c r="B59" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="133"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="117" t="s">
         <v>127</v>
       </c>
@@ -28570,7 +28573,7 @@
       <c r="B60" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C60" s="133"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="117" t="s">
         <v>127</v>
       </c>
@@ -28582,7 +28585,7 @@
       <c r="B61" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C61" s="133"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="117" t="s">
         <v>127</v>
       </c>
@@ -28594,7 +28597,7 @@
       <c r="B62" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C62" s="133"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="117" t="s">
         <v>127</v>
       </c>
@@ -28606,7 +28609,7 @@
       <c r="B63" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="C63" s="133"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="117" t="s">
         <v>127</v>
       </c>
@@ -28618,7 +28621,7 @@
       <c r="B64" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C64" s="133"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="117" t="s">
         <v>127</v>
       </c>
@@ -28630,7 +28633,7 @@
       <c r="B65" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C65" s="134"/>
+      <c r="C65" s="130"/>
       <c r="D65" s="117" t="s">
         <v>127</v>
       </c>
@@ -28642,7 +28645,7 @@
       <c r="B66" s="25" t="s">
         <v>895</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="131" t="s">
         <v>884</v>
       </c>
       <c r="D66" s="117" t="s">
@@ -28656,7 +28659,7 @@
       <c r="B67" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="C67" s="124"/>
+      <c r="C67" s="131"/>
       <c r="D67" s="117" t="s">
         <v>127</v>
       </c>
@@ -28782,7 +28785,7 @@
       <c r="B77" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="124" t="s">
+      <c r="C77" s="131" t="s">
         <v>886</v>
       </c>
       <c r="D77" s="117" t="s">
@@ -28796,7 +28799,7 @@
       <c r="B78" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="124"/>
+      <c r="C78" s="131"/>
       <c r="D78" s="117" t="s">
         <v>127</v>
       </c>
@@ -28822,7 +28825,7 @@
       <c r="B80" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C80" s="124" t="s">
+      <c r="C80" s="131" t="s">
         <v>888</v>
       </c>
       <c r="D80" s="117" t="s">
@@ -28836,7 +28839,7 @@
       <c r="B81" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="C81" s="124"/>
+      <c r="C81" s="131"/>
       <c r="D81" s="117" t="s">
         <v>127</v>
       </c>
@@ -28848,7 +28851,7 @@
       <c r="B82" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="C82" s="124"/>
+      <c r="C82" s="131"/>
       <c r="D82" s="117" t="s">
         <v>127</v>
       </c>
@@ -28860,7 +28863,7 @@
       <c r="B83" s="25" t="s">
         <v>740</v>
       </c>
-      <c r="C83" s="124" t="s">
+      <c r="C83" s="131" t="s">
         <v>889</v>
       </c>
       <c r="D83" s="117" t="s">
@@ -28874,7 +28877,7 @@
       <c r="B84" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="C84" s="124"/>
+      <c r="C84" s="131"/>
       <c r="D84" s="117" t="s">
         <v>127</v>
       </c>
@@ -28886,7 +28889,7 @@
       <c r="B85" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="C85" s="124"/>
+      <c r="C85" s="131"/>
       <c r="D85" s="117" t="s">
         <v>127</v>
       </c>
@@ -28898,7 +28901,7 @@
       <c r="B86" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="C86" s="124"/>
+      <c r="C86" s="131"/>
       <c r="D86" s="117" t="s">
         <v>127</v>
       </c>
@@ -28910,7 +28913,7 @@
       <c r="B87" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="C87" s="124"/>
+      <c r="C87" s="131"/>
       <c r="D87" s="117" t="s">
         <v>127</v>
       </c>
@@ -28922,7 +28925,7 @@
       <c r="B88" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="C88" s="124" t="s">
+      <c r="C88" s="131" t="s">
         <v>890</v>
       </c>
       <c r="D88" s="117" t="s">
@@ -28936,7 +28939,7 @@
       <c r="B89" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="C89" s="124"/>
+      <c r="C89" s="131"/>
       <c r="D89" s="117" t="s">
         <v>127</v>
       </c>
@@ -29102,7 +29105,7 @@
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -29114,7 +29117,7 @@
       </c>
       <c r="C103" s="120"/>
       <c r="D103" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -29126,7 +29129,7 @@
       </c>
       <c r="C104" s="120"/>
       <c r="D104" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -29138,7 +29141,7 @@
       </c>
       <c r="C105" s="120"/>
       <c r="D105" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -29150,7 +29153,7 @@
       </c>
       <c r="C106" s="120"/>
       <c r="D106" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -29164,7 +29167,7 @@
         <v>909</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -29176,7 +29179,7 @@
       </c>
       <c r="C108" s="120"/>
       <c r="D108" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -29188,7 +29191,7 @@
       </c>
       <c r="C109" s="120"/>
       <c r="D109" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -29202,7 +29205,7 @@
         <v>910</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -29214,7 +29217,7 @@
       </c>
       <c r="C111" s="120"/>
       <c r="D111" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -29226,7 +29229,7 @@
       </c>
       <c r="C112" s="120"/>
       <c r="D112" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -29240,7 +29243,7 @@
         <v>923</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -29252,7 +29255,7 @@
       </c>
       <c r="C114" s="120"/>
       <c r="D114" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -29264,7 +29267,7 @@
       </c>
       <c r="C115" s="120"/>
       <c r="D115" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -29276,7 +29279,7 @@
       </c>
       <c r="C116" s="120"/>
       <c r="D116" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -29288,7 +29291,7 @@
       </c>
       <c r="C117" s="120"/>
       <c r="D117" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -29300,7 +29303,7 @@
       </c>
       <c r="C118" s="120"/>
       <c r="D118" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -29314,7 +29317,7 @@
         <v>924</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -29326,7 +29329,7 @@
       </c>
       <c r="C120" s="120"/>
       <c r="D120" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -29338,7 +29341,7 @@
       </c>
       <c r="C121" s="120"/>
       <c r="D121" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -29350,7 +29353,7 @@
       </c>
       <c r="C122" s="120"/>
       <c r="D122" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -29364,7 +29367,7 @@
         <v>931</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -29376,7 +29379,7 @@
       </c>
       <c r="C124" s="120"/>
       <c r="D124" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -29388,7 +29391,7 @@
       </c>
       <c r="C125" s="120"/>
       <c r="D125" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -29400,7 +29403,7 @@
       </c>
       <c r="C126" s="120"/>
       <c r="D126" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -29414,7 +29417,7 @@
         <v>932</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -29426,7 +29429,7 @@
       </c>
       <c r="C128" s="120"/>
       <c r="D128" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -29438,7 +29441,7 @@
       </c>
       <c r="C129" s="120"/>
       <c r="D129" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -29450,7 +29453,7 @@
       </c>
       <c r="C130" s="120"/>
       <c r="D130" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -29462,7 +29465,7 @@
       </c>
       <c r="C131" s="120"/>
       <c r="D131" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -29474,7 +29477,7 @@
       </c>
       <c r="C132" s="120"/>
       <c r="D132" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -29488,7 +29491,7 @@
         <v>935</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -29500,7 +29503,7 @@
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -29512,7 +29515,7 @@
       </c>
       <c r="C135" s="120"/>
       <c r="D135" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -29524,7 +29527,7 @@
       </c>
       <c r="C136" s="120"/>
       <c r="D136" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -29536,7 +29539,7 @@
       </c>
       <c r="C137" s="120"/>
       <c r="D137" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -29548,7 +29551,7 @@
       </c>
       <c r="C138" s="120"/>
       <c r="D138" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -29562,7 +29565,7 @@
         <v>950</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -29574,7 +29577,7 @@
       </c>
       <c r="C140" s="120"/>
       <c r="D140" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -29586,7 +29589,7 @@
       </c>
       <c r="C141" s="120"/>
       <c r="D141" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -29598,7 +29601,7 @@
       </c>
       <c r="C142" s="120"/>
       <c r="D142" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -29610,7 +29613,7 @@
       </c>
       <c r="C143" s="120"/>
       <c r="D143" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -29622,7 +29625,7 @@
       </c>
       <c r="C144" s="120"/>
       <c r="D144" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -29634,7 +29637,7 @@
       </c>
       <c r="C145" s="120"/>
       <c r="D145" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -29646,7 +29649,7 @@
       </c>
       <c r="C146" s="120"/>
       <c r="D146" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -29658,7 +29661,7 @@
       </c>
       <c r="C147" s="120"/>
       <c r="D147" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -29670,7 +29673,7 @@
       </c>
       <c r="C148" s="120"/>
       <c r="D148" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -29682,7 +29685,7 @@
       </c>
       <c r="C149" s="120"/>
       <c r="D149" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -29694,7 +29697,7 @@
       </c>
       <c r="C150" s="120"/>
       <c r="D150" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -29706,7 +29709,7 @@
       </c>
       <c r="C151" s="120"/>
       <c r="D151" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -29718,7 +29721,7 @@
       </c>
       <c r="C152" s="120"/>
       <c r="D152" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -29732,7 +29735,7 @@
         <v>951</v>
       </c>
       <c r="D153" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -29744,7 +29747,7 @@
       </c>
       <c r="C154" s="120"/>
       <c r="D154" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -29756,24 +29759,11 @@
       </c>
       <c r="C155" s="120"/>
       <c r="D155" s="117" t="s">
-        <v>127</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C75"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C119:C122"/>
@@ -29790,6 +29780,19 @@
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C87"/>
     <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C75"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1048576 C1:C2 C12:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
+++ b/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="33" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="981">
   <si>
     <t>UserName</t>
   </si>
@@ -1706,9 +1706,6 @@
     <t>DS_AT_CUD_001</t>
   </si>
   <si>
-    <t>3046</t>
-  </si>
-  <si>
     <t>AT_CUD_002</t>
   </si>
   <si>
@@ -1748,9 +1745,6 @@
     <t>DS_AT_CUD_004</t>
   </si>
   <si>
-    <t>KWD</t>
-  </si>
-  <si>
     <t>AUD</t>
   </si>
   <si>
@@ -2991,6 +2985,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>3082</t>
+  </si>
+  <si>
+    <t>UserReturn</t>
+  </si>
+  <si>
+    <t>0345</t>
   </si>
 </sst>
 </file>
@@ -3571,7 +3574,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3753,6 +3756,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3783,18 +3798,8 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="10"/>
@@ -4148,22 +4153,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="10.49609375" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" style="3" width="9.109375" collapsed="false"/>
+    <col min="5" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4174,189 +4179,202 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="135" t="s">
+        <v>979</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>980</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="135"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>460</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="28" t="s">
-        <v>598</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="28" t="s">
-        <v>624</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3082</v>
+        <v>596</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="28" t="s">
-        <v>625</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3082</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="83" t="s">
-        <v>706</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:4">
+      <c r="A11" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="83" t="s">
+        <v>704</v>
+      </c>
+      <c r="B12" s="1">
         <v>3129</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C12" s="83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C12" s="28" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:4" ht="15.6">
       <c r="A14" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>629</v>
+        <v>826</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:4" ht="15.6">
       <c r="A15" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6">
+      <c r="A17" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C16" s="83" t="s">
+      <c r="B17" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6" display="mailto:Admin@1"/>
-    <hyperlink ref="C9" r:id="rId7" display="mailto:Admin@1"/>
-    <hyperlink ref="C10" r:id="rId8" display="mailto:Admin@1"/>
-    <hyperlink ref="C12" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C14" r:id="rId11"/>
-    <hyperlink ref="C15" r:id="rId12" display="mailto:Admin@1"/>
-    <hyperlink ref="C16" r:id="rId13" display="mailto:Admin@1"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6" display="mailto:Admin@1"/>
+    <hyperlink ref="C10" r:id="rId7" display="mailto:Admin@1"/>
+    <hyperlink ref="C11" r:id="rId8" display="mailto:Admin@1"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12" display="mailto:Admin@1"/>
+    <hyperlink ref="C17" r:id="rId13" display="mailto:Admin@1"/>
+    <hyperlink ref="C2" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -4368,36 +4386,36 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="17.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="20.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="32.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="23.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="27.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="26.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="18.6640625" collapsed="true"/>
+    <col min="12" max="12" style="3" width="9.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="29.5546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="14.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="30.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="21.88671875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="41.5546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="24.44140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="29.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="24.109375" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="3" width="26.88671875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="26.44140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="22.5546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="17.88671875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="16.109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="20.44140625" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4655,7 +4673,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>283</v>
@@ -4797,14 +4815,14 @@
       <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.88671875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.75" thickBot="1">
+    <row r="1" spans="1:19" ht="42" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>119</v>
       </c>
@@ -4863,7 +4881,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="41" t="s">
         <v>427</v>
       </c>
@@ -4892,7 +4910,7 @@
       <c r="R2" s="42"/>
       <c r="S2" s="42"/>
     </row>
-    <row r="3" spans="1:19" ht="39.75" thickBot="1">
+    <row r="3" spans="1:19" ht="42" thickBot="1">
       <c r="A3" s="41" t="s">
         <v>429</v>
       </c>
@@ -4947,7 +4965,7 @@
       </c>
       <c r="S3" s="42"/>
     </row>
-    <row r="4" spans="1:19" ht="27" thickBot="1">
+    <row r="4" spans="1:19" ht="42" thickBot="1">
       <c r="A4" s="41" t="s">
         <v>437</v>
       </c>
@@ -4994,7 +5012,7 @@
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
     </row>
-    <row r="5" spans="1:19" ht="39.75" thickBot="1">
+    <row r="5" spans="1:19" ht="42" thickBot="1">
       <c r="A5" s="41" t="s">
         <v>445</v>
       </c>
@@ -5029,7 +5047,7 @@
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
     </row>
-    <row r="6" spans="1:19" ht="39.75" thickBot="1">
+    <row r="6" spans="1:19" ht="42" thickBot="1">
       <c r="A6" s="41" t="s">
         <v>448</v>
       </c>
@@ -5068,7 +5086,7 @@
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>451</v>
       </c>
@@ -5095,7 +5113,7 @@
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+    <row r="8" spans="1:19" ht="15" thickBot="1">
       <c r="A8" s="41" t="s">
         <v>453</v>
       </c>
@@ -5126,7 +5144,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="41" t="s">
         <v>457</v>
       </c>
@@ -5166,14 +5184,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="25.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="31.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="34.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5278,7 +5296,7 @@
         <v>472</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
@@ -5336,10 +5354,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>474</v>
@@ -5630,7 +5648,7 @@
         <v>491</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
@@ -6244,13 +6262,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6323,24 +6341,24 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="9.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="12.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="14.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="3" width="16.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="14.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6392,7 +6410,7 @@
         <v>550</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>551</v>
+        <v>283</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -6407,28 +6425,28 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>555</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="H3" s="47" t="s">
         <v>557</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>558</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -6438,25 +6456,25 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>559</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>560</v>
-      </c>
       <c r="C4" s="47" t="s">
-        <v>551</v>
+        <v>283</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -6465,13 +6483,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="60" t="s">
+        <v>562</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>563</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>564</v>
-      </c>
       <c r="C5" s="47" t="s">
-        <v>551</v>
+        <v>283</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -6480,30 +6498,30 @@
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="L5" s="47" t="s">
         <v>565</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="M5" s="47" t="s">
         <v>566</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="60" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>551</v>
+        <v>283</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E6" s="47">
         <v>100000</v>
@@ -6567,18 +6585,18 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="22.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -6586,35 +6604,35 @@
         <v>119</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>344</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>415</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>574</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>576</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="62" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -6623,10 +6641,10 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C2" s="25">
         <v>2968</v>
@@ -6638,23 +6656,23 @@
         <v>100</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>415</v>
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="64" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M2" s="64"/>
       <c r="N2" s="3"/>
@@ -6810,15 +6828,15 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="34" width="33.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.5546875" collapsed="true"/>
+    <col min="3" max="34" customWidth="true" style="3" width="33.88671875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="26.33203125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="3" width="30.44140625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="3" width="22.6640625" collapsed="true"/>
+    <col min="38" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -6925,7 +6943,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75">
+    <row r="2" spans="1:34" ht="15">
       <c r="A2" s="5" t="s">
         <v>117</v>
       </c>
@@ -7089,19 +7107,19 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" width="20.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="27.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="22.109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="9.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -7109,37 +7127,37 @@
         <v>119</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>344</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="G1" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="J1" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="K1" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="L1" s="66" t="s">
         <v>591</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>592</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>593</v>
       </c>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -7157,10 +7175,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C2" s="25">
         <v>2968</v>
@@ -7169,7 +7187,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F2" s="25">
         <v>10</v>
@@ -7207,18 +7225,18 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="22.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="25.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="29.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7350,22 +7368,22 @@
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="18.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="23.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="9.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="24.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="23.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.6640625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="3" width="14.88671875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="3" width="26.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="13.5546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="3" width="19.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="3" width="24.6640625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="3" width="20.5546875" collapsed="false"/>
+    <col min="14" max="16384" style="3" width="8.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="94" customFormat="1">
@@ -7379,22 +7397,22 @@
         <v>344</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>345</v>
       </c>
       <c r="F1" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G1" s="93" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H1" s="93" t="s">
         <v>351</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J1" s="93" t="s">
         <v>353</v>
@@ -7406,35 +7424,35 @@
         <v>355</v>
       </c>
       <c r="M1" s="93" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N1" s="93"/>
       <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="95" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="G2" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>399</v>
@@ -7443,24 +7461,24 @@
         <v>156</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="95" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7475,13 +7493,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="95" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7496,13 +7514,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="95" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7517,13 +7535,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="95" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7549,23 +7567,23 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -7775,43 +7793,43 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="92" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" style="92" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="92" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="92" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="92" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="92" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="92" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="92" customWidth="1"/>
-    <col min="10" max="10" width="28" style="92" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="92" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="92" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="92" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="92" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="92" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="92" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="92" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="92" customWidth="1"/>
-    <col min="19" max="19" width="44.28515625" style="92" customWidth="1"/>
-    <col min="20" max="20" width="26" style="92" customWidth="1"/>
-    <col min="21" max="21" width="31.42578125" style="92" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" style="92" customWidth="1"/>
-    <col min="23" max="24" width="28.5703125" style="92" customWidth="1"/>
-    <col min="25" max="25" width="28.140625" style="92" customWidth="1"/>
-    <col min="26" max="26" width="24" style="92" customWidth="1"/>
-    <col min="27" max="27" width="19" style="92" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" style="92" customWidth="1"/>
-    <col min="29" max="29" width="21.7109375" style="92" customWidth="1"/>
-    <col min="30" max="1024" width="9.7109375" style="87" customWidth="1"/>
-    <col min="1025" max="16384" width="20.7109375" style="74"/>
+    <col min="1" max="1" customWidth="true" style="92" width="18.88671875" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="92" width="27.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="92" width="22.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="92" width="21.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="92" width="34.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="92" width="24.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="92" width="26.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="92" width="28.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="92" width="28.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="92" width="19.88671875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="92" width="9.6640625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="92" width="31.44140625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="92" width="15.6640625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="92" width="20.5546875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="92" width="22.109375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="92" width="32.6640625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="92" width="23.33203125" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="92" width="44.33203125" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="92" width="26.0" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="92" width="31.44140625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="92" width="25.6640625" collapsed="false"/>
+    <col min="23" max="24" customWidth="true" style="92" width="28.5546875" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" style="92" width="28.109375" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" style="92" width="24.0" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" style="92" width="19.0" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" style="92" width="17.109375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" style="92" width="21.6640625" collapsed="false"/>
+    <col min="30" max="1024" customWidth="true" style="87" width="9.6640625" collapsed="false"/>
+    <col min="1025" max="16384" style="74" width="20.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7905,13 +7923,13 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="88" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D2" s="90" t="s">
         <v>36</v>
@@ -7986,13 +8004,13 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="77" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
@@ -8023,13 +8041,13 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="77" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
@@ -8060,13 +8078,13 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="77" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -8097,13 +8115,13 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="77" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -8134,13 +8152,13 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="77" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
@@ -8183,33 +8201,33 @@
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.88671875" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="27.109375" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5546875" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.109375" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.88671875" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.44140625" collapsed="false"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="11" customFormat="1">
@@ -8217,82 +8235,82 @@
         <v>119</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="80" t="s">
+        <v>636</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>637</v>
+      </c>
+      <c r="E1" s="80" t="s">
         <v>638</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="F1" s="80" t="s">
         <v>639</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>640</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="H1" s="80" t="s">
         <v>641</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="I1" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="J1" s="80" t="s">
         <v>643</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="K1" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="L1" s="80" t="s">
         <v>645</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="M1" s="80" t="s">
         <v>646</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="N1" s="80" t="s">
         <v>647</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="O1" s="80" t="s">
         <v>648</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="P1" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="Q1" s="80" t="s">
         <v>650</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="R1" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="S1" s="80" t="s">
         <v>652</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="T1" s="80" t="s">
         <v>653</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="U1" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="V1" s="80" t="s">
         <v>655</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="W1" s="80" t="s">
         <v>656</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="X1" s="80" t="s">
         <v>657</v>
-      </c>
-      <c r="W1" s="80" t="s">
-        <v>658</v>
-      </c>
-      <c r="X1" s="80" t="s">
-        <v>659</v>
       </c>
       <c r="Y1" s="26" t="s">
         <v>344</v>
       </c>
       <c r="Z1" s="26" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -24654,51 +24672,51 @@
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>667</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>668</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>669</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>671</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>671</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>673</v>
       </c>
       <c r="P2" s="28">
         <v>895568</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>113</v>
@@ -24717,7 +24735,7 @@
         <v>5000</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Y2" s="28">
         <v>3061</v>
@@ -24727,10 +24745,10 @@
     </row>
     <row r="3" spans="1:16384">
       <c r="A3" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -24762,10 +24780,10 @@
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -24797,10 +24815,10 @@
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -24828,18 +24846,18 @@
         <v>3061</v>
       </c>
       <c r="Z5" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -24867,18 +24885,18 @@
         <v>3426</v>
       </c>
       <c r="Z6" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="A7" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -24906,10 +24924,10 @@
         <v>3426</v>
       </c>
       <c r="Z7" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -24920,21 +24938,21 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="73" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="73" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="73" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="73" customWidth="1"/>
-    <col min="12" max="1024" width="9.140625" style="72" customWidth="1"/>
-    <col min="1025" max="16384" width="20.5703125" style="74"/>
+    <col min="1" max="1" customWidth="true" style="73" width="20.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="73" width="20.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="73" width="20.6640625" collapsed="false"/>
+    <col min="4" max="10" customWidth="true" style="73" width="9.109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="73" width="15.109375" collapsed="false"/>
+    <col min="12" max="1024" customWidth="true" style="72" width="9.109375" collapsed="false"/>
+    <col min="1025" max="16384" style="74" width="20.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -24974,13 +24992,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="77" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>631</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>632</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>633</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>36</v>
@@ -25009,13 +25027,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="77" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -25028,13 +25046,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="77" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
@@ -25045,7 +25063,7 @@
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75">
+    <row r="5" spans="1:11" ht="13.2">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
@@ -25058,7 +25076,7 @@
       <c r="J5" s="72"/>
       <c r="K5" s="72"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
+    <row r="6" spans="1:11" ht="13.2">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
       <c r="C6" s="72"/>
@@ -25071,7 +25089,7 @@
       <c r="J6" s="72"/>
       <c r="K6" s="72"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
+    <row r="7" spans="1:11" ht="13.2">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
@@ -25098,11 +25116,11 @@
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="21.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25118,68 +25136,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="95" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="95" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="95" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="95" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="95" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="95" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -25189,18 +25207,18 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16" style="81" customWidth="1"/>
-    <col min="2" max="2" width="19" style="81" customWidth="1"/>
-    <col min="3" max="1024" width="16" style="81" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="85"/>
+    <col min="1" max="1" customWidth="true" style="81" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="81" width="19.0" collapsed="false"/>
+    <col min="3" max="1024" customWidth="true" style="81" width="16.0" collapsed="false"/>
+    <col min="1025" max="16384" style="85" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25216,10 +25234,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="98" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -25227,10 +25245,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="98" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -25238,10 +25256,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="98" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -25262,11 +25280,11 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25274,7 +25292,7 @@
         <v>119</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>344</v>
@@ -25282,10 +25300,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -25293,10 +25311,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -25304,10 +25322,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -25326,11 +25344,11 @@
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25341,51 +25359,51 @@
         <v>293</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="28" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -25402,22 +25420,22 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="14.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="23.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="13.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="18.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="16.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="11.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="3" width="10.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="12.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="3" width="12.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="3" width="17.6640625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="3" width="18.109375" collapsed="false"/>
+    <col min="14" max="16384" style="3" width="8.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -25431,45 +25449,45 @@
         <v>344</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>795</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>796</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>657</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>785</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>786</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>787</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>797</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>798</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>785</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>786</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>659</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>787</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>788</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>789</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>799</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>801</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>802</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>803</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -25484,16 +25502,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>802</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>801</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="47" t="s">
         <v>803</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>805</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
@@ -25507,16 +25525,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="95" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>805</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>806</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>807</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>803</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>808</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>327</v>
@@ -25532,46 +25550,46 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="95" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G5" s="47" t="s">
+        <v>790</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>792</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="J5" s="47" t="s">
         <v>793</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="K5" s="47" t="s">
         <v>794</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>795</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>796</v>
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="95" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -25586,13 +25604,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="95" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -25606,7 +25624,7 @@
         <v>150</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -25622,11 +25640,11 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25642,10 +25660,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="95" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>474</v>
@@ -25653,10 +25671,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="95" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>474</v>
@@ -25664,10 +25682,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="95" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>474</v>
@@ -25675,10 +25693,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="95" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>474</v>
@@ -25686,10 +25704,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="95" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>474</v>
@@ -25697,10 +25715,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="95" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>474</v>
@@ -25719,13 +25737,13 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.33203125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="101" customFormat="1">
@@ -25733,24 +25751,24 @@
         <v>119</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="96" t="s">
         <v>344</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C2" s="25">
         <v>3214</v>
@@ -25764,10 +25782,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C3" s="25">
         <v>3214</v>
@@ -25781,10 +25799,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C4" s="25">
         <v>3214</v>
@@ -25798,10 +25816,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C5" s="25">
         <v>3214</v>
@@ -25815,10 +25833,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="22" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C6" s="25">
         <v>3214</v>
@@ -25832,10 +25850,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="22" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C7" s="25">
         <v>3214</v>
@@ -25849,10 +25867,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="22" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C8" s="25">
         <v>3214</v>
@@ -25878,40 +25896,40 @@
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="30.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="40.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="27.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="32.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="43.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="32.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="30.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="32.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="21.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="39.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="40.88671875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="31.109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="31.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="16.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="20.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="31.44140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="26.6640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="19.5546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="26.44140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="17.5546875" collapsed="true"/>
+    <col min="32" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26035,10 +26053,10 @@
         <v>139</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>149</v>
@@ -26062,34 +26080,34 @@
         <v>156</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>975</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>976</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>156</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>165</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>170</v>
@@ -26205,21 +26223,21 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="72" customWidth="1"/>
-    <col min="3" max="1024" width="12.140625" style="72" customWidth="1"/>
-    <col min="1025" max="16384" width="43.7109375" style="74"/>
+    <col min="1" max="1" customWidth="true" style="72" width="18.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="72" width="43.6640625" collapsed="false"/>
+    <col min="3" max="1024" customWidth="true" style="72" width="12.109375" collapsed="false"/>
+    <col min="1025" max="16384" style="74" width="43.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" ht="14.4">
       <c r="A1" s="75" t="s">
         <v>7</v>
       </c>
@@ -26230,39 +26248,39 @@
         <v>344</v>
       </c>
       <c r="D1" s="86" t="s">
+        <v>829</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>830</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>657</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>785</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>786</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="77" t="s">
         <v>831</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="B2" s="114" t="s">
         <v>832</v>
       </c>
-      <c r="F1" s="86" t="s">
-        <v>785</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>786</v>
-      </c>
-      <c r="H1" s="86" t="s">
-        <v>659</v>
-      </c>
-      <c r="I1" s="86" t="s">
-        <v>787</v>
-      </c>
-      <c r="J1" s="86" t="s">
-        <v>788</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="77" t="s">
-        <v>833</v>
-      </c>
-      <c r="B2" s="114" t="s">
-        <v>834</v>
-      </c>
       <c r="C2" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D2" s="90"/>
       <c r="E2" s="90"/>
@@ -26273,15 +26291,15 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11" ht="14.4">
       <c r="A3" s="77" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B3" s="114" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
@@ -26292,21 +26310,21 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="77" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>474</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F4" s="90"/>
       <c r="G4" s="90"/>
@@ -26315,12 +26333,12 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="77" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>474</v>
@@ -26334,12 +26352,12 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" ht="14.4">
       <c r="A6" s="77" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>474</v>
@@ -26353,35 +26371,35 @@
       <c r="J6" s="116"/>
       <c r="K6" s="116"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="77" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G7" s="90" t="s">
+        <v>790</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>791</v>
+      </c>
+      <c r="I7" s="90" t="s">
         <v>792</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="J7" s="90" t="s">
         <v>793</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="K7" s="90" t="s">
         <v>794</v>
-      </c>
-      <c r="J7" s="90" t="s">
-        <v>795</v>
-      </c>
-      <c r="K7" s="90" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -26402,16 +26420,16 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -26419,36 +26437,36 @@
         <v>119</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="96" t="s">
         <v>344</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1" s="103" t="s">
         <v>785</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>786</v>
       </c>
-      <c r="F1" s="103" t="s">
-        <v>659</v>
-      </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>787</v>
       </c>
-      <c r="H1" s="103" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="27.6">
+      <c r="A2" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="B2" s="104" t="s">
-        <v>791</v>
       </c>
       <c r="C2" s="25">
         <v>3209</v>
@@ -26457,19 +26475,19 @@
         <v>5679</v>
       </c>
       <c r="E2" s="104" t="s">
+        <v>790</v>
+      </c>
+      <c r="F2" s="104" t="s">
+        <v>791</v>
+      </c>
+      <c r="G2" s="104" t="s">
         <v>792</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="H2" s="104" t="s">
         <v>793</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="I2" s="104" t="s">
         <v>794</v>
-      </c>
-      <c r="H2" s="104" t="s">
-        <v>795</v>
-      </c>
-      <c r="I2" s="104" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -26486,10 +26504,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26497,7 +26515,7 @@
         <v>119</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>344</v>
@@ -26505,10 +26523,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C2">
         <v>3061</v>
@@ -26527,12 +26545,12 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26551,10 +26569,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C2" t="s">
         <v>368</v>
@@ -26573,36 +26591,36 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="108" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="23.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="26.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="27.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="29.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="108" width="14.44140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="94" customFormat="1" ht="30">
+    <row r="1" spans="1:22" s="94" customFormat="1">
       <c r="A1" s="93" t="s">
         <v>292</v>
       </c>
@@ -26613,28 +26631,28 @@
         <v>344</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>345</v>
       </c>
       <c r="F1" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G1" s="93" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H1" s="93" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J1" s="93" t="s">
         <v>351</v>
       </c>
       <c r="K1" s="93" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L1" s="93" t="s">
         <v>353</v>
@@ -26649,7 +26667,7 @@
         <v>356</v>
       </c>
       <c r="P1" s="93" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="Q1" s="93" t="s">
         <v>358</v>
@@ -26672,13 +26690,13 @@
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1">
       <c r="A2" s="95" t="s">
+        <v>854</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>855</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>856</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>857</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>858</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>141</v>
@@ -26687,19 +26705,19 @@
         <v>141</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>861</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>395</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>153</v>
@@ -26708,16 +26726,16 @@
         <v>156</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>866</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -26728,13 +26746,13 @@
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1">
       <c r="A3" s="95" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -26758,13 +26776,13 @@
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1">
       <c r="A4" s="95" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -26788,13 +26806,13 @@
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1">
       <c r="A5" s="95" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>141</v>
@@ -26803,19 +26821,19 @@
         <v>141</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>861</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>395</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>153</v>
@@ -26824,16 +26842,16 @@
         <v>156</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>866</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -26844,13 +26862,13 @@
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1">
       <c r="A6" s="95" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -26872,16 +26890,16 @@
         <v>113</v>
       </c>
       <c r="S6" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="V6" s="107" t="s">
         <v>876</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="V6" s="107" t="s">
-        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -26892,18 +26910,18 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16" style="81" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="81" customWidth="1"/>
-    <col min="3" max="1024" width="16" style="81" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="82"/>
+    <col min="1" max="1" customWidth="true" style="81" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="81" width="22.6640625" collapsed="false"/>
+    <col min="3" max="1024" customWidth="true" style="81" width="16.0" collapsed="false"/>
+    <col min="1025" max="16384" style="82" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26919,10 +26937,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="98" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -26930,10 +26948,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="98" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -26941,10 +26959,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="98" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -26952,10 +26970,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="98" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C5" s="25">
         <v>3061</v>
@@ -26963,10 +26981,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="98" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C6" s="25">
         <v>3061</v>
@@ -26974,10 +26992,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="98" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C7" s="25">
         <v>3061</v>
@@ -26998,33 +27016,33 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.5703125" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" customWidth="1"/>
-    <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="52.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="36.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="30.109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="36.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="37.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="22.44140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="30.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="41.5546875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="25.109375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="29.88671875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="16.88671875" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="23.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -27041,7 +27059,7 @@
         <v>344</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>345</v>
@@ -27080,10 +27098,10 @@
         <v>357</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="S1" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="T1" s="30" t="s">
         <v>358</v>
@@ -27112,10 +27130,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="32" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>368</v>
@@ -27149,10 +27167,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="32" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>368</v>
@@ -27203,16 +27221,16 @@
       <selection activeCell="A47" sqref="A47:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -27686,10 +27704,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="95" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B42" s="95" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>127</v>
@@ -27697,10 +27715,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="95" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B43" s="95" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>127</v>
@@ -27708,10 +27726,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="95" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B44" s="95" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>127</v>
@@ -27719,10 +27737,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="95" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>127</v>
@@ -27730,10 +27748,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="95" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B46" s="95" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>127</v>
@@ -27800,22 +27818,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="42.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -27826,7 +27844,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>121</v>
@@ -27854,8 +27872,8 @@
       <c r="B2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="132" t="s">
-        <v>880</v>
+      <c r="C2" s="121" t="s">
+        <v>878</v>
       </c>
       <c r="D2" s="117" t="s">
         <v>127</v>
@@ -27868,7 +27886,7 @@
       <c r="B3" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="122"/>
       <c r="D3" s="117" t="s">
         <v>127</v>
       </c>
@@ -27880,7 +27898,7 @@
       <c r="B4" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="117" t="s">
         <v>127</v>
       </c>
@@ -27892,79 +27910,79 @@
       <c r="B5" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="133"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="22" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>967</v>
-      </c>
-      <c r="C6" s="133"/>
+        <v>965</v>
+      </c>
+      <c r="C6" s="122"/>
       <c r="D6" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="22" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>968</v>
-      </c>
-      <c r="C7" s="133"/>
+        <v>966</v>
+      </c>
+      <c r="C7" s="122"/>
       <c r="D7" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="22" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>969</v>
-      </c>
-      <c r="C8" s="133"/>
+        <v>967</v>
+      </c>
+      <c r="C8" s="122"/>
       <c r="D8" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="22" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="C9" s="133"/>
+        <v>968</v>
+      </c>
+      <c r="C9" s="122"/>
       <c r="D9" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="22" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="C10" s="133"/>
+        <v>969</v>
+      </c>
+      <c r="C10" s="122"/>
       <c r="D10" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="22" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C11" s="134"/>
+        <v>970</v>
+      </c>
+      <c r="C11" s="123"/>
       <c r="D11" s="117" t="s">
         <v>127</v>
       </c>
@@ -27976,8 +27994,8 @@
       <c r="B12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="121" t="s">
-        <v>952</v>
+      <c r="C12" s="125" t="s">
+        <v>950</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>127</v>
@@ -27990,7 +28008,7 @@
       <c r="B13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="121"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="117" t="s">
         <v>127</v>
       </c>
@@ -28002,7 +28020,7 @@
       <c r="B14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="121"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="117" t="s">
         <v>127</v>
       </c>
@@ -28014,8 +28032,8 @@
       <c r="B15" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>953</v>
+      <c r="C15" s="126" t="s">
+        <v>951</v>
       </c>
       <c r="D15" s="117" t="s">
         <v>127</v>
@@ -28028,7 +28046,7 @@
       <c r="B16" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="117" t="s">
         <v>127</v>
       </c>
@@ -28040,7 +28058,7 @@
       <c r="B17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="123"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="117" t="s">
         <v>127</v>
       </c>
@@ -28052,7 +28070,7 @@
       <c r="B18" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="123"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="117" t="s">
         <v>127</v>
       </c>
@@ -28064,7 +28082,7 @@
       <c r="B19" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="124"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
       </c>
@@ -28079,8 +28097,8 @@
       <c r="B20" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="122" t="s">
-        <v>954</v>
+      <c r="C20" s="126" t="s">
+        <v>952</v>
       </c>
       <c r="D20" s="117" t="s">
         <v>127</v>
@@ -28093,7 +28111,7 @@
       <c r="B21" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="123"/>
+      <c r="C21" s="127"/>
       <c r="D21" s="117" t="s">
         <v>127</v>
       </c>
@@ -28105,7 +28123,7 @@
       <c r="B22" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="123"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="117" t="s">
         <v>127</v>
       </c>
@@ -28117,7 +28135,7 @@
       <c r="B23" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="123"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="117" t="s">
         <v>127</v>
       </c>
@@ -28129,7 +28147,7 @@
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="123"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="117" t="s">
         <v>127</v>
       </c>
@@ -28141,7 +28159,7 @@
       <c r="B25" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="124"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="117" t="s">
         <v>127</v>
       </c>
@@ -28153,8 +28171,8 @@
       <c r="B26" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="122" t="s">
-        <v>955</v>
+      <c r="C26" s="126" t="s">
+        <v>953</v>
       </c>
       <c r="D26" s="117" t="s">
         <v>127</v>
@@ -28167,7 +28185,7 @@
       <c r="B27" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="123"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="117" t="s">
         <v>127</v>
       </c>
@@ -28179,7 +28197,7 @@
       <c r="B28" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="123"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="117" t="s">
         <v>127</v>
       </c>
@@ -28191,7 +28209,7 @@
       <c r="B29" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="123"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="117" t="s">
         <v>127</v>
       </c>
@@ -28203,7 +28221,7 @@
       <c r="B30" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="123"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="117" t="s">
         <v>127</v>
       </c>
@@ -28215,7 +28233,7 @@
       <c r="B31" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="124"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="117" t="s">
         <v>127</v>
       </c>
@@ -28227,8 +28245,8 @@
       <c r="B32" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="122" t="s">
-        <v>956</v>
+      <c r="C32" s="126" t="s">
+        <v>954</v>
       </c>
       <c r="D32" s="117" t="s">
         <v>127</v>
@@ -28241,7 +28259,7 @@
       <c r="B33" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="123"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="117" t="s">
         <v>127</v>
       </c>
@@ -28253,7 +28271,7 @@
       <c r="B34" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="123"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="117" t="s">
         <v>127</v>
       </c>
@@ -28265,7 +28283,7 @@
       <c r="B35" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="123"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="117" t="s">
         <v>127</v>
       </c>
@@ -28277,7 +28295,7 @@
       <c r="B36" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="124"/>
+      <c r="C36" s="128"/>
       <c r="D36" s="117" t="s">
         <v>127</v>
       </c>
@@ -28289,8 +28307,8 @@
       <c r="B37" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C37" s="125" t="s">
-        <v>957</v>
+      <c r="C37" s="129" t="s">
+        <v>955</v>
       </c>
       <c r="D37" s="117" t="s">
         <v>127</v>
@@ -28303,7 +28321,7 @@
       <c r="B38" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="126"/>
+      <c r="C38" s="130"/>
       <c r="D38" s="117" t="s">
         <v>127</v>
       </c>
@@ -28315,7 +28333,7 @@
       <c r="B39" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="126"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="117" t="s">
         <v>127</v>
       </c>
@@ -28327,7 +28345,7 @@
       <c r="B40" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="126"/>
+      <c r="C40" s="130"/>
       <c r="D40" s="117" t="s">
         <v>127</v>
       </c>
@@ -28339,7 +28357,7 @@
       <c r="B41" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C41" s="126"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="117" t="s">
         <v>127</v>
       </c>
@@ -28351,7 +28369,7 @@
       <c r="B42" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="126"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="117" t="s">
         <v>127</v>
       </c>
@@ -28363,7 +28381,7 @@
       <c r="B43" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C43" s="126"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="117" t="s">
         <v>127</v>
       </c>
@@ -28375,7 +28393,7 @@
       <c r="B44" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C44" s="126"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="117" t="s">
         <v>127</v>
       </c>
@@ -28387,7 +28405,7 @@
       <c r="B45" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="126"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="117" t="s">
         <v>127</v>
       </c>
@@ -28399,7 +28417,7 @@
       <c r="B46" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="126"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="117" t="s">
         <v>127</v>
       </c>
@@ -28411,7 +28429,7 @@
       <c r="B47" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="126"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="117" t="s">
         <v>127</v>
       </c>
@@ -28423,20 +28441,20 @@
       <c r="B48" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C48" s="127"/>
+      <c r="C48" s="131"/>
       <c r="D48" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="C49" s="125" t="s">
-        <v>958</v>
+        <v>615</v>
+      </c>
+      <c r="C49" s="129" t="s">
+        <v>956</v>
       </c>
       <c r="D49" s="117" t="s">
         <v>127</v>
@@ -28444,24 +28462,24 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="C50" s="126"/>
+        <v>617</v>
+      </c>
+      <c r="C50" s="130"/>
       <c r="D50" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="C51" s="127"/>
+        <v>620</v>
+      </c>
+      <c r="C51" s="131"/>
       <c r="D51" s="117" t="s">
         <v>127</v>
       </c>
@@ -28473,8 +28491,8 @@
       <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="122" t="s">
-        <v>959</v>
+      <c r="C52" s="126" t="s">
+        <v>957</v>
       </c>
       <c r="D52" s="117" t="s">
         <v>127</v>
@@ -28487,7 +28505,7 @@
       <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="123"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="117" t="s">
         <v>127</v>
       </c>
@@ -28499,7 +28517,7 @@
       <c r="B54" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="123"/>
+      <c r="C54" s="127"/>
       <c r="D54" s="117" t="s">
         <v>127</v>
       </c>
@@ -28509,9 +28527,9 @@
         <v>55</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>879</v>
-      </c>
-      <c r="C55" s="123"/>
+        <v>877</v>
+      </c>
+      <c r="C55" s="127"/>
       <c r="D55" s="117" t="s">
         <v>127</v>
       </c>
@@ -28523,7 +28541,7 @@
       <c r="B56" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="123"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="117" t="s">
         <v>127</v>
       </c>
@@ -28535,7 +28553,7 @@
       <c r="B57" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="124"/>
+      <c r="C57" s="128"/>
       <c r="D57" s="117" t="s">
         <v>127</v>
       </c>
@@ -28547,8 +28565,8 @@
       <c r="B58" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="128" t="s">
-        <v>960</v>
+      <c r="C58" s="132" t="s">
+        <v>958</v>
       </c>
       <c r="D58" s="117" t="s">
         <v>127</v>
@@ -28561,7 +28579,7 @@
       <c r="B59" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="129"/>
+      <c r="C59" s="133"/>
       <c r="D59" s="117" t="s">
         <v>127</v>
       </c>
@@ -28573,7 +28591,7 @@
       <c r="B60" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C60" s="129"/>
+      <c r="C60" s="133"/>
       <c r="D60" s="117" t="s">
         <v>127</v>
       </c>
@@ -28585,7 +28603,7 @@
       <c r="B61" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C61" s="129"/>
+      <c r="C61" s="133"/>
       <c r="D61" s="117" t="s">
         <v>127</v>
       </c>
@@ -28597,7 +28615,7 @@
       <c r="B62" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C62" s="129"/>
+      <c r="C62" s="133"/>
       <c r="D62" s="117" t="s">
         <v>127</v>
       </c>
@@ -28609,7 +28627,7 @@
       <c r="B63" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="C63" s="129"/>
+      <c r="C63" s="133"/>
       <c r="D63" s="117" t="s">
         <v>127</v>
       </c>
@@ -28621,7 +28639,7 @@
       <c r="B64" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C64" s="129"/>
+      <c r="C64" s="133"/>
       <c r="D64" s="117" t="s">
         <v>127</v>
       </c>
@@ -28633,20 +28651,20 @@
       <c r="B65" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C65" s="130"/>
+      <c r="C65" s="134"/>
       <c r="D65" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>895</v>
-      </c>
-      <c r="C66" s="131" t="s">
-        <v>884</v>
+      <c r="C66" s="124" t="s">
+        <v>882</v>
       </c>
       <c r="D66" s="117" t="s">
         <v>127</v>
@@ -28654,12 +28672,12 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B67" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>896</v>
-      </c>
-      <c r="C67" s="131"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="117" t="s">
         <v>127</v>
       </c>
@@ -28672,7 +28690,7 @@
         <v>519</v>
       </c>
       <c r="C68" s="120" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D68" s="117" t="s">
         <v>127</v>
@@ -28710,7 +28728,7 @@
         <v>550</v>
       </c>
       <c r="C71" s="120" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D71" s="117" t="s">
         <v>127</v>
@@ -28718,10 +28736,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>552</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>553</v>
       </c>
       <c r="C72" s="120"/>
       <c r="D72" s="117" t="s">
@@ -28730,10 +28748,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="B73" s="25" t="s">
         <v>559</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>560</v>
       </c>
       <c r="C73" s="120"/>
       <c r="D73" s="117" t="s">
@@ -28742,10 +28760,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="60" t="s">
+        <v>562</v>
+      </c>
+      <c r="B74" s="25" t="s">
         <v>563</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>564</v>
       </c>
       <c r="C74" s="120"/>
       <c r="D74" s="117" t="s">
@@ -28754,10 +28772,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="60" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C75" s="120"/>
       <c r="D75" s="117" t="s">
@@ -28766,13 +28784,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D76" s="117" t="s">
         <v>127</v>
@@ -28785,8 +28803,8 @@
       <c r="B77" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="131" t="s">
-        <v>886</v>
+      <c r="C77" s="124" t="s">
+        <v>884</v>
       </c>
       <c r="D77" s="117" t="s">
         <v>127</v>
@@ -28799,20 +28817,20 @@
       <c r="B78" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="131"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C79" s="119" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D79" s="117" t="s">
         <v>127</v>
@@ -28825,8 +28843,8 @@
       <c r="B80" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C80" s="131" t="s">
-        <v>888</v>
+      <c r="C80" s="124" t="s">
+        <v>886</v>
       </c>
       <c r="D80" s="117" t="s">
         <v>127</v>
@@ -28839,7 +28857,7 @@
       <c r="B81" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="C81" s="131"/>
+      <c r="C81" s="124"/>
       <c r="D81" s="117" t="s">
         <v>127</v>
       </c>
@@ -28851,20 +28869,20 @@
       <c r="B82" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="C82" s="131"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="95" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>740</v>
-      </c>
-      <c r="C83" s="131" t="s">
-        <v>889</v>
+        <v>738</v>
+      </c>
+      <c r="C83" s="124" t="s">
+        <v>887</v>
       </c>
       <c r="D83" s="117" t="s">
         <v>127</v>
@@ -28872,61 +28890,61 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="95" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="C84" s="131"/>
+        <v>745</v>
+      </c>
+      <c r="C84" s="124"/>
       <c r="D84" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="95" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="C85" s="131"/>
+        <v>747</v>
+      </c>
+      <c r="C85" s="124"/>
       <c r="D85" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="95" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="C86" s="131"/>
+        <v>749</v>
+      </c>
+      <c r="C86" s="124"/>
       <c r="D86" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="95" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>753</v>
-      </c>
-      <c r="C87" s="131"/>
+        <v>751</v>
+      </c>
+      <c r="C87" s="124"/>
       <c r="D87" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="88" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>723</v>
-      </c>
-      <c r="C88" s="131" t="s">
-        <v>890</v>
+        <v>721</v>
+      </c>
+      <c r="C88" s="124" t="s">
+        <v>888</v>
       </c>
       <c r="D88" s="117" t="s">
         <v>127</v>
@@ -28934,25 +28952,25 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="95" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>725</v>
-      </c>
-      <c r="C89" s="131"/>
+        <v>723</v>
+      </c>
+      <c r="C89" s="124"/>
       <c r="D89" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C90" s="120" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D90" s="117" t="s">
         <v>127</v>
@@ -28960,10 +28978,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="117" t="s">
@@ -28972,10 +28990,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C92" s="120"/>
       <c r="D92" s="117" t="s">
@@ -28984,10 +29002,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C93" s="120"/>
       <c r="D93" s="117" t="s">
@@ -28996,13 +29014,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="22" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C94" s="118" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D94" s="117" t="s">
         <v>127</v>
@@ -29016,7 +29034,7 @@
         <v>472</v>
       </c>
       <c r="C95" s="120" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D95" s="117" t="s">
         <v>127</v>
@@ -29024,10 +29042,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="46" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C96" s="120"/>
       <c r="D96" s="117" t="s">
@@ -29036,10 +29054,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="46" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C97" s="120"/>
       <c r="D97" s="117" t="s">
@@ -29048,10 +29066,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="46" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C98" s="120"/>
       <c r="D98" s="117" t="s">
@@ -29060,10 +29078,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="46" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C99" s="120"/>
       <c r="D99" s="117" t="s">
@@ -29072,10 +29090,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="46" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C100" s="120"/>
       <c r="D100" s="117" t="s">
@@ -29084,13 +29102,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="95" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C101" s="120" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D101" s="117" t="s">
         <v>127</v>
@@ -29098,212 +29116,212 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="95" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="95" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C103" s="120"/>
       <c r="D103" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="95" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C104" s="120"/>
       <c r="D104" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="95" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C105" s="120"/>
       <c r="D105" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="95" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C106" s="120"/>
       <c r="D106" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="95" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C107" s="120" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="95" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C108" s="120"/>
       <c r="D108" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="95" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C109" s="120"/>
       <c r="D109" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="95" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C110" s="120" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="95" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C111" s="120"/>
       <c r="D111" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="95" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C112" s="120"/>
       <c r="D112" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="95" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C113" s="120" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="95" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C114" s="120"/>
       <c r="D114" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="95" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C115" s="120"/>
       <c r="D115" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="95" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C116" s="120"/>
       <c r="D116" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="95" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C117" s="120"/>
       <c r="D117" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="95" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C118" s="120"/>
       <c r="D118" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -29314,456 +29332,469 @@
         <v>491</v>
       </c>
       <c r="C119" s="120" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="95" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C120" s="120"/>
       <c r="D120" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="95" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C121" s="120"/>
       <c r="D121" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="95" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C122" s="120"/>
       <c r="D122" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="95" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C123" s="120" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="95" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C124" s="120"/>
       <c r="D124" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="95" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C125" s="120"/>
       <c r="D125" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="95" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C126" s="120"/>
       <c r="D126" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="95" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C127" s="120" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="95" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C128" s="120"/>
       <c r="D128" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="95" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C129" s="120"/>
       <c r="D129" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="95" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C130" s="120"/>
       <c r="D130" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="95" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C131" s="120"/>
       <c r="D131" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="95" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C132" s="120"/>
       <c r="D132" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="95" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C133" s="120" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="95" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="95" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C135" s="120"/>
       <c r="D135" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="95" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C136" s="120"/>
       <c r="D136" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="95" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C137" s="120"/>
       <c r="D137" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="95" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C138" s="120"/>
       <c r="D138" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="95" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C139" s="120" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="95" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C140" s="120"/>
       <c r="D140" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="95" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C141" s="120"/>
       <c r="D141" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="95" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C142" s="120"/>
       <c r="D142" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="95" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C143" s="120"/>
       <c r="D143" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="95" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C144" s="120"/>
       <c r="D144" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="95" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C145" s="120"/>
       <c r="D145" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="95" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C146" s="120"/>
       <c r="D146" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="95" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C147" s="120"/>
       <c r="D147" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="95" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C148" s="120"/>
       <c r="D148" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="95" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C149" s="120"/>
       <c r="D149" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="95" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C150" s="120"/>
       <c r="D150" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="95" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C151" s="120"/>
       <c r="D151" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="95" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C152" s="120"/>
       <c r="D152" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="77" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C153" s="120" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D153" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="77" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C154" s="120"/>
       <c r="D154" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="77" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C155" s="120"/>
       <c r="D155" s="117" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C75"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C119:C122"/>
@@ -29780,19 +29811,6 @@
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C87"/>
     <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C75"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1048576 C1:C2 C12:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
@@ -29817,37 +29835,37 @@
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="9.140625" style="3" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.140625" style="3" collapsed="1"/>
-    <col min="25" max="25" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="24.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="18.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="21.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="30.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="31.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="29.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="21.109375" collapsed="true"/>
+    <col min="14" max="15" style="3" width="9.109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="17.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="26.88671875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="16.5546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="13.5546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="22.109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="21.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="43.33203125" collapsed="true"/>
+    <col min="24" max="24" style="3" width="9.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="23.44140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="23.88671875" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -30209,20 +30227,20 @@
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="24.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="29.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="36.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="22.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="19.109375" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -30413,33 +30431,33 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -30834,23 +30852,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="31.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="29.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="24.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="20.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="26.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="15.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="22.88671875" collapsed="true"/>
+    <col min="15" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -31067,31 +31085,31 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="32.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="27.140625" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
-    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="29.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="57.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="32.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="28.88671875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="26.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="29.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="34.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="32.88671875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="27.109375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="17.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -31980,26 +31998,26 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="16.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="10.5546875" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="14.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -32019,60 +32037,60 @@
         <v>541</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G1" s="112" t="s">
         <v>294</v>
       </c>
       <c r="H1" s="112" t="s">
+        <v>600</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>601</v>
+      </c>
+      <c r="J1" s="59" t="s">
         <v>602</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="K1" s="71" t="s">
         <v>603</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="L1" s="71" t="s">
         <v>604</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="M1" s="71" t="s">
         <v>605</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="N1" s="71" t="s">
         <v>606</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="O1" s="71" t="s">
         <v>607</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="P1" s="71" t="s">
         <v>608</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="Q1" s="71" t="s">
         <v>609</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="R1" s="71" t="s">
         <v>610</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="S1" s="71" t="s">
         <v>611</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="T1" s="71" t="s">
         <v>612</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="U1" s="71" t="s">
         <v>613</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>614</v>
-      </c>
-      <c r="U1" s="71" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>368</v>
@@ -32081,7 +32099,7 @@
         <v>2971</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -32125,10 +32143,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>368</v>
@@ -32137,13 +32155,13 @@
         <v>2971</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="25" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
@@ -32185,10 +32203,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>368</v>
@@ -32197,13 +32215,13 @@
         <v>2971</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>

--- a/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
+++ b/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="982">
   <si>
     <t>UserName</t>
   </si>
@@ -1937,9 +1937,6 @@
     <t>0363</t>
   </si>
   <si>
-    <t>0371</t>
-  </si>
-  <si>
     <t>AT_DC_CD_001</t>
   </si>
   <si>
@@ -2994,6 +2991,12 @@
   </si>
   <si>
     <t>0345</t>
+  </si>
+  <si>
+    <t>01069</t>
+  </si>
+  <si>
+    <t>0362</t>
   </si>
 </sst>
 </file>
@@ -3753,19 +3756,9 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3798,8 +3791,18 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="10"/>
@@ -4156,13 +4159,13 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="10.49609375" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.49609375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="3" width="15.109375" collapsed="true"/>
     <col min="4" max="4" style="3" width="9.109375" collapsed="false"/>
     <col min="5" max="16384" style="3" width="9.109375" collapsed="true"/>
@@ -4180,16 +4183,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="135" t="s">
-        <v>979</v>
-      </c>
-      <c r="B2" s="135" t="s">
-        <v>980</v>
-      </c>
-      <c r="C2" s="136" t="s">
+      <c r="A2" s="120" t="s">
+        <v>978</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>981</v>
+      </c>
+      <c r="C2" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="135"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -4284,7 +4287,7 @@
         <v>625</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>628</v>
+        <v>980</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -4292,7 +4295,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.6">
       <c r="A12" s="83" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B12" s="1">
         <v>3129</v>
@@ -4303,10 +4306,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>6</v>
@@ -4314,10 +4317,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.6">
       <c r="A14" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>6</v>
@@ -4325,7 +4328,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.6">
       <c r="A15" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>627</v>
@@ -4336,21 +4339,21 @@
     </row>
     <row r="16" spans="1:4" ht="15.6">
       <c r="A16" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>849</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6">
       <c r="A17" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>6</v>
@@ -4673,7 +4676,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>283</v>
@@ -5296,7 +5299,7 @@
         <v>472</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
@@ -5354,10 +5357,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>474</v>
@@ -5648,7 +5651,7 @@
         <v>491</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
@@ -7397,22 +7400,22 @@
         <v>344</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>345</v>
       </c>
       <c r="F1" s="93" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1" s="93" t="s">
         <v>733</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>734</v>
       </c>
       <c r="H1" s="93" t="s">
         <v>351</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J1" s="93" t="s">
         <v>353</v>
@@ -7424,35 +7427,35 @@
         <v>355</v>
       </c>
       <c r="M1" s="93" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N1" s="93"/>
       <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>737</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="C2" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>399</v>
@@ -7461,24 +7464,24 @@
         <v>156</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>744</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>745</v>
-      </c>
       <c r="C3" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7493,13 +7496,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>746</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>747</v>
-      </c>
       <c r="C4" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7514,13 +7517,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>748</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>749</v>
-      </c>
       <c r="C5" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7535,13 +7538,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>750</v>
       </c>
-      <c r="B6" s="95" t="s">
-        <v>751</v>
-      </c>
       <c r="C6" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7923,13 +7926,13 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="88" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>720</v>
       </c>
-      <c r="B2" s="89" t="s">
-        <v>721</v>
-      </c>
       <c r="C2" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D2" s="90" t="s">
         <v>36</v>
@@ -8004,13 +8007,13 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="77" t="s">
+        <v>721</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>722</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>723</v>
-      </c>
       <c r="C3" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
@@ -8041,13 +8044,13 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="77" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>725</v>
-      </c>
       <c r="C4" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
@@ -8078,13 +8081,13 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="77" t="s">
+        <v>725</v>
+      </c>
+      <c r="B5" s="89" t="s">
         <v>726</v>
       </c>
-      <c r="B5" s="89" t="s">
-        <v>727</v>
-      </c>
       <c r="C5" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -8115,13 +8118,13 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="77" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="89" t="s">
         <v>728</v>
       </c>
-      <c r="B6" s="89" t="s">
-        <v>729</v>
-      </c>
       <c r="C6" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -8152,13 +8155,13 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="77" t="s">
+        <v>729</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>730</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>731</v>
-      </c>
       <c r="C7" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
@@ -8238,79 +8241,79 @@
         <v>569</v>
       </c>
       <c r="C1" s="80" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="80" t="s">
         <v>636</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="E1" s="80" t="s">
         <v>637</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="F1" s="80" t="s">
         <v>638</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>639</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="H1" s="80" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="I1" s="80" t="s">
         <v>641</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="J1" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="K1" s="80" t="s">
         <v>643</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="L1" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="M1" s="80" t="s">
         <v>645</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="N1" s="80" t="s">
         <v>646</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="O1" s="80" t="s">
         <v>647</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="P1" s="80" t="s">
         <v>648</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="Q1" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="R1" s="80" t="s">
         <v>650</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="S1" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="T1" s="80" t="s">
         <v>652</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="U1" s="80" t="s">
         <v>653</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="V1" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="W1" s="80" t="s">
         <v>655</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="X1" s="80" t="s">
         <v>656</v>
-      </c>
-      <c r="X1" s="80" t="s">
-        <v>657</v>
       </c>
       <c r="Y1" s="26" t="s">
         <v>344</v>
       </c>
       <c r="Z1" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA1" s="26" t="s">
         <v>658</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>659</v>
       </c>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -24672,51 +24675,51 @@
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>666</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>667</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="M2" s="28" t="s">
-        <v>669</v>
-      </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>670</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>671</v>
       </c>
       <c r="P2" s="28">
         <v>895568</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>113</v>
@@ -24735,7 +24738,7 @@
         <v>5000</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Y2" s="28">
         <v>3061</v>
@@ -24745,10 +24748,10 @@
     </row>
     <row r="3" spans="1:16384">
       <c r="A3" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>673</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>674</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -24780,10 +24783,10 @@
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>675</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>676</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -24815,10 +24818,10 @@
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>677</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>678</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -24846,18 +24849,18 @@
         <v>3061</v>
       </c>
       <c r="Z5" s="28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>680</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>681</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -24885,18 +24888,18 @@
         <v>3426</v>
       </c>
       <c r="Z6" s="28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="A7" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>682</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>683</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -24924,10 +24927,10 @@
         <v>3426</v>
       </c>
       <c r="Z7" s="28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -24992,13 +24995,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="77" t="s">
+        <v>628</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>629</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>630</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>631</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>36</v>
@@ -25027,13 +25030,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="77" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>633</v>
-      </c>
       <c r="C3" s="79" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -25046,13 +25049,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>634</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>635</v>
-      </c>
       <c r="C4" s="79" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
@@ -25136,68 +25139,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="95" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>753</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>754</v>
-      </c>
       <c r="C2" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="95" t="s">
+        <v>754</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>755</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>756</v>
-      </c>
       <c r="C3" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="95" t="s">
+        <v>756</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>757</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>758</v>
-      </c>
       <c r="C4" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="95" t="s">
+        <v>758</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>759</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>760</v>
-      </c>
       <c r="C5" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="95" t="s">
+        <v>760</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>761</v>
       </c>
-      <c r="B6" s="95" t="s">
-        <v>762</v>
-      </c>
       <c r="C6" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="95" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>763</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>764</v>
-      </c>
       <c r="C7" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -25234,10 +25237,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="98" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>714</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>715</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -25245,10 +25248,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>716</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>717</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -25256,10 +25259,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="98" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>718</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>719</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -25300,10 +25303,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>684</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>685</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -25311,10 +25314,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>686</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -25322,10 +25325,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>688</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>689</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -25359,51 +25362,51 @@
         <v>293</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>707</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>709</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>710</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>711</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>712</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>713</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -25449,45 +25452,45 @@
         <v>344</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>794</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>795</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="58" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>783</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>784</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>785</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>786</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>796</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>783</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>784</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>657</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>785</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>786</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>787</v>
-      </c>
-      <c r="L1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>797</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>799</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="C2" s="47" t="s">
         <v>800</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>801</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -25502,16 +25505,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="95" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B3" s="95" t="s">
+        <v>801</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>802</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>801</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>803</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
@@ -25525,16 +25528,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="95" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>804</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="C4" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>805</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>801</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>806</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>327</v>
@@ -25550,46 +25553,46 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G5" s="47" t="s">
+        <v>789</v>
+      </c>
+      <c r="H5" s="47" t="s">
         <v>790</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="I5" s="47" t="s">
         <v>791</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="J5" s="47" t="s">
         <v>792</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="K5" s="47" t="s">
         <v>793</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>794</v>
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="95" t="s">
+        <v>808</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>809</v>
       </c>
-      <c r="B6" s="95" t="s">
-        <v>810</v>
-      </c>
       <c r="C6" s="47" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -25604,13 +25607,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="95" t="s">
+        <v>810</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>811</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>812</v>
-      </c>
       <c r="C7" s="47" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -25624,7 +25627,7 @@
         <v>150</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -25660,10 +25663,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="95" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>814</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>815</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>474</v>
@@ -25671,10 +25674,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="95" t="s">
+        <v>815</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>816</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>817</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>474</v>
@@ -25682,10 +25685,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="95" t="s">
+        <v>817</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>818</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>819</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>474</v>
@@ -25693,10 +25696,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="95" t="s">
+        <v>819</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>820</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>821</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>474</v>
@@ -25704,10 +25707,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>822</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>823</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>474</v>
@@ -25715,10 +25718,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="95" t="s">
+        <v>823</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>824</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>825</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>474</v>
@@ -25757,18 +25760,18 @@
         <v>344</v>
       </c>
       <c r="D1" s="96" t="s">
+        <v>766</v>
+      </c>
+      <c r="E1" s="96" t="s">
         <v>767</v>
-      </c>
-      <c r="E1" s="96" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>769</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>770</v>
       </c>
       <c r="C2" s="25">
         <v>3214</v>
@@ -25782,10 +25785,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>771</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>772</v>
       </c>
       <c r="C3" s="25">
         <v>3214</v>
@@ -25799,10 +25802,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>773</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>774</v>
       </c>
       <c r="C4" s="25">
         <v>3214</v>
@@ -25816,10 +25819,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>775</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>776</v>
       </c>
       <c r="C5" s="25">
         <v>3214</v>
@@ -25833,10 +25836,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>777</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>778</v>
       </c>
       <c r="C6" s="25">
         <v>3214</v>
@@ -25850,10 +25853,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>779</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>780</v>
       </c>
       <c r="C7" s="25">
         <v>3214</v>
@@ -25867,10 +25870,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>781</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>782</v>
       </c>
       <c r="C8" s="25">
         <v>3214</v>
@@ -26053,10 +26056,10 @@
         <v>139</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>149</v>
@@ -26080,34 +26083,34 @@
         <v>156</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>974</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>975</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>156</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>165</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>170</v>
@@ -26248,39 +26251,39 @@
         <v>344</v>
       </c>
       <c r="D1" s="86" t="s">
+        <v>828</v>
+      </c>
+      <c r="E1" s="86" t="s">
         <v>829</v>
       </c>
-      <c r="E1" s="86" t="s">
-        <v>830</v>
-      </c>
       <c r="F1" s="86" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1" s="86" t="s">
         <v>783</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="H1" s="86" t="s">
+        <v>656</v>
+      </c>
+      <c r="I1" s="86" t="s">
         <v>784</v>
       </c>
-      <c r="H1" s="86" t="s">
-        <v>657</v>
-      </c>
-      <c r="I1" s="86" t="s">
+      <c r="J1" s="86" t="s">
         <v>785</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="K1" s="86" t="s">
         <v>786</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4">
       <c r="A2" s="77" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>831</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>832</v>
-      </c>
       <c r="C2" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D2" s="90"/>
       <c r="E2" s="90"/>
@@ -26293,13 +26296,13 @@
     </row>
     <row r="3" spans="1:11" ht="14.4">
       <c r="A3" s="77" t="s">
+        <v>832</v>
+      </c>
+      <c r="B3" s="114" t="s">
         <v>833</v>
       </c>
-      <c r="B3" s="114" t="s">
-        <v>834</v>
-      </c>
       <c r="C3" s="90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
@@ -26312,19 +26315,19 @@
     </row>
     <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="77" t="s">
+        <v>834</v>
+      </c>
+      <c r="B4" s="114" t="s">
         <v>835</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>836</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>474</v>
       </c>
       <c r="D4" s="90" t="s">
+        <v>836</v>
+      </c>
+      <c r="E4" s="90" t="s">
         <v>837</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>838</v>
       </c>
       <c r="F4" s="90"/>
       <c r="G4" s="90"/>
@@ -26335,10 +26338,10 @@
     </row>
     <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="77" t="s">
+        <v>838</v>
+      </c>
+      <c r="B5" s="114" t="s">
         <v>839</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>840</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>474</v>
@@ -26354,10 +26357,10 @@
     </row>
     <row r="6" spans="1:11" ht="14.4">
       <c r="A6" s="77" t="s">
+        <v>840</v>
+      </c>
+      <c r="B6" s="114" t="s">
         <v>841</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>842</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>474</v>
@@ -26373,33 +26376,33 @@
     </row>
     <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="77" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G7" s="90" t="s">
+        <v>789</v>
+      </c>
+      <c r="H7" s="115" t="s">
         <v>790</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="I7" s="90" t="s">
         <v>791</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="J7" s="90" t="s">
         <v>792</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="K7" s="90" t="s">
         <v>793</v>
-      </c>
-      <c r="K7" s="90" t="s">
-        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -26443,30 +26446,30 @@
         <v>344</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>783</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" s="103" t="s">
         <v>784</v>
       </c>
-      <c r="F1" s="103" t="s">
-        <v>657</v>
-      </c>
-      <c r="G1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>785</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>786</v>
-      </c>
-      <c r="I1" s="103" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.6">
       <c r="A2" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="B2" s="104" t="s">
         <v>788</v>
-      </c>
-      <c r="B2" s="104" t="s">
-        <v>789</v>
       </c>
       <c r="C2" s="25">
         <v>3209</v>
@@ -26475,19 +26478,19 @@
         <v>5679</v>
       </c>
       <c r="E2" s="104" t="s">
+        <v>789</v>
+      </c>
+      <c r="F2" s="104" t="s">
         <v>790</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="G2" s="104" t="s">
         <v>791</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="H2" s="104" t="s">
         <v>792</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="I2" s="104" t="s">
         <v>793</v>
-      </c>
-      <c r="I2" s="104" t="s">
-        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -26523,10 +26526,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2" t="s">
         <v>690</v>
-      </c>
-      <c r="B2" t="s">
-        <v>691</v>
       </c>
       <c r="C2">
         <v>3061</v>
@@ -26631,28 +26634,28 @@
         <v>344</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>345</v>
       </c>
       <c r="F1" s="93" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1" s="93" t="s">
         <v>733</v>
       </c>
-      <c r="G1" s="93" t="s">
-        <v>734</v>
-      </c>
       <c r="H1" s="93" t="s">
+        <v>851</v>
+      </c>
+      <c r="I1" s="93" t="s">
         <v>852</v>
-      </c>
-      <c r="I1" s="93" t="s">
-        <v>853</v>
       </c>
       <c r="J1" s="93" t="s">
         <v>351</v>
       </c>
       <c r="K1" s="93" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L1" s="93" t="s">
         <v>353</v>
@@ -26667,7 +26670,7 @@
         <v>356</v>
       </c>
       <c r="P1" s="93" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q1" s="93" t="s">
         <v>358</v>
@@ -26690,13 +26693,13 @@
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1">
       <c r="A2" s="95" t="s">
+        <v>853</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>854</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="C2" s="47" t="s">
         <v>855</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>856</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>141</v>
@@ -26705,19 +26708,19 @@
         <v>141</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>858</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>859</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>395</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>153</v>
@@ -26726,16 +26729,16 @@
         <v>156</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>863</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>864</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -26746,13 +26749,13 @@
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1">
       <c r="A3" s="95" t="s">
+        <v>864</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>865</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>866</v>
-      </c>
       <c r="C3" s="47" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -26776,13 +26779,13 @@
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1">
       <c r="A4" s="95" t="s">
+        <v>866</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>867</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>868</v>
-      </c>
       <c r="C4" s="47" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -26806,13 +26809,13 @@
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1">
       <c r="A5" s="95" t="s">
+        <v>868</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>869</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>870</v>
-      </c>
       <c r="C5" s="47" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>141</v>
@@ -26821,19 +26824,19 @@
         <v>141</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>858</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>859</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>395</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>153</v>
@@ -26842,16 +26845,16 @@
         <v>156</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>863</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>864</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -26862,13 +26865,13 @@
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1">
       <c r="A6" s="95" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>871</v>
       </c>
-      <c r="B6" s="95" t="s">
-        <v>872</v>
-      </c>
       <c r="C6" s="47" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -26890,16 +26893,16 @@
         <v>113</v>
       </c>
       <c r="S6" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="V6" s="107" t="s">
         <v>875</v>
-      </c>
-      <c r="V6" s="107" t="s">
-        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -26937,10 +26940,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="98" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>692</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>693</v>
       </c>
       <c r="C2" s="25">
         <v>3061</v>
@@ -26948,10 +26951,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>694</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>695</v>
       </c>
       <c r="C3" s="25">
         <v>3061</v>
@@ -26959,10 +26962,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="98" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>696</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>697</v>
       </c>
       <c r="C4" s="25">
         <v>3061</v>
@@ -26970,10 +26973,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="98" t="s">
+        <v>697</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>698</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>699</v>
       </c>
       <c r="C5" s="25">
         <v>3061</v>
@@ -26981,10 +26984,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="98" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="99" t="s">
         <v>700</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>701</v>
       </c>
       <c r="C6" s="25">
         <v>3061</v>
@@ -26992,10 +26995,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="98" t="s">
+        <v>701</v>
+      </c>
+      <c r="B7" s="99" t="s">
         <v>702</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>703</v>
       </c>
       <c r="C7" s="25">
         <v>3061</v>
@@ -27059,7 +27062,7 @@
         <v>344</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>345</v>
@@ -27098,10 +27101,10 @@
         <v>357</v>
       </c>
       <c r="R1" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="S1" s="30" t="s">
         <v>844</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>845</v>
       </c>
       <c r="T1" s="30" t="s">
         <v>358</v>
@@ -27130,10 +27133,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>368</v>
@@ -27167,10 +27170,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>368</v>
@@ -27704,10 +27707,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="B42" s="95" t="s">
         <v>737</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>738</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>127</v>
@@ -27715,10 +27718,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="B43" s="95" t="s">
         <v>744</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>745</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>127</v>
@@ -27726,10 +27729,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="B44" s="95" t="s">
         <v>746</v>
-      </c>
-      <c r="B44" s="95" t="s">
-        <v>747</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>127</v>
@@ -27737,10 +27740,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="B45" s="95" t="s">
         <v>748</v>
-      </c>
-      <c r="B45" s="95" t="s">
-        <v>749</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>127</v>
@@ -27748,10 +27751,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="B46" s="95" t="s">
         <v>750</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>751</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>127</v>
@@ -27844,7 +27847,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>121</v>
@@ -27872,8 +27875,8 @@
       <c r="B2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="121" t="s">
-        <v>878</v>
+      <c r="C2" s="134" t="s">
+        <v>877</v>
       </c>
       <c r="D2" s="117" t="s">
         <v>127</v>
@@ -27886,7 +27889,7 @@
       <c r="B3" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="135"/>
       <c r="D3" s="117" t="s">
         <v>127</v>
       </c>
@@ -27898,7 +27901,7 @@
       <c r="B4" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="117" t="s">
         <v>127</v>
       </c>
@@ -27910,79 +27913,79 @@
       <c r="B5" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>965</v>
-      </c>
-      <c r="C6" s="122"/>
+        <v>964</v>
+      </c>
+      <c r="C6" s="135"/>
       <c r="D6" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="22" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>966</v>
-      </c>
-      <c r="C7" s="122"/>
+        <v>965</v>
+      </c>
+      <c r="C7" s="135"/>
       <c r="D7" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="22" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>967</v>
-      </c>
-      <c r="C8" s="122"/>
+        <v>966</v>
+      </c>
+      <c r="C8" s="135"/>
       <c r="D8" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>968</v>
-      </c>
-      <c r="C9" s="122"/>
+        <v>967</v>
+      </c>
+      <c r="C9" s="135"/>
       <c r="D9" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="22" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>969</v>
-      </c>
-      <c r="C10" s="122"/>
+        <v>968</v>
+      </c>
+      <c r="C10" s="135"/>
       <c r="D10" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>970</v>
-      </c>
-      <c r="C11" s="123"/>
+        <v>969</v>
+      </c>
+      <c r="C11" s="136"/>
       <c r="D11" s="117" t="s">
         <v>127</v>
       </c>
@@ -27994,8 +27997,8 @@
       <c r="B12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="125" t="s">
-        <v>950</v>
+      <c r="C12" s="123" t="s">
+        <v>949</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>127</v>
@@ -28008,7 +28011,7 @@
       <c r="B13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="117" t="s">
         <v>127</v>
       </c>
@@ -28020,7 +28023,7 @@
       <c r="B14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="125"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="117" t="s">
         <v>127</v>
       </c>
@@ -28032,8 +28035,8 @@
       <c r="B15" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="126" t="s">
-        <v>951</v>
+      <c r="C15" s="124" t="s">
+        <v>950</v>
       </c>
       <c r="D15" s="117" t="s">
         <v>127</v>
@@ -28046,7 +28049,7 @@
       <c r="B16" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="127"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="117" t="s">
         <v>127</v>
       </c>
@@ -28058,7 +28061,7 @@
       <c r="B17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="127"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="117" t="s">
         <v>127</v>
       </c>
@@ -28070,7 +28073,7 @@
       <c r="B18" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="117" t="s">
         <v>127</v>
       </c>
@@ -28082,7 +28085,7 @@
       <c r="B19" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="128"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
       </c>
@@ -28097,8 +28100,8 @@
       <c r="B20" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="126" t="s">
-        <v>952</v>
+      <c r="C20" s="124" t="s">
+        <v>951</v>
       </c>
       <c r="D20" s="117" t="s">
         <v>127</v>
@@ -28111,7 +28114,7 @@
       <c r="B21" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="127"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="117" t="s">
         <v>127</v>
       </c>
@@ -28123,7 +28126,7 @@
       <c r="B22" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="127"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="117" t="s">
         <v>127</v>
       </c>
@@ -28135,7 +28138,7 @@
       <c r="B23" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="127"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="117" t="s">
         <v>127</v>
       </c>
@@ -28147,7 +28150,7 @@
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="127"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="117" t="s">
         <v>127</v>
       </c>
@@ -28159,7 +28162,7 @@
       <c r="B25" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="128"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="117" t="s">
         <v>127</v>
       </c>
@@ -28171,8 +28174,8 @@
       <c r="B26" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="126" t="s">
-        <v>953</v>
+      <c r="C26" s="124" t="s">
+        <v>952</v>
       </c>
       <c r="D26" s="117" t="s">
         <v>127</v>
@@ -28185,7 +28188,7 @@
       <c r="B27" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="127"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="117" t="s">
         <v>127</v>
       </c>
@@ -28197,7 +28200,7 @@
       <c r="B28" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="127"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="117" t="s">
         <v>127</v>
       </c>
@@ -28209,7 +28212,7 @@
       <c r="B29" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="127"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="117" t="s">
         <v>127</v>
       </c>
@@ -28221,7 +28224,7 @@
       <c r="B30" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="127"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="117" t="s">
         <v>127</v>
       </c>
@@ -28233,7 +28236,7 @@
       <c r="B31" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="128"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="117" t="s">
         <v>127</v>
       </c>
@@ -28245,8 +28248,8 @@
       <c r="B32" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="126" t="s">
-        <v>954</v>
+      <c r="C32" s="124" t="s">
+        <v>953</v>
       </c>
       <c r="D32" s="117" t="s">
         <v>127</v>
@@ -28259,7 +28262,7 @@
       <c r="B33" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="127"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="117" t="s">
         <v>127</v>
       </c>
@@ -28271,7 +28274,7 @@
       <c r="B34" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="127"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="117" t="s">
         <v>127</v>
       </c>
@@ -28283,7 +28286,7 @@
       <c r="B35" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="117" t="s">
         <v>127</v>
       </c>
@@ -28295,7 +28298,7 @@
       <c r="B36" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="128"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="117" t="s">
         <v>127</v>
       </c>
@@ -28307,8 +28310,8 @@
       <c r="B37" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C37" s="129" t="s">
-        <v>955</v>
+      <c r="C37" s="127" t="s">
+        <v>954</v>
       </c>
       <c r="D37" s="117" t="s">
         <v>127</v>
@@ -28321,7 +28324,7 @@
       <c r="B38" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="130"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="117" t="s">
         <v>127</v>
       </c>
@@ -28333,7 +28336,7 @@
       <c r="B39" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="130"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="117" t="s">
         <v>127</v>
       </c>
@@ -28345,7 +28348,7 @@
       <c r="B40" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="130"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="117" t="s">
         <v>127</v>
       </c>
@@ -28357,7 +28360,7 @@
       <c r="B41" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="117" t="s">
         <v>127</v>
       </c>
@@ -28369,7 +28372,7 @@
       <c r="B42" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="130"/>
+      <c r="C42" s="128"/>
       <c r="D42" s="117" t="s">
         <v>127</v>
       </c>
@@ -28381,7 +28384,7 @@
       <c r="B43" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="128"/>
       <c r="D43" s="117" t="s">
         <v>127</v>
       </c>
@@ -28393,7 +28396,7 @@
       <c r="B44" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C44" s="130"/>
+      <c r="C44" s="128"/>
       <c r="D44" s="117" t="s">
         <v>127</v>
       </c>
@@ -28405,7 +28408,7 @@
       <c r="B45" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="130"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="117" t="s">
         <v>127</v>
       </c>
@@ -28417,7 +28420,7 @@
       <c r="B46" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="130"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="117" t="s">
         <v>127</v>
       </c>
@@ -28429,7 +28432,7 @@
       <c r="B47" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="130"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="117" t="s">
         <v>127</v>
       </c>
@@ -28441,7 +28444,7 @@
       <c r="B48" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C48" s="131"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="117" t="s">
         <v>127</v>
       </c>
@@ -28453,8 +28456,8 @@
       <c r="B49" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="C49" s="129" t="s">
-        <v>956</v>
+      <c r="C49" s="127" t="s">
+        <v>955</v>
       </c>
       <c r="D49" s="117" t="s">
         <v>127</v>
@@ -28467,7 +28470,7 @@
       <c r="B50" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="130"/>
+      <c r="C50" s="128"/>
       <c r="D50" s="117" t="s">
         <v>127</v>
       </c>
@@ -28479,7 +28482,7 @@
       <c r="B51" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="C51" s="131"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="117" t="s">
         <v>127</v>
       </c>
@@ -28491,8 +28494,8 @@
       <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="126" t="s">
-        <v>957</v>
+      <c r="C52" s="124" t="s">
+        <v>956</v>
       </c>
       <c r="D52" s="117" t="s">
         <v>127</v>
@@ -28505,7 +28508,7 @@
       <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="127"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="117" t="s">
         <v>127</v>
       </c>
@@ -28517,7 +28520,7 @@
       <c r="B54" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="127"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="117" t="s">
         <v>127</v>
       </c>
@@ -28527,9 +28530,9 @@
         <v>55</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="C55" s="127"/>
+        <v>876</v>
+      </c>
+      <c r="C55" s="125"/>
       <c r="D55" s="117" t="s">
         <v>127</v>
       </c>
@@ -28541,7 +28544,7 @@
       <c r="B56" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="127"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="117" t="s">
         <v>127</v>
       </c>
@@ -28553,7 +28556,7 @@
       <c r="B57" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="128"/>
+      <c r="C57" s="126"/>
       <c r="D57" s="117" t="s">
         <v>127</v>
       </c>
@@ -28565,8 +28568,8 @@
       <c r="B58" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="132" t="s">
-        <v>958</v>
+      <c r="C58" s="130" t="s">
+        <v>957</v>
       </c>
       <c r="D58" s="117" t="s">
         <v>127</v>
@@ -28579,7 +28582,7 @@
       <c r="B59" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="133"/>
+      <c r="C59" s="131"/>
       <c r="D59" s="117" t="s">
         <v>127</v>
       </c>
@@ -28591,7 +28594,7 @@
       <c r="B60" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C60" s="133"/>
+      <c r="C60" s="131"/>
       <c r="D60" s="117" t="s">
         <v>127</v>
       </c>
@@ -28603,7 +28606,7 @@
       <c r="B61" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C61" s="133"/>
+      <c r="C61" s="131"/>
       <c r="D61" s="117" t="s">
         <v>127</v>
       </c>
@@ -28615,7 +28618,7 @@
       <c r="B62" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C62" s="133"/>
+      <c r="C62" s="131"/>
       <c r="D62" s="117" t="s">
         <v>127</v>
       </c>
@@ -28627,7 +28630,7 @@
       <c r="B63" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="C63" s="133"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="117" t="s">
         <v>127</v>
       </c>
@@ -28639,7 +28642,7 @@
       <c r="B64" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C64" s="133"/>
+      <c r="C64" s="131"/>
       <c r="D64" s="117" t="s">
         <v>127</v>
       </c>
@@ -28651,20 +28654,20 @@
       <c r="B65" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C65" s="134"/>
+      <c r="C65" s="132"/>
       <c r="D65" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="C66" s="124" t="s">
-        <v>882</v>
+        <v>892</v>
+      </c>
+      <c r="C66" s="133" t="s">
+        <v>881</v>
       </c>
       <c r="D66" s="117" t="s">
         <v>127</v>
@@ -28672,12 +28675,12 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>894</v>
-      </c>
-      <c r="C67" s="124"/>
+        <v>893</v>
+      </c>
+      <c r="C67" s="133"/>
       <c r="D67" s="117" t="s">
         <v>127</v>
       </c>
@@ -28689,8 +28692,8 @@
       <c r="B68" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="C68" s="120" t="s">
-        <v>881</v>
+      <c r="C68" s="122" t="s">
+        <v>880</v>
       </c>
       <c r="D68" s="117" t="s">
         <v>127</v>
@@ -28703,7 +28706,7 @@
       <c r="B69" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="C69" s="120"/>
+      <c r="C69" s="122"/>
       <c r="D69" s="117" t="s">
         <v>127</v>
       </c>
@@ -28715,7 +28718,7 @@
       <c r="B70" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="C70" s="120"/>
+      <c r="C70" s="122"/>
       <c r="D70" s="117" t="s">
         <v>127</v>
       </c>
@@ -28727,8 +28730,8 @@
       <c r="B71" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="C71" s="120" t="s">
-        <v>880</v>
+      <c r="C71" s="122" t="s">
+        <v>879</v>
       </c>
       <c r="D71" s="117" t="s">
         <v>127</v>
@@ -28741,7 +28744,7 @@
       <c r="B72" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="C72" s="120"/>
+      <c r="C72" s="122"/>
       <c r="D72" s="117" t="s">
         <v>127</v>
       </c>
@@ -28753,7 +28756,7 @@
       <c r="B73" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="C73" s="120"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="117" t="s">
         <v>127</v>
       </c>
@@ -28765,7 +28768,7 @@
       <c r="B74" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="C74" s="120"/>
+      <c r="C74" s="122"/>
       <c r="D74" s="117" t="s">
         <v>127</v>
       </c>
@@ -28777,7 +28780,7 @@
       <c r="B75" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="C75" s="120"/>
+      <c r="C75" s="122"/>
       <c r="D75" s="117" t="s">
         <v>127</v>
       </c>
@@ -28790,7 +28793,7 @@
         <v>578</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D76" s="117" t="s">
         <v>127</v>
@@ -28803,8 +28806,8 @@
       <c r="B77" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="124" t="s">
-        <v>884</v>
+      <c r="C77" s="133" t="s">
+        <v>883</v>
       </c>
       <c r="D77" s="117" t="s">
         <v>127</v>
@@ -28817,7 +28820,7 @@
       <c r="B78" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="124"/>
+      <c r="C78" s="133"/>
       <c r="D78" s="117" t="s">
         <v>127</v>
       </c>
@@ -28830,7 +28833,7 @@
         <v>593</v>
       </c>
       <c r="C79" s="119" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D79" s="117" t="s">
         <v>127</v>
@@ -28843,8 +28846,8 @@
       <c r="B80" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C80" s="124" t="s">
-        <v>886</v>
+      <c r="C80" s="133" t="s">
+        <v>885</v>
       </c>
       <c r="D80" s="117" t="s">
         <v>127</v>
@@ -28857,7 +28860,7 @@
       <c r="B81" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="C81" s="124"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="117" t="s">
         <v>127</v>
       </c>
@@ -28869,20 +28872,20 @@
       <c r="B82" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="C82" s="124"/>
+      <c r="C82" s="133"/>
       <c r="D82" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="B83" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>738</v>
-      </c>
-      <c r="C83" s="124" t="s">
-        <v>887</v>
+      <c r="C83" s="133" t="s">
+        <v>886</v>
       </c>
       <c r="D83" s="117" t="s">
         <v>127</v>
@@ -28890,61 +28893,61 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="B84" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="C84" s="124"/>
+      <c r="C84" s="133"/>
       <c r="D84" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="B85" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="B85" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="C85" s="124"/>
+      <c r="C85" s="133"/>
       <c r="D85" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="B86" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="C86" s="124"/>
+      <c r="C86" s="133"/>
       <c r="D86" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="B87" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="B87" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="C87" s="124"/>
+      <c r="C87" s="133"/>
       <c r="D87" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="88" t="s">
+        <v>719</v>
+      </c>
+      <c r="B88" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="B88" s="25" t="s">
-        <v>721</v>
-      </c>
-      <c r="C88" s="124" t="s">
-        <v>888</v>
+      <c r="C88" s="133" t="s">
+        <v>887</v>
       </c>
       <c r="D88" s="117" t="s">
         <v>127</v>
@@ -28952,25 +28955,25 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="B89" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>723</v>
-      </c>
-      <c r="C89" s="124"/>
+      <c r="C89" s="133"/>
       <c r="D89" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="B90" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="B90" s="25" t="s">
-        <v>661</v>
-      </c>
-      <c r="C90" s="120" t="s">
-        <v>889</v>
+      <c r="C90" s="122" t="s">
+        <v>888</v>
       </c>
       <c r="D90" s="117" t="s">
         <v>127</v>
@@ -28978,49 +28981,49 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="B91" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="B91" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="C91" s="120"/>
+      <c r="C91" s="122"/>
       <c r="D91" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="B92" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="B92" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C92" s="120"/>
+      <c r="C92" s="122"/>
       <c r="D92" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="B93" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="B93" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="C93" s="120"/>
+      <c r="C93" s="122"/>
       <c r="D93" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="B94" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="B94" s="25" t="s">
-        <v>630</v>
-      </c>
       <c r="C94" s="118" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D94" s="117" t="s">
         <v>127</v>
@@ -29033,8 +29036,8 @@
       <c r="B95" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C95" s="120" t="s">
-        <v>905</v>
+      <c r="C95" s="122" t="s">
+        <v>904</v>
       </c>
       <c r="D95" s="117" t="s">
         <v>127</v>
@@ -29042,73 +29045,73 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="46" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>900</v>
-      </c>
-      <c r="C96" s="120"/>
+        <v>899</v>
+      </c>
+      <c r="C96" s="122"/>
       <c r="D96" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>901</v>
-      </c>
-      <c r="C97" s="120"/>
+        <v>900</v>
+      </c>
+      <c r="C97" s="122"/>
       <c r="D97" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="46" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>902</v>
-      </c>
-      <c r="C98" s="120"/>
+        <v>901</v>
+      </c>
+      <c r="C98" s="122"/>
       <c r="D98" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>903</v>
-      </c>
-      <c r="C99" s="120"/>
+        <v>902</v>
+      </c>
+      <c r="C99" s="122"/>
       <c r="D99" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>904</v>
-      </c>
-      <c r="C100" s="120"/>
+        <v>903</v>
+      </c>
+      <c r="C100" s="122"/>
       <c r="D100" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="95" t="s">
+        <v>752</v>
+      </c>
+      <c r="B101" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="B101" s="25" t="s">
-        <v>754</v>
-      </c>
-      <c r="C101" s="120" t="s">
-        <v>906</v>
+      <c r="C101" s="122" t="s">
+        <v>905</v>
       </c>
       <c r="D101" s="117" t="s">
         <v>127</v>
@@ -29116,212 +29119,212 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="95" t="s">
+        <v>754</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="B102" s="25" t="s">
-        <v>756</v>
-      </c>
-      <c r="C102" s="120"/>
+      <c r="C102" s="122"/>
       <c r="D102" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="95" t="s">
+        <v>756</v>
+      </c>
+      <c r="B103" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="B103" s="25" t="s">
-        <v>758</v>
-      </c>
-      <c r="C103" s="120"/>
+      <c r="C103" s="122"/>
       <c r="D103" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="95" t="s">
+        <v>758</v>
+      </c>
+      <c r="B104" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="B104" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="C104" s="120"/>
+      <c r="C104" s="122"/>
       <c r="D104" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="95" t="s">
+        <v>760</v>
+      </c>
+      <c r="B105" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="B105" s="25" t="s">
-        <v>762</v>
-      </c>
-      <c r="C105" s="120"/>
+      <c r="C105" s="122"/>
       <c r="D105" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="95" t="s">
+        <v>762</v>
+      </c>
+      <c r="B106" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="B106" s="25" t="s">
-        <v>764</v>
-      </c>
-      <c r="C106" s="120"/>
+      <c r="C106" s="122"/>
       <c r="D106" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="95" t="s">
+        <v>713</v>
+      </c>
+      <c r="B107" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="B107" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="C107" s="120" t="s">
-        <v>907</v>
+      <c r="C107" s="122" t="s">
+        <v>906</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="95" t="s">
+        <v>715</v>
+      </c>
+      <c r="B108" s="25" t="s">
         <v>716</v>
       </c>
-      <c r="B108" s="25" t="s">
-        <v>717</v>
-      </c>
-      <c r="C108" s="120"/>
+      <c r="C108" s="122"/>
       <c r="D108" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="95" t="s">
+        <v>717</v>
+      </c>
+      <c r="B109" s="25" t="s">
         <v>718</v>
       </c>
-      <c r="B109" s="25" t="s">
-        <v>719</v>
-      </c>
-      <c r="C109" s="120"/>
+      <c r="C109" s="122"/>
       <c r="D109" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="95" t="s">
+        <v>683</v>
+      </c>
+      <c r="B110" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="B110" s="25" t="s">
-        <v>685</v>
-      </c>
-      <c r="C110" s="120" t="s">
-        <v>908</v>
+      <c r="C110" s="122" t="s">
+        <v>907</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="95" t="s">
+        <v>685</v>
+      </c>
+      <c r="B111" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="B111" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="C111" s="120"/>
+      <c r="C111" s="122"/>
       <c r="D111" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="B112" s="25" t="s">
         <v>688</v>
       </c>
-      <c r="B112" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="C112" s="120"/>
+      <c r="C112" s="122"/>
       <c r="D112" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="95" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>915</v>
-      </c>
-      <c r="C113" s="120" t="s">
-        <v>921</v>
+        <v>914</v>
+      </c>
+      <c r="C113" s="122" t="s">
+        <v>920</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="95" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>916</v>
-      </c>
-      <c r="C114" s="120"/>
+        <v>915</v>
+      </c>
+      <c r="C114" s="122"/>
       <c r="D114" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="95" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>917</v>
-      </c>
-      <c r="C115" s="120"/>
+        <v>916</v>
+      </c>
+      <c r="C115" s="122"/>
       <c r="D115" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="95" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>918</v>
-      </c>
-      <c r="C116" s="120"/>
+        <v>917</v>
+      </c>
+      <c r="C116" s="122"/>
       <c r="D116" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="95" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>919</v>
-      </c>
-      <c r="C117" s="120"/>
+        <v>918</v>
+      </c>
+      <c r="C117" s="122"/>
       <c r="D117" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="95" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>920</v>
-      </c>
-      <c r="C118" s="120"/>
+        <v>919</v>
+      </c>
+      <c r="C118" s="122"/>
       <c r="D118" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -29331,470 +29334,457 @@
       <c r="B119" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C119" s="120" t="s">
-        <v>922</v>
+      <c r="C119" s="122" t="s">
+        <v>921</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="95" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>926</v>
-      </c>
-      <c r="C120" s="120"/>
+        <v>925</v>
+      </c>
+      <c r="C120" s="122"/>
       <c r="D120" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="95" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="C121" s="120"/>
+        <v>926</v>
+      </c>
+      <c r="C121" s="122"/>
       <c r="D121" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>928</v>
-      </c>
-      <c r="C122" s="120"/>
+        <v>927</v>
+      </c>
+      <c r="C122" s="122"/>
       <c r="D122" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="95" t="s">
+        <v>705</v>
+      </c>
+      <c r="B123" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="B123" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="C123" s="120" t="s">
-        <v>929</v>
+      <c r="C123" s="122" t="s">
+        <v>928</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="95" t="s">
+        <v>707</v>
+      </c>
+      <c r="B124" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="B124" s="25" t="s">
-        <v>709</v>
-      </c>
-      <c r="C124" s="120"/>
+      <c r="C124" s="122"/>
       <c r="D124" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="B125" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="B125" s="25" t="s">
-        <v>711</v>
-      </c>
-      <c r="C125" s="120"/>
+      <c r="C125" s="122"/>
       <c r="D125" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="B126" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="B126" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="C126" s="120"/>
+      <c r="C126" s="122"/>
       <c r="D126" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="95" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>800</v>
-      </c>
-      <c r="C127" s="120" t="s">
-        <v>930</v>
+        <v>799</v>
+      </c>
+      <c r="C127" s="122" t="s">
+        <v>929</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="95" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>802</v>
-      </c>
-      <c r="C128" s="120"/>
+        <v>801</v>
+      </c>
+      <c r="C128" s="122"/>
       <c r="D128" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="95" t="s">
+        <v>803</v>
+      </c>
+      <c r="B129" s="25" t="s">
         <v>804</v>
       </c>
-      <c r="B129" s="25" t="s">
-        <v>805</v>
-      </c>
-      <c r="C129" s="120"/>
+      <c r="C129" s="122"/>
       <c r="D129" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>807</v>
-      </c>
-      <c r="C130" s="120"/>
+        <v>806</v>
+      </c>
+      <c r="C130" s="122"/>
       <c r="D130" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="95" t="s">
+        <v>808</v>
+      </c>
+      <c r="B131" s="25" t="s">
         <v>809</v>
       </c>
-      <c r="B131" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="C131" s="120"/>
+      <c r="C131" s="122"/>
       <c r="D131" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="95" t="s">
+        <v>810</v>
+      </c>
+      <c r="B132" s="25" t="s">
         <v>811</v>
       </c>
-      <c r="B132" s="25" t="s">
-        <v>812</v>
-      </c>
-      <c r="C132" s="120"/>
+      <c r="C132" s="122"/>
       <c r="D132" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="95" t="s">
+        <v>813</v>
+      </c>
+      <c r="B133" s="25" t="s">
         <v>814</v>
       </c>
-      <c r="B133" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="C133" s="120" t="s">
-        <v>933</v>
+      <c r="C133" s="122" t="s">
+        <v>932</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="95" t="s">
+        <v>815</v>
+      </c>
+      <c r="B134" s="25" t="s">
         <v>816</v>
       </c>
-      <c r="B134" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="C134" s="120"/>
+      <c r="C134" s="122"/>
       <c r="D134" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="95" t="s">
+        <v>817</v>
+      </c>
+      <c r="B135" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="B135" s="25" t="s">
-        <v>819</v>
-      </c>
-      <c r="C135" s="120"/>
+      <c r="C135" s="122"/>
       <c r="D135" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="95" t="s">
+        <v>819</v>
+      </c>
+      <c r="B136" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="B136" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="C136" s="120"/>
+      <c r="C136" s="122"/>
       <c r="D136" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="B137" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="B137" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="C137" s="120"/>
+      <c r="C137" s="122"/>
       <c r="D137" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="95" t="s">
+        <v>823</v>
+      </c>
+      <c r="B138" s="25" t="s">
         <v>824</v>
       </c>
-      <c r="B138" s="25" t="s">
-        <v>825</v>
-      </c>
-      <c r="C138" s="120"/>
+      <c r="C138" s="122"/>
       <c r="D138" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="95" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>941</v>
-      </c>
-      <c r="C139" s="120" t="s">
-        <v>948</v>
+        <v>940</v>
+      </c>
+      <c r="C139" s="122" t="s">
+        <v>947</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="95" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>942</v>
-      </c>
-      <c r="C140" s="120"/>
+        <v>941</v>
+      </c>
+      <c r="C140" s="122"/>
       <c r="D140" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="95" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>943</v>
-      </c>
-      <c r="C141" s="120"/>
+        <v>942</v>
+      </c>
+      <c r="C141" s="122"/>
       <c r="D141" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="95" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>944</v>
-      </c>
-      <c r="C142" s="120"/>
+        <v>943</v>
+      </c>
+      <c r="C142" s="122"/>
       <c r="D142" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="95" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>945</v>
-      </c>
-      <c r="C143" s="120"/>
+        <v>944</v>
+      </c>
+      <c r="C143" s="122"/>
       <c r="D143" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="95" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>946</v>
-      </c>
-      <c r="C144" s="120"/>
+        <v>945</v>
+      </c>
+      <c r="C144" s="122"/>
       <c r="D144" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="95" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="C145" s="120"/>
+        <v>946</v>
+      </c>
+      <c r="C145" s="122"/>
       <c r="D145" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="95" t="s">
+        <v>768</v>
+      </c>
+      <c r="B146" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="B146" s="25" t="s">
-        <v>770</v>
-      </c>
-      <c r="C146" s="120"/>
+      <c r="C146" s="122"/>
       <c r="D146" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="95" t="s">
+        <v>770</v>
+      </c>
+      <c r="B147" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="B147" s="25" t="s">
-        <v>772</v>
-      </c>
-      <c r="C147" s="120"/>
+      <c r="C147" s="122"/>
       <c r="D147" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="95" t="s">
+        <v>772</v>
+      </c>
+      <c r="B148" s="25" t="s">
         <v>773</v>
       </c>
-      <c r="B148" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="C148" s="120"/>
+      <c r="C148" s="122"/>
       <c r="D148" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="95" t="s">
+        <v>774</v>
+      </c>
+      <c r="B149" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="B149" s="25" t="s">
-        <v>776</v>
-      </c>
-      <c r="C149" s="120"/>
+      <c r="C149" s="122"/>
       <c r="D149" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="95" t="s">
+        <v>776</v>
+      </c>
+      <c r="B150" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="B150" s="25" t="s">
-        <v>778</v>
-      </c>
-      <c r="C150" s="120"/>
+      <c r="C150" s="122"/>
       <c r="D150" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="95" t="s">
+        <v>778</v>
+      </c>
+      <c r="B151" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="B151" s="25" t="s">
-        <v>780</v>
-      </c>
-      <c r="C151" s="120"/>
+      <c r="C151" s="122"/>
       <c r="D151" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="95" t="s">
+        <v>780</v>
+      </c>
+      <c r="B152" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="B152" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="C152" s="120"/>
+      <c r="C152" s="122"/>
       <c r="D152" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="77" t="s">
+        <v>834</v>
+      </c>
+      <c r="B153" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="B153" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C153" s="120" t="s">
-        <v>949</v>
+      <c r="C153" s="122" t="s">
+        <v>948</v>
       </c>
       <c r="D153" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="77" t="s">
+        <v>838</v>
+      </c>
+      <c r="B154" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="B154" s="25" t="s">
-        <v>840</v>
-      </c>
-      <c r="C154" s="120"/>
+      <c r="C154" s="122"/>
       <c r="D154" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="77" t="s">
+        <v>840</v>
+      </c>
+      <c r="B155" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="B155" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C155" s="120"/>
+      <c r="C155" s="122"/>
       <c r="D155" s="117" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C75"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C119:C122"/>
@@ -29811,6 +29801,19 @@
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C87"/>
     <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C75"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1048576 C1:C2 C12:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
+++ b/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="981">
   <si>
     <t>UserName</t>
   </si>
@@ -2984,19 +2984,16 @@
     <t>No</t>
   </si>
   <si>
-    <t>3082</t>
-  </si>
-  <si>
     <t>UserReturn</t>
   </si>
   <si>
-    <t>0345</t>
-  </si>
-  <si>
     <t>01069</t>
   </si>
   <si>
     <t>0362</t>
+  </si>
+  <si>
+    <t>0365</t>
   </si>
 </sst>
 </file>
@@ -3761,6 +3758,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3789,18 +3798,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4159,16 +4156,16 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.49609375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" style="3" width="9.109375" collapsed="false"/>
-    <col min="5" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="5" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4184,10 +4181,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="120" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C2" s="121" t="s">
         <v>6</v>
@@ -4287,7 +4284,7 @@
         <v>625</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -4353,7 +4350,7 @@
         <v>850</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>6</v>
@@ -4391,34 +4388,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="17.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="20.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="23.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="27.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="26.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="18.6640625" collapsed="true"/>
-    <col min="12" max="12" style="3" width="9.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="29.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="14.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="20.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="30.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="21.88671875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="41.5546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="24.44140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="29.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="24.109375" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="3" width="26.88671875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="26.44140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="22.5546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="17.88671875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="16.109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="20.44140625" collapsed="true"/>
-    <col min="30" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="17.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.109375" style="3" collapsed="1"/>
+    <col min="13" max="13" width="29.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="26.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4820,9 +4817,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.88671875" collapsed="false"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="42" thickBot="1">
@@ -5189,12 +5186,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="25.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="31.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="34.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="29.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.88671875" collapsed="false"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6267,11 +6264,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6349,19 +6346,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="9.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="12.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="14.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="3" width="16.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6590,16 +6587,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="18.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="18.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="20.88671875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -6833,13 +6830,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="24.5546875" collapsed="true"/>
-    <col min="3" max="34" customWidth="true" style="3" width="33.88671875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="3" width="26.33203125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="3" width="30.44140625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="3" width="22.6640625" collapsed="true"/>
-    <col min="38" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="34" width="33.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="30.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="22.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -7112,17 +7109,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" width="20.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="27.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="22.109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="9.109375" collapsed="false"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -7230,16 +7227,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="25.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="29.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7373,20 +7370,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="18.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="23.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="9.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="24.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="23.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.6640625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="3" width="14.88671875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="3" width="26.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="13.5546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="3" width="19.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="3" width="24.6640625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="3" width="20.5546875" collapsed="false"/>
-    <col min="14" max="16384" style="3" width="8.88671875" collapsed="false"/>
+    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="94" customFormat="1">
@@ -7572,21 +7569,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -7796,7 +7793,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
@@ -7804,35 +7801,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="18.88671875" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="92" width="27.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="92" width="22.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="92" width="21.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="92" width="34.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="92" width="24.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="92" width="26.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="92" width="28.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="92" width="28.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="92" width="19.88671875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="92" width="9.6640625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="92" width="31.44140625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="92" width="15.6640625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="92" width="20.5546875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="92" width="22.109375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="92" width="32.6640625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="92" width="23.33203125" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="92" width="44.33203125" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="92" width="26.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="92" width="31.44140625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="92" width="25.6640625" collapsed="false"/>
-    <col min="23" max="24" customWidth="true" style="92" width="28.5546875" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" style="92" width="28.109375" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" style="92" width="24.0" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" style="92" width="19.0" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" style="92" width="17.109375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" style="92" width="21.6640625" collapsed="false"/>
-    <col min="30" max="1024" customWidth="true" style="87" width="9.6640625" collapsed="false"/>
-    <col min="1025" max="16384" style="74" width="20.6640625" collapsed="false"/>
+    <col min="1" max="1" width="18.88671875" style="92" customWidth="1"/>
+    <col min="2" max="3" width="27.6640625" style="92" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="92" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="92" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" style="92" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="92" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="92" customWidth="1"/>
+    <col min="10" max="10" width="28" style="92" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="92" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="92" customWidth="1"/>
+    <col min="13" max="13" width="31.44140625" style="92" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="92" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" style="92" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" style="92" customWidth="1"/>
+    <col min="17" max="17" width="32.6640625" style="92" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" style="92" customWidth="1"/>
+    <col min="19" max="19" width="44.33203125" style="92" customWidth="1"/>
+    <col min="20" max="20" width="26" style="92" customWidth="1"/>
+    <col min="21" max="21" width="31.44140625" style="92" customWidth="1"/>
+    <col min="22" max="22" width="25.6640625" style="92" customWidth="1"/>
+    <col min="23" max="24" width="28.5546875" style="92" customWidth="1"/>
+    <col min="25" max="25" width="28.109375" style="92" customWidth="1"/>
+    <col min="26" max="26" width="24" style="92" customWidth="1"/>
+    <col min="27" max="27" width="19" style="92" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" style="92" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" style="92" customWidth="1"/>
+    <col min="30" max="1024" width="9.6640625" style="87" customWidth="1"/>
+    <col min="1025" max="16384" width="20.6640625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8206,31 +8203,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.88671875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="27.109375" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.6640625" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5546875" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.109375" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.88671875" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.44140625" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.33203125" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="11" customFormat="1">
@@ -24941,7 +24938,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
@@ -24949,13 +24946,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="73" width="20.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="73" width="20.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="73" width="20.6640625" collapsed="false"/>
-    <col min="4" max="10" customWidth="true" style="73" width="9.109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="73" width="15.109375" collapsed="false"/>
-    <col min="12" max="1024" customWidth="true" style="72" width="9.109375" collapsed="false"/>
-    <col min="1025" max="16384" style="74" width="20.5546875" collapsed="false"/>
+    <col min="1" max="1" width="20.109375" style="73" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="73" customWidth="1"/>
+    <col min="4" max="10" width="9.109375" style="73" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="73" customWidth="1"/>
+    <col min="12" max="1024" width="9.109375" style="72" customWidth="1"/>
+    <col min="1025" max="16384" width="20.5546875" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -25121,9 +25118,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="21.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25210,7 +25207,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
@@ -25218,10 +25215,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="81" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="81" width="19.0" collapsed="false"/>
-    <col min="3" max="1024" customWidth="true" style="81" width="16.0" collapsed="false"/>
-    <col min="1025" max="16384" style="85" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="16" style="81" customWidth="1"/>
+    <col min="2" max="2" width="19" style="81" customWidth="1"/>
+    <col min="3" max="1024" width="16" style="81" customWidth="1"/>
+    <col min="1025" max="16384" width="10.33203125" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25285,9 +25282,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="false"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25349,9 +25346,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="false"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25425,20 +25422,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="14.44140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="23.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="13.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="17.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="18.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="16.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="11.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="3" width="10.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="12.6640625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="3" width="12.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="3" width="17.6640625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="3" width="18.109375" collapsed="false"/>
-    <col min="14" max="16384" style="3" width="8.88671875" collapsed="false"/>
+    <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -25645,9 +25642,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25742,11 +25739,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.33203125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="101" customFormat="1">
@@ -25901,38 +25898,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="35.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="30.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="25.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="30.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="40.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="27.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="32.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="43.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="32.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="30.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="32.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="21.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="39.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="40.88671875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="31.109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="31.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="15.109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="16.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="20.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="31.44140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="26.6640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="19.5546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="3" width="26.44140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="3" width="17.5546875" collapsed="true"/>
-    <col min="32" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="43.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="39.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="31.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="26.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26226,7 +26223,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
@@ -26234,10 +26231,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="18.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="72" width="43.6640625" collapsed="false"/>
-    <col min="3" max="1024" customWidth="true" style="72" width="12.109375" collapsed="false"/>
-    <col min="1025" max="16384" style="74" width="43.6640625" collapsed="false"/>
+    <col min="1" max="1" width="18.109375" style="72" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="72" customWidth="1"/>
+    <col min="3" max="1024" width="12.109375" style="72" customWidth="1"/>
+    <col min="1025" max="16384" width="43.6640625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4">
@@ -26425,14 +26422,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -26509,8 +26506,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26550,10 +26547,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26599,28 +26596,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="10.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="23.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="26.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="27.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="29.44140625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="108" width="14.44140625" collapsed="false"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="94" customFormat="1">
@@ -26913,7 +26910,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -26921,10 +26918,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="81" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="81" width="22.6640625" collapsed="false"/>
-    <col min="3" max="1024" customWidth="true" style="81" width="16.0" collapsed="false"/>
-    <col min="1025" max="16384" style="82" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="16" style="81" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="81" customWidth="1"/>
+    <col min="3" max="1024" width="16" style="81" customWidth="1"/>
+    <col min="1025" max="16384" width="10.33203125" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -27021,31 +27018,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="52.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="36.109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="30.109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="36.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="37.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="22.44140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="30.6640625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="41.5546875" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="25.109375" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="29.88671875" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="16.88671875" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="23.6640625" collapsed="false"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.44140625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.5546875" customWidth="1"/>
+    <col min="18" max="18" width="25.109375" customWidth="1"/>
+    <col min="19" max="19" width="29.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="20" customWidth="1"/>
+    <col min="24" max="24" width="17.109375" customWidth="1"/>
+    <col min="25" max="25" width="21" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -27226,14 +27223,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="42.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -27828,15 +27825,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="42.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="42.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -27875,7 +27872,7 @@
       <c r="B2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="123" t="s">
         <v>877</v>
       </c>
       <c r="D2" s="117" t="s">
@@ -27889,7 +27886,7 @@
       <c r="B3" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="117" t="s">
         <v>127</v>
       </c>
@@ -27901,7 +27898,7 @@
       <c r="B4" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="117" t="s">
         <v>127</v>
       </c>
@@ -27913,7 +27910,7 @@
       <c r="B5" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="124"/>
       <c r="D5" s="117" t="s">
         <v>127</v>
       </c>
@@ -27925,7 +27922,7 @@
       <c r="B6" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="117" t="s">
         <v>127</v>
       </c>
@@ -27937,7 +27934,7 @@
       <c r="B7" s="25" t="s">
         <v>965</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="117" t="s">
         <v>127</v>
       </c>
@@ -27949,7 +27946,7 @@
       <c r="B8" s="25" t="s">
         <v>966</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="117" t="s">
         <v>127</v>
       </c>
@@ -27961,7 +27958,7 @@
       <c r="B9" s="25" t="s">
         <v>967</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="117" t="s">
         <v>127</v>
       </c>
@@ -27973,7 +27970,7 @@
       <c r="B10" s="25" t="s">
         <v>968</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="117" t="s">
         <v>127</v>
       </c>
@@ -27985,7 +27982,7 @@
       <c r="B11" s="25" t="s">
         <v>969</v>
       </c>
-      <c r="C11" s="136"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="117" t="s">
         <v>127</v>
       </c>
@@ -27997,7 +27994,7 @@
       <c r="B12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="127" t="s">
         <v>949</v>
       </c>
       <c r="D12" s="117" t="s">
@@ -28011,7 +28008,7 @@
       <c r="B13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="117" t="s">
         <v>127</v>
       </c>
@@ -28023,7 +28020,7 @@
       <c r="B14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="123"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="117" t="s">
         <v>127</v>
       </c>
@@ -28035,7 +28032,7 @@
       <c r="B15" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="128" t="s">
         <v>950</v>
       </c>
       <c r="D15" s="117" t="s">
@@ -28049,7 +28046,7 @@
       <c r="B16" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="117" t="s">
         <v>127</v>
       </c>
@@ -28061,7 +28058,7 @@
       <c r="B17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="125"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="117" t="s">
         <v>127</v>
       </c>
@@ -28073,7 +28070,7 @@
       <c r="B18" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="125"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="117" t="s">
         <v>127</v>
       </c>
@@ -28085,7 +28082,7 @@
       <c r="B19" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="126"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
       </c>
@@ -28100,7 +28097,7 @@
       <c r="B20" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="128" t="s">
         <v>951</v>
       </c>
       <c r="D20" s="117" t="s">
@@ -28114,7 +28111,7 @@
       <c r="B21" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="125"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="117" t="s">
         <v>127</v>
       </c>
@@ -28126,7 +28123,7 @@
       <c r="B22" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="125"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="117" t="s">
         <v>127</v>
       </c>
@@ -28138,7 +28135,7 @@
       <c r="B23" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="125"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="117" t="s">
         <v>127</v>
       </c>
@@ -28150,7 +28147,7 @@
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="125"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="117" t="s">
         <v>127</v>
       </c>
@@ -28162,7 +28159,7 @@
       <c r="B25" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="126"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="117" t="s">
         <v>127</v>
       </c>
@@ -28174,7 +28171,7 @@
       <c r="B26" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="128" t="s">
         <v>952</v>
       </c>
       <c r="D26" s="117" t="s">
@@ -28188,7 +28185,7 @@
       <c r="B27" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="117" t="s">
         <v>127</v>
       </c>
@@ -28200,7 +28197,7 @@
       <c r="B28" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="125"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="117" t="s">
         <v>127</v>
       </c>
@@ -28212,7 +28209,7 @@
       <c r="B29" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="125"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="117" t="s">
         <v>127</v>
       </c>
@@ -28224,7 +28221,7 @@
       <c r="B30" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="125"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="117" t="s">
         <v>127</v>
       </c>
@@ -28236,7 +28233,7 @@
       <c r="B31" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="126"/>
+      <c r="C31" s="130"/>
       <c r="D31" s="117" t="s">
         <v>127</v>
       </c>
@@ -28248,7 +28245,7 @@
       <c r="B32" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="128" t="s">
         <v>953</v>
       </c>
       <c r="D32" s="117" t="s">
@@ -28262,7 +28259,7 @@
       <c r="B33" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="125"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="117" t="s">
         <v>127</v>
       </c>
@@ -28274,7 +28271,7 @@
       <c r="B34" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="125"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="117" t="s">
         <v>127</v>
       </c>
@@ -28286,7 +28283,7 @@
       <c r="B35" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="125"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="117" t="s">
         <v>127</v>
       </c>
@@ -28298,7 +28295,7 @@
       <c r="B36" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="126"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="117" t="s">
         <v>127</v>
       </c>
@@ -28310,7 +28307,7 @@
       <c r="B37" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="131" t="s">
         <v>954</v>
       </c>
       <c r="D37" s="117" t="s">
@@ -28324,7 +28321,7 @@
       <c r="B38" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="128"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="117" t="s">
         <v>127</v>
       </c>
@@ -28336,7 +28333,7 @@
       <c r="B39" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="128"/>
+      <c r="C39" s="132"/>
       <c r="D39" s="117" t="s">
         <v>127</v>
       </c>
@@ -28348,7 +28345,7 @@
       <c r="B40" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="128"/>
+      <c r="C40" s="132"/>
       <c r="D40" s="117" t="s">
         <v>127</v>
       </c>
@@ -28360,7 +28357,7 @@
       <c r="B41" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C41" s="128"/>
+      <c r="C41" s="132"/>
       <c r="D41" s="117" t="s">
         <v>127</v>
       </c>
@@ -28372,7 +28369,7 @@
       <c r="B42" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="128"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="117" t="s">
         <v>127</v>
       </c>
@@ -28384,7 +28381,7 @@
       <c r="B43" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C43" s="128"/>
+      <c r="C43" s="132"/>
       <c r="D43" s="117" t="s">
         <v>127</v>
       </c>
@@ -28396,7 +28393,7 @@
       <c r="B44" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C44" s="128"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="117" t="s">
         <v>127</v>
       </c>
@@ -28408,7 +28405,7 @@
       <c r="B45" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="128"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="117" t="s">
         <v>127</v>
       </c>
@@ -28420,7 +28417,7 @@
       <c r="B46" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="128"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="117" t="s">
         <v>127</v>
       </c>
@@ -28432,7 +28429,7 @@
       <c r="B47" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="128"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="117" t="s">
         <v>127</v>
       </c>
@@ -28444,7 +28441,7 @@
       <c r="B48" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C48" s="129"/>
+      <c r="C48" s="133"/>
       <c r="D48" s="117" t="s">
         <v>127</v>
       </c>
@@ -28456,7 +28453,7 @@
       <c r="B49" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="C49" s="127" t="s">
+      <c r="C49" s="131" t="s">
         <v>955</v>
       </c>
       <c r="D49" s="117" t="s">
@@ -28470,7 +28467,7 @@
       <c r="B50" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="128"/>
+      <c r="C50" s="132"/>
       <c r="D50" s="117" t="s">
         <v>127</v>
       </c>
@@ -28482,7 +28479,7 @@
       <c r="B51" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="C51" s="129"/>
+      <c r="C51" s="133"/>
       <c r="D51" s="117" t="s">
         <v>127</v>
       </c>
@@ -28494,7 +28491,7 @@
       <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="124" t="s">
+      <c r="C52" s="128" t="s">
         <v>956</v>
       </c>
       <c r="D52" s="117" t="s">
@@ -28508,7 +28505,7 @@
       <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="125"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="117" t="s">
         <v>127</v>
       </c>
@@ -28520,7 +28517,7 @@
       <c r="B54" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="125"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="117" t="s">
         <v>127</v>
       </c>
@@ -28532,7 +28529,7 @@
       <c r="B55" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="C55" s="125"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="117" t="s">
         <v>127</v>
       </c>
@@ -28544,7 +28541,7 @@
       <c r="B56" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="125"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="117" t="s">
         <v>127</v>
       </c>
@@ -28556,7 +28553,7 @@
       <c r="B57" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="126"/>
+      <c r="C57" s="130"/>
       <c r="D57" s="117" t="s">
         <v>127</v>
       </c>
@@ -28568,7 +28565,7 @@
       <c r="B58" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="134" t="s">
         <v>957</v>
       </c>
       <c r="D58" s="117" t="s">
@@ -28582,7 +28579,7 @@
       <c r="B59" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="131"/>
+      <c r="C59" s="135"/>
       <c r="D59" s="117" t="s">
         <v>127</v>
       </c>
@@ -28594,7 +28591,7 @@
       <c r="B60" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C60" s="131"/>
+      <c r="C60" s="135"/>
       <c r="D60" s="117" t="s">
         <v>127</v>
       </c>
@@ -28606,7 +28603,7 @@
       <c r="B61" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C61" s="131"/>
+      <c r="C61" s="135"/>
       <c r="D61" s="117" t="s">
         <v>127</v>
       </c>
@@ -28618,7 +28615,7 @@
       <c r="B62" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C62" s="131"/>
+      <c r="C62" s="135"/>
       <c r="D62" s="117" t="s">
         <v>127</v>
       </c>
@@ -28630,7 +28627,7 @@
       <c r="B63" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="C63" s="131"/>
+      <c r="C63" s="135"/>
       <c r="D63" s="117" t="s">
         <v>127</v>
       </c>
@@ -28642,7 +28639,7 @@
       <c r="B64" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C64" s="131"/>
+      <c r="C64" s="135"/>
       <c r="D64" s="117" t="s">
         <v>127</v>
       </c>
@@ -28654,7 +28651,7 @@
       <c r="B65" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C65" s="132"/>
+      <c r="C65" s="136"/>
       <c r="D65" s="117" t="s">
         <v>127</v>
       </c>
@@ -28666,7 +28663,7 @@
       <c r="B66" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="C66" s="133" t="s">
+      <c r="C66" s="126" t="s">
         <v>881</v>
       </c>
       <c r="D66" s="117" t="s">
@@ -28680,7 +28677,7 @@
       <c r="B67" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="C67" s="133"/>
+      <c r="C67" s="126"/>
       <c r="D67" s="117" t="s">
         <v>127</v>
       </c>
@@ -28806,7 +28803,7 @@
       <c r="B77" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="133" t="s">
+      <c r="C77" s="126" t="s">
         <v>883</v>
       </c>
       <c r="D77" s="117" t="s">
@@ -28820,7 +28817,7 @@
       <c r="B78" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="133"/>
+      <c r="C78" s="126"/>
       <c r="D78" s="117" t="s">
         <v>127</v>
       </c>
@@ -28846,7 +28843,7 @@
       <c r="B80" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C80" s="133" t="s">
+      <c r="C80" s="126" t="s">
         <v>885</v>
       </c>
       <c r="D80" s="117" t="s">
@@ -28860,7 +28857,7 @@
       <c r="B81" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="C81" s="133"/>
+      <c r="C81" s="126"/>
       <c r="D81" s="117" t="s">
         <v>127</v>
       </c>
@@ -28872,7 +28869,7 @@
       <c r="B82" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="C82" s="133"/>
+      <c r="C82" s="126"/>
       <c r="D82" s="117" t="s">
         <v>127</v>
       </c>
@@ -28884,7 +28881,7 @@
       <c r="B83" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="C83" s="133" t="s">
+      <c r="C83" s="126" t="s">
         <v>886</v>
       </c>
       <c r="D83" s="117" t="s">
@@ -28898,7 +28895,7 @@
       <c r="B84" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="C84" s="133"/>
+      <c r="C84" s="126"/>
       <c r="D84" s="117" t="s">
         <v>127</v>
       </c>
@@ -28910,7 +28907,7 @@
       <c r="B85" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="C85" s="133"/>
+      <c r="C85" s="126"/>
       <c r="D85" s="117" t="s">
         <v>127</v>
       </c>
@@ -28922,7 +28919,7 @@
       <c r="B86" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="C86" s="133"/>
+      <c r="C86" s="126"/>
       <c r="D86" s="117" t="s">
         <v>127</v>
       </c>
@@ -28934,7 +28931,7 @@
       <c r="B87" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="C87" s="133"/>
+      <c r="C87" s="126"/>
       <c r="D87" s="117" t="s">
         <v>127</v>
       </c>
@@ -28946,7 +28943,7 @@
       <c r="B88" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="C88" s="133" t="s">
+      <c r="C88" s="126" t="s">
         <v>887</v>
       </c>
       <c r="D88" s="117" t="s">
@@ -28960,7 +28957,7 @@
       <c r="B89" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="C89" s="133"/>
+      <c r="C89" s="126"/>
       <c r="D89" s="117" t="s">
         <v>127</v>
       </c>
@@ -29785,6 +29782,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C75"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C119:C122"/>
@@ -29801,19 +29811,6 @@
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C87"/>
     <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C75"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1048576 C1:C2 C12:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
@@ -29840,35 +29837,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="24.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="37.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="18.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="21.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="30.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="31.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="29.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="21.109375" collapsed="true"/>
-    <col min="14" max="15" style="3" width="9.109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="17.44140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="26.88671875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="16.5546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="13.5546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="22.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="21.33203125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="43.33203125" collapsed="true"/>
-    <col min="24" max="24" style="3" width="9.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="18.109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="23.44140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="23.88671875" collapsed="true"/>
-    <col min="30" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="24.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9.109375" style="3" collapsed="1"/>
+    <col min="16" max="16" width="17.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="43.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.109375" style="3" collapsed="1"/>
+    <col min="25" max="25" width="18.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -30232,18 +30229,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="30.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="26.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="24.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="29.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="36.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="22.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="19.109375" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -30436,31 +30433,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -30857,21 +30854,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="25.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="31.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="29.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="24.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="20.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="26.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="15.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="22.88671875" collapsed="true"/>
-    <col min="15" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -31090,29 +31087,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="29.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="57.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="32.109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="28.88671875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="26.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="29.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="34.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="32.88671875" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="27.109375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="32.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" customWidth="1"/>
+    <col min="21" max="21" width="27.109375" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="17.44140625" customWidth="1"/>
+    <col min="24" max="24" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -32003,24 +32000,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="16.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="10.5546875" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
+++ b/ULS_Ijarah_MainRepository/TestData/IjarahTestData.xlsx
@@ -2987,13 +2987,13 @@
     <t>UserReturn</t>
   </si>
   <si>
-    <t>01069</t>
-  </si>
-  <si>
     <t>0362</t>
   </si>
   <si>
     <t>0365</t>
+  </si>
+  <si>
+    <t>0371</t>
   </si>
 </sst>
 </file>
@@ -3758,18 +3758,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3798,6 +3786,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4156,7 +4156,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4184,7 +4184,7 @@
         <v>977</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C2" s="121" t="s">
         <v>6</v>
@@ -4284,7 +4284,7 @@
         <v>625</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -4350,7 +4350,7 @@
         <v>850</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>6</v>
@@ -27872,7 +27872,7 @@
       <c r="B2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="134" t="s">
         <v>877</v>
       </c>
       <c r="D2" s="117" t="s">
@@ -27886,7 +27886,7 @@
       <c r="B3" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="124"/>
+      <c r="C3" s="135"/>
       <c r="D3" s="117" t="s">
         <v>127</v>
       </c>
@@ -27898,7 +27898,7 @@
       <c r="B4" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="117" t="s">
         <v>127</v>
       </c>
@@ -27910,7 +27910,7 @@
       <c r="B5" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="124"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="117" t="s">
         <v>127</v>
       </c>
@@ -27922,7 +27922,7 @@
       <c r="B6" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="C6" s="124"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="117" t="s">
         <v>127</v>
       </c>
@@ -27934,7 +27934,7 @@
       <c r="B7" s="25" t="s">
         <v>965</v>
       </c>
-      <c r="C7" s="124"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="117" t="s">
         <v>127</v>
       </c>
@@ -27946,7 +27946,7 @@
       <c r="B8" s="25" t="s">
         <v>966</v>
       </c>
-      <c r="C8" s="124"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="117" t="s">
         <v>127</v>
       </c>
@@ -27958,7 +27958,7 @@
       <c r="B9" s="25" t="s">
         <v>967</v>
       </c>
-      <c r="C9" s="124"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="117" t="s">
         <v>127</v>
       </c>
@@ -27970,7 +27970,7 @@
       <c r="B10" s="25" t="s">
         <v>968</v>
       </c>
-      <c r="C10" s="124"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="117" t="s">
         <v>127</v>
       </c>
@@ -27982,7 +27982,7 @@
       <c r="B11" s="25" t="s">
         <v>969</v>
       </c>
-      <c r="C11" s="125"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="117" t="s">
         <v>127</v>
       </c>
@@ -27994,7 +27994,7 @@
       <c r="B12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="123" t="s">
         <v>949</v>
       </c>
       <c r="D12" s="117" t="s">
@@ -28008,7 +28008,7 @@
       <c r="B13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="127"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="117" t="s">
         <v>127</v>
       </c>
@@ -28020,7 +28020,7 @@
       <c r="B14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="127"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="117" t="s">
         <v>127</v>
       </c>
@@ -28032,7 +28032,7 @@
       <c r="B15" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="124" t="s">
         <v>950</v>
       </c>
       <c r="D15" s="117" t="s">
@@ -28046,7 +28046,7 @@
       <c r="B16" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="117" t="s">
         <v>127</v>
       </c>
@@ -28058,7 +28058,7 @@
       <c r="B17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="117" t="s">
         <v>127</v>
       </c>
@@ -28070,7 +28070,7 @@
       <c r="B18" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="117" t="s">
         <v>127</v>
       </c>
@@ -28082,7 +28082,7 @@
       <c r="B19" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="130"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
       </c>
@@ -28097,7 +28097,7 @@
       <c r="B20" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="124" t="s">
         <v>951</v>
       </c>
       <c r="D20" s="117" t="s">
@@ -28111,7 +28111,7 @@
       <c r="B21" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="129"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="117" t="s">
         <v>127</v>
       </c>
@@ -28123,7 +28123,7 @@
       <c r="B22" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="129"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="117" t="s">
         <v>127</v>
       </c>
@@ -28135,7 +28135,7 @@
       <c r="B23" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="129"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="117" t="s">
         <v>127</v>
       </c>
@@ -28147,7 +28147,7 @@
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="117" t="s">
         <v>127</v>
       </c>
@@ -28159,7 +28159,7 @@
       <c r="B25" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="130"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="117" t="s">
         <v>127</v>
       </c>
@@ -28171,7 +28171,7 @@
       <c r="B26" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="124" t="s">
         <v>952</v>
       </c>
       <c r="D26" s="117" t="s">
@@ -28185,7 +28185,7 @@
       <c r="B27" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="129"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="117" t="s">
         <v>127</v>
       </c>
@@ -28197,7 +28197,7 @@
       <c r="B28" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="117" t="s">
         <v>127</v>
       </c>
@@ -28209,7 +28209,7 @@
       <c r="B29" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="117" t="s">
         <v>127</v>
       </c>
@@ -28221,7 +28221,7 @@
       <c r="B30" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="129"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="117" t="s">
         <v>127</v>
       </c>
@@ -28233,7 +28233,7 @@
       <c r="B31" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="130"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="117" t="s">
         <v>127</v>
       </c>
@@ -28245,7 +28245,7 @@
       <c r="B32" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="124" t="s">
         <v>953</v>
       </c>
       <c r="D32" s="117" t="s">
@@ -28259,7 +28259,7 @@
       <c r="B33" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="129"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="117" t="s">
         <v>127</v>
       </c>
@@ -28271,7 +28271,7 @@
       <c r="B34" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="129"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="117" t="s">
         <v>127</v>
       </c>
@@ -28283,7 +28283,7 @@
       <c r="B35" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="129"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="117" t="s">
         <v>127</v>
       </c>
@@ -28295,7 +28295,7 @@
       <c r="B36" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="130"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="117" t="s">
         <v>127</v>
       </c>
@@ -28307,7 +28307,7 @@
       <c r="B37" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C37" s="131" t="s">
+      <c r="C37" s="127" t="s">
         <v>954</v>
       </c>
       <c r="D37" s="117" t="s">
@@ -28321,7 +28321,7 @@
       <c r="B38" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="132"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="117" t="s">
         <v>127</v>
       </c>
@@ -28333,7 +28333,7 @@
       <c r="B39" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="132"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="117" t="s">
         <v>127</v>
       </c>
@@ -28345,7 +28345,7 @@
       <c r="B40" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="132"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="117" t="s">
         <v>127</v>
       </c>
@@ -28357,7 +28357,7 @@
       <c r="B41" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C41" s="132"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="117" t="s">
         <v>127</v>
       </c>
@@ -28369,7 +28369,7 @@
       <c r="B42" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="128"/>
       <c r="D42" s="117" t="s">
         <v>127</v>
       </c>
@@ -28381,7 +28381,7 @@
       <c r="B43" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="128"/>
       <c r="D43" s="117" t="s">
         <v>127</v>
       </c>
@@ -28393,7 +28393,7 @@
       <c r="B44" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C44" s="132"/>
+      <c r="C44" s="128"/>
       <c r="D44" s="117" t="s">
         <v>127</v>
       </c>
@@ -28405,7 +28405,7 @@
       <c r="B45" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="132"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="117" t="s">
         <v>127</v>
       </c>
@@ -28417,7 +28417,7 @@
       <c r="B46" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="132"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="117" t="s">
         <v>127</v>
       </c>
@@ -28429,7 +28429,7 @@
       <c r="B47" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="132"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="117" t="s">
         <v>127</v>
       </c>
@@ -28441,7 +28441,7 @@
       <c r="B48" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C48" s="133"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="117" t="s">
         <v>127</v>
       </c>
@@ -28453,7 +28453,7 @@
       <c r="B49" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="C49" s="131" t="s">
+      <c r="C49" s="127" t="s">
         <v>955</v>
       </c>
       <c r="D49" s="117" t="s">
@@ -28467,7 +28467,7 @@
       <c r="B50" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="132"/>
+      <c r="C50" s="128"/>
       <c r="D50" s="117" t="s">
         <v>127</v>
       </c>
@@ -28479,7 +28479,7 @@
       <c r="B51" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="C51" s="133"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="117" t="s">
         <v>127</v>
       </c>
@@ -28491,7 +28491,7 @@
       <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="124" t="s">
         <v>956</v>
       </c>
       <c r="D52" s="117" t="s">
@@ -28505,7 +28505,7 @@
       <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="129"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="117" t="s">
         <v>127</v>
       </c>
@@ -28517,7 +28517,7 @@
       <c r="B54" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="129"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="117" t="s">
         <v>127</v>
       </c>
@@ -28529,7 +28529,7 @@
       <c r="B55" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="C55" s="129"/>
+      <c r="C55" s="125"/>
       <c r="D55" s="117" t="s">
         <v>127</v>
       </c>
@@ -28541,7 +28541,7 @@
       <c r="B56" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="129"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="117" t="s">
         <v>127</v>
       </c>
@@ -28553,7 +28553,7 @@
       <c r="B57" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="130"/>
+      <c r="C57" s="126"/>
       <c r="D57" s="117" t="s">
         <v>127</v>
       </c>
@@ -28565,7 +28565,7 @@
       <c r="B58" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="134" t="s">
+      <c r="C58" s="130" t="s">
         <v>957</v>
       </c>
       <c r="D58" s="117" t="s">
@@ -28579,7 +28579,7 @@
       <c r="B59" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="135"/>
+      <c r="C59" s="131"/>
       <c r="D59" s="117" t="s">
         <v>127</v>
       </c>
@@ -28591,7 +28591,7 @@
       <c r="B60" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C60" s="135"/>
+      <c r="C60" s="131"/>
       <c r="D60" s="117" t="s">
         <v>127</v>
       </c>
@@ -28603,7 +28603,7 @@
       <c r="B61" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C61" s="135"/>
+      <c r="C61" s="131"/>
       <c r="D61" s="117" t="s">
         <v>127</v>
       </c>
@@ -28615,7 +28615,7 @@
       <c r="B62" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C62" s="135"/>
+      <c r="C62" s="131"/>
       <c r="D62" s="117" t="s">
         <v>127</v>
       </c>
@@ -28627,7 +28627,7 @@
       <c r="B63" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="C63" s="135"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="117" t="s">
         <v>127</v>
       </c>
@@ -28639,7 +28639,7 @@
       <c r="B64" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C64" s="135"/>
+      <c r="C64" s="131"/>
       <c r="D64" s="117" t="s">
         <v>127</v>
       </c>
@@ -28651,7 +28651,7 @@
       <c r="B65" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C65" s="136"/>
+      <c r="C65" s="132"/>
       <c r="D65" s="117" t="s">
         <v>127</v>
       </c>
@@ -28663,7 +28663,7 @@
       <c r="B66" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="C66" s="126" t="s">
+      <c r="C66" s="133" t="s">
         <v>881</v>
       </c>
       <c r="D66" s="117" t="s">
@@ -28677,7 +28677,7 @@
       <c r="B67" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="C67" s="126"/>
+      <c r="C67" s="133"/>
       <c r="D67" s="117" t="s">
         <v>127</v>
       </c>
@@ -28803,7 +28803,7 @@
       <c r="B77" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="126" t="s">
+      <c r="C77" s="133" t="s">
         <v>883</v>
       </c>
       <c r="D77" s="117" t="s">
@@ -28817,7 +28817,7 @@
       <c r="B78" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="126"/>
+      <c r="C78" s="133"/>
       <c r="D78" s="117" t="s">
         <v>127</v>
       </c>
@@ -28843,7 +28843,7 @@
       <c r="B80" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C80" s="126" t="s">
+      <c r="C80" s="133" t="s">
         <v>885</v>
       </c>
       <c r="D80" s="117" t="s">
@@ -28857,7 +28857,7 @@
       <c r="B81" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="C81" s="126"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="117" t="s">
         <v>127</v>
       </c>
@@ -28869,7 +28869,7 @@
       <c r="B82" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="C82" s="126"/>
+      <c r="C82" s="133"/>
       <c r="D82" s="117" t="s">
         <v>127</v>
       </c>
@@ -28881,7 +28881,7 @@
       <c r="B83" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="C83" s="126" t="s">
+      <c r="C83" s="133" t="s">
         <v>886</v>
       </c>
       <c r="D83" s="117" t="s">
@@ -28895,7 +28895,7 @@
       <c r="B84" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="C84" s="126"/>
+      <c r="C84" s="133"/>
       <c r="D84" s="117" t="s">
         <v>127</v>
       </c>
@@ -28907,7 +28907,7 @@
       <c r="B85" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="C85" s="126"/>
+      <c r="C85" s="133"/>
       <c r="D85" s="117" t="s">
         <v>127</v>
       </c>
@@ -28919,7 +28919,7 @@
       <c r="B86" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="C86" s="126"/>
+      <c r="C86" s="133"/>
       <c r="D86" s="117" t="s">
         <v>127</v>
       </c>
@@ -28931,7 +28931,7 @@
       <c r="B87" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="C87" s="126"/>
+      <c r="C87" s="133"/>
       <c r="D87" s="117" t="s">
         <v>127</v>
       </c>
@@ -28943,7 +28943,7 @@
       <c r="B88" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="C88" s="126" t="s">
+      <c r="C88" s="133" t="s">
         <v>887</v>
       </c>
       <c r="D88" s="117" t="s">
@@ -28957,7 +28957,7 @@
       <c r="B89" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="C89" s="126"/>
+      <c r="C89" s="133"/>
       <c r="D89" s="117" t="s">
         <v>127</v>
       </c>
@@ -29782,19 +29782,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C75"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C119:C122"/>
@@ -29811,6 +29798,19 @@
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C87"/>
     <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C75"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1048576 C1:C2 C12:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
